--- a/Uls_Ramya/TestData/ijaraTestData.xlsx
+++ b/Uls_Ramya/TestData/ijaraTestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fc\fcproduction\files_vol\task\6530d485324b554d6b8f98bb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fc\fcproduction\files_vol\task\653a45a818a37c28251fdcfc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44C9AACE-4614-4D35-9DD1-5A44436ADBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B086A9B-C45F-478B-990A-147454DF8EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="3040" windowWidth="16800" windowHeight="9760"/>
   </bookViews>
@@ -23,13 +23,14 @@
     <sheet name="EmpDetailsCom_firmTestData" sheetId="8" r:id="rId8"/>
     <sheet name="ApplicationDataEntry_testdata" sheetId="9" r:id="rId9"/>
     <sheet name="Murabha_Repayment_TestData" sheetId="10" r:id="rId10"/>
+    <sheet name="CustomerDetails_TestData" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="331">
   <si>
     <t>UserType</t>
   </si>
@@ -70,6 +71,12 @@
     <t>0363</t>
   </si>
   <si>
+    <t>userType05</t>
+  </si>
+  <si>
+    <t>0368</t>
+  </si>
+  <si>
     <t>Test Case ID</t>
   </si>
   <si>
@@ -983,17 +990,48 @@
   </si>
   <si>
     <t>DS01_AT_MU_IRM_007</t>
+  </si>
+  <si>
+    <t>Record_Firstname</t>
+  </si>
+  <si>
+    <t>mismatch data</t>
+  </si>
+  <si>
+    <t>matching data</t>
+  </si>
+  <si>
+    <t>AT_TW_CD_03</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_CD_03</t>
+  </si>
+  <si>
+    <t>MALAYSIAN</t>
+  </si>
+  <si>
+    <t>AT_TW_CD_05</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_CD_05</t>
+  </si>
+  <si>
+    <t>AT_TW_CD_06</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_CD_06</t>
+  </si>
+  <si>
+    <t>mismatch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="[$Rs.-4009]#,##0.00;[Red]&quot;-&quot;[$Rs.-4009]#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="[$-4009]0.000%"/>
-    <numFmt numFmtId="166" formatCode="[$-4009]00"/>
-    <numFmt numFmtId="167" formatCode="[$-4009]General"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="[$Rs.-4009]#,##0.00;[Red]&quot;-&quot;[$Rs.-4009]#,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1045,7 +1083,7 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1053,18 +1091,16 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
     <cellStyle name="Heading" xfId="2"/>
     <cellStyle name="Heading1" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -1381,14 +1417,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD21"/>
+  <dimension ref="A1:XFD6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.25" style="1" customWidth="1"/>
-    <col min="2" max="1024" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="1" customWidth="1"/>
+    <col min="2" max="1024" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -1445,26 +1481,27 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="I8" s="4"/>
-    </row>
-    <row r="19" spans="11:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="K19" s="5"/>
-    </row>
-    <row r="21" spans="11:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="K21" s="5"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
     <hyperlink ref="C4" r:id="rId2"/>
     <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="1.3775590551181103" bottom="1.3775590551181103" header="0.98385826771653528" footer="0.98385826771653528"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -1478,82 +1515,82 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.4140625" style="1" customWidth="1"/>
-    <col min="3" max="1024" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.08203125" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C2" s="1">
         <v>3571</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H2" s="1">
         <v>123456</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L2" s="1">
         <v>231</v>
@@ -1561,19 +1598,115 @@
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C3" s="1">
         <v>3572</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="1.3775590551181103" bottom="1.3775590551181103" header="0.98385826771653528" footer="0.98385826771653528"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.9140625" customWidth="1"/>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="3" max="3" width="10.9140625" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" customWidth="1"/>
+    <col min="5" max="1024" width="8.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3595</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3595</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3595</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0.63622047244094493" bottom="0.63622047244094493" header="0" footer="0"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1585,137 +1718,137 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N2" s="1">
         <v>987456</v>
@@ -1736,110 +1869,110 @@
         <v>101010</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA5" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1849,7 +1982,7 @@
     <hyperlink ref="Z6" r:id="rId3" location="$"/>
     <hyperlink ref="Z7" r:id="rId4" location="$"/>
   </hyperlinks>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="1.3775590551181103" bottom="1.3775590551181103" header="0.98385826771653528" footer="0.98385826771653528"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -1863,226 +1996,226 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1">
         <v>2965</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1">
         <v>2965</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2090,7 +2223,7 @@
     <hyperlink ref="S2" r:id="rId1"/>
     <hyperlink ref="AF3" r:id="rId2" location="$"/>
   </hyperlinks>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="1.3775590551181103" bottom="1.3775590551181103" header="0.98385826771653528" footer="0.98385826771653528"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2104,59 +2237,59 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="1.3775590551181103" bottom="1.3775590551181103" header="0.98385826771653528" footer="0.98385826771653528"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2170,256 +2303,256 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="AA2" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AF3" r:id="rId1" location="$"/>
   </hyperlinks>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="1.3775590551181103" bottom="1.3775590551181103" header="0.98385826771653528" footer="0.98385826771653528"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2433,250 +2566,253 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" style="1" customWidth="1"/>
+    <col min="4" max="1024" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C2" s="1">
         <v>2971</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="N2" s="1">
         <v>23</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="U2" s="1">
         <v>2</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C3" s="1">
         <v>2971</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C4" s="1">
         <v>2971</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C5" s="1">
         <v>2971</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C6" s="1">
         <v>2971</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2685,7 +2821,7 @@
     <hyperlink ref="AA5" r:id="rId2" location="$"/>
     <hyperlink ref="AA6" r:id="rId3" location="$"/>
   </hyperlinks>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="1.3775590551181103" bottom="1.3775590551181103" header="0.98385826771653528" footer="0.98385826771653528"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2699,55 +2835,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="1.3775590551181103" bottom="1.3775590551181103" header="0.98385826771653528" footer="0.98385826771653528"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2761,88 +2897,88 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="1.3775590551181103" bottom="1.3775590551181103" header="0.98385826771653528" footer="0.98385826771653528"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2856,109 +2992,109 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="K3" s="1">
         <v>1000000</v>
@@ -2970,51 +3106,51 @@
         <v>60000</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="O3" s="1">
         <v>2</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="1.3775590551181103" bottom="1.3775590551181103" header="0.98385826771653528" footer="0.98385826771653528"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/Uls_Ramya/TestData/ijaraTestData.xlsx
+++ b/Uls_Ramya/TestData/ijaraTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fc\fcproduction\files_vol\task\653a45a818a37c28251fdcfc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fc\fcproduction\files_vol\task\6541e2c4145c6da002708476\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B086A9B-C45F-478B-990A-147454DF8EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFE3E35B-2583-4A01-B7C5-83761C52A049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="3040" windowWidth="16800" windowHeight="9760"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="16800" windowHeight="9760"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,15 @@
     <sheet name="ApplicationDataEntry_testdata" sheetId="9" r:id="rId9"/>
     <sheet name="Murabha_Repayment_TestData" sheetId="10" r:id="rId10"/>
     <sheet name="CustomerDetails_TestData" sheetId="11" r:id="rId11"/>
+    <sheet name="mura_identificationDetail" sheetId="12" r:id="rId12"/>
+    <sheet name="identificatindetail_testdata" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="335">
   <si>
     <t>UserType</t>
   </si>
@@ -77,6 +79,12 @@
     <t>0368</t>
   </si>
   <si>
+    <t>userType06</t>
+  </si>
+  <si>
+    <t>0323</t>
+  </si>
+  <si>
     <t>Test Case ID</t>
   </si>
   <si>
@@ -990,6 +998,12 @@
   </si>
   <si>
     <t>DS01_AT_MU_IRM_007</t>
+  </si>
+  <si>
+    <t>AT_DC_MU_ID_001</t>
+  </si>
+  <si>
+    <t>DS01_AT_DC_MU_ID_001</t>
   </si>
   <si>
     <t>Record_Firstname</t>
@@ -1029,11 +1043,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="165" formatCode="[$Rs.-4009]#,##0.00;[Red]&quot;-&quot;[$Rs.-4009]#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$-4009]General"/>
+    <numFmt numFmtId="166" formatCode="[$Rs.-4009]#,##0.00;[Red]&quot;-&quot;[$Rs.-4009]#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1050,6 +1065,14 @@
       <b/>
       <i/>
       <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1060,6 +1083,15 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1081,31 +1113,163 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
-    <cellStyle name="Heading" xfId="2"/>
-    <cellStyle name="Heading1" xfId="3"/>
+  <cellStyles count="50">
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="2"/>
+    <cellStyle name="Excel Built-in Heading 1" xfId="3"/>
+    <cellStyle name="Excel Built-in Heading 1 1" xfId="4"/>
+    <cellStyle name="Excel Built-in Heading 1 2" xfId="5"/>
+    <cellStyle name="Excel Built-in Heading 1 3" xfId="6"/>
+    <cellStyle name="Excel Built-in Heading 1 4" xfId="7"/>
+    <cellStyle name="Excel Built-in Heading 1 5" xfId="8"/>
+    <cellStyle name="Excel Built-in Heading 1 6" xfId="9"/>
+    <cellStyle name="Excel Built-in Heading 1 7" xfId="10"/>
+    <cellStyle name="Excel Built-in Heading 1 8" xfId="11"/>
+    <cellStyle name="Excel Built-in Heading 1 9" xfId="12"/>
+    <cellStyle name="Heading" xfId="13"/>
+    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading1" xfId="14"/>
+    <cellStyle name="Heading1 1" xfId="15"/>
+    <cellStyle name="Heading1 10" xfId="16"/>
+    <cellStyle name="Heading1 11" xfId="17"/>
+    <cellStyle name="Heading1 2" xfId="18"/>
+    <cellStyle name="Heading1 3" xfId="19"/>
+    <cellStyle name="Heading1 4" xfId="20"/>
+    <cellStyle name="Heading1 5" xfId="21"/>
+    <cellStyle name="Heading1 6" xfId="22"/>
+    <cellStyle name="Heading1 7" xfId="23"/>
+    <cellStyle name="Heading1 8" xfId="24"/>
+    <cellStyle name="Heading1 9" xfId="25"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="4"/>
-    <cellStyle name="Result2" xfId="5"/>
+    <cellStyle name="Result" xfId="26"/>
+    <cellStyle name="Result 1" xfId="27"/>
+    <cellStyle name="Result 10" xfId="28"/>
+    <cellStyle name="Result 11" xfId="29"/>
+    <cellStyle name="Result 2" xfId="30"/>
+    <cellStyle name="Result 3" xfId="31"/>
+    <cellStyle name="Result 4" xfId="32"/>
+    <cellStyle name="Result 5" xfId="33"/>
+    <cellStyle name="Result 6" xfId="34"/>
+    <cellStyle name="Result 7" xfId="35"/>
+    <cellStyle name="Result 8" xfId="36"/>
+    <cellStyle name="Result 9" xfId="37"/>
+    <cellStyle name="Result2" xfId="38"/>
+    <cellStyle name="Result2 1" xfId="39"/>
+    <cellStyle name="Result2 10" xfId="40"/>
+    <cellStyle name="Result2 11" xfId="41"/>
+    <cellStyle name="Result2 2" xfId="42"/>
+    <cellStyle name="Result2 3" xfId="43"/>
+    <cellStyle name="Result2 4" xfId="44"/>
+    <cellStyle name="Result2 5" xfId="45"/>
+    <cellStyle name="Result2 6" xfId="46"/>
+    <cellStyle name="Result2 7" xfId="47"/>
+    <cellStyle name="Result2 8" xfId="48"/>
+    <cellStyle name="Result2 9" xfId="49"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1417,14 +1581,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD6"/>
+  <dimension ref="A1:XFD7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="1" customWidth="1"/>
-    <col min="2" max="1024" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="1024" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -1491,6 +1655,17 @@
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1501,7 +1676,7 @@
     <hyperlink ref="C5" r:id="rId3"/>
     <hyperlink ref="C6" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="6.4964566929133856" bottom="6.4964566929133856" header="6.1027559055118106" footer="6.1027559055118106"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -1509,88 +1684,88 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD3"/>
+  <dimension ref="A1:XFD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.08203125" style="1" customWidth="1"/>
-    <col min="3" max="1024" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C2" s="1">
         <v>3571</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H2" s="1">
         <v>123456</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L2" s="1">
         <v>231</v>
@@ -1598,17 +1773,28 @@
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C3" s="1">
         <v>3572</v>
       </c>
     </row>
+    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3183</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="6.4964566929133856" bottom="6.4964566929133856" header="6.1027559055118106" footer="6.1027559055118106"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -1622,90 +1808,182 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.9140625" customWidth="1"/>
-    <col min="2" max="2" width="22.75" customWidth="1"/>
-    <col min="3" max="3" width="10.9140625" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" customWidth="1"/>
-    <col min="5" max="1024" width="8.75" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="29.75" customWidth="1"/>
+    <col min="5" max="1024" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G1" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C2" s="1">
         <v>3595</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C3" s="1">
         <v>3595</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C4" s="1">
         <v>3595</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0.63622047244094493" bottom="0.63622047244094493" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="170.81929133858264" bottom="170.81929133858264" header="0" footer="0"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;K000000Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.08203125" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="1024" width="9.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3546</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="15.59724409448819" bottom="15.59724409448819" header="0" footer="0"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;K000000Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.9140625" customWidth="1"/>
+    <col min="4" max="1024" width="8.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0.63543307086614176" bottom="0.63543307086614176" header="0" footer="0"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1718,137 +1996,137 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N2" s="1">
         <v>987456</v>
@@ -1869,110 +2147,110 @@
         <v>101010</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA5" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1982,7 +2260,7 @@
     <hyperlink ref="Z6" r:id="rId3" location="$"/>
     <hyperlink ref="Z7" r:id="rId4" location="$"/>
   </hyperlinks>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="6.4964566929133856" bottom="6.4964566929133856" header="6.1027559055118106" footer="6.1027559055118106"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -1996,226 +2274,226 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1">
         <v>2965</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C3" s="1">
         <v>2965</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2223,7 +2501,7 @@
     <hyperlink ref="S2" r:id="rId1"/>
     <hyperlink ref="AF3" r:id="rId2" location="$"/>
   </hyperlinks>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="6.4964566929133856" bottom="6.4964566929133856" header="6.1027559055118106" footer="6.1027559055118106"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2237,59 +2515,59 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="6.4964566929133856" bottom="6.4964566929133856" header="6.1027559055118106" footer="6.1027559055118106"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2303,256 +2581,256 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="AA2" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AF3" r:id="rId1" location="$"/>
   </hyperlinks>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="6.4964566929133856" bottom="6.4964566929133856" header="6.1027559055118106" footer="6.1027559055118106"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2566,253 +2844,253 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" style="1" customWidth="1"/>
-    <col min="4" max="1024" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1" width="35.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.58203125" style="1" customWidth="1"/>
+    <col min="4" max="1024" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C2" s="1">
         <v>2971</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N2" s="1">
         <v>23</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="U2" s="1">
         <v>2</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C3" s="1">
         <v>2971</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C4" s="1">
         <v>2971</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C5" s="1">
         <v>2971</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C6" s="1">
         <v>2971</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2821,7 +3099,7 @@
     <hyperlink ref="AA5" r:id="rId2" location="$"/>
     <hyperlink ref="AA6" r:id="rId3" location="$"/>
   </hyperlinks>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="6.4964566929133856" bottom="6.4964566929133856" header="6.1027559055118106" footer="6.1027559055118106"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2835,55 +3113,55 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>252</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="6.4964566929133856" bottom="6.4964566929133856" header="6.1027559055118106" footer="6.1027559055118106"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2897,88 +3175,88 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="6.4964566929133856" bottom="6.4964566929133856" header="6.1027559055118106" footer="6.1027559055118106"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2992,109 +3270,109 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="9" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="11" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K3" s="1">
         <v>1000000</v>
@@ -3106,51 +3384,51 @@
         <v>60000</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="O3" s="1">
         <v>2</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="2.1653543307086616" bottom="2.1653543307086616" header="1.7716535433070866" footer="1.7716535433070866"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="6.4964566929133856" bottom="6.4964566929133856" header="6.1027559055118106" footer="6.1027559055118106"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/Uls_Ramya/TestData/ijaraTestData.xlsx
+++ b/Uls_Ramya/TestData/ijaraTestData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fc\fcproduction\files_vol\task\6541e2c4145c6da002708476\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fc\fcproduction\files_vol\task\654e01e2b4688faaf4ffbc74\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFE3E35B-2583-4A01-B7C5-83761C52A049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAAA9259-C77E-47F0-8AB0-E505AC812A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="16800" windowHeight="9760"/>
   </bookViews>
@@ -25,14 +25,14 @@
     <sheet name="Murabha_Repayment_TestData" sheetId="10" r:id="rId10"/>
     <sheet name="CustomerDetails_TestData" sheetId="11" r:id="rId11"/>
     <sheet name="mura_identificationDetail" sheetId="12" r:id="rId12"/>
-    <sheet name="identificatindetail_testdata" sheetId="13" r:id="rId13"/>
+    <sheet name="Tawarooq_Repayment" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" refMode="R1C1" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="349">
   <si>
     <t>UserType</t>
   </si>
@@ -67,6 +67,12 @@
     <t>0305</t>
   </si>
   <si>
+    <t>TAWAROOQ</t>
+  </si>
+  <si>
+    <t>Repayment</t>
+  </si>
+  <si>
     <t>userType04</t>
   </si>
   <si>
@@ -1037,6 +1043,42 @@
   </si>
   <si>
     <t>mismatch</t>
+  </si>
+  <si>
+    <t>ref no</t>
+  </si>
+  <si>
+    <t>save_record_reference_number</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_IRM_01</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_AD_IRM_01</t>
+  </si>
+  <si>
+    <t>TEST KI</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_IRM_04</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_AD_IRM_04</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_IRM_06</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_AD_IRM_06</t>
+  </si>
+  <si>
+    <t>0181.</t>
+  </si>
+  <si>
+    <t>0181</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1090,7 @@
     <numFmt numFmtId="165" formatCode="[$-4009]General"/>
     <numFmt numFmtId="166" formatCode="[$Rs.-4009]#,##0.00;[Red]&quot;-&quot;[$Rs.-4009]#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1095,6 +1137,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1113,13 +1161,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
@@ -1146,13 +1206,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
@@ -1179,16 +1254,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
@@ -1197,79 +1269,92 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="62">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="2"/>
     <cellStyle name="Excel Built-in Heading 1" xfId="3"/>
     <cellStyle name="Excel Built-in Heading 1 1" xfId="4"/>
-    <cellStyle name="Excel Built-in Heading 1 2" xfId="5"/>
-    <cellStyle name="Excel Built-in Heading 1 3" xfId="6"/>
-    <cellStyle name="Excel Built-in Heading 1 4" xfId="7"/>
-    <cellStyle name="Excel Built-in Heading 1 5" xfId="8"/>
-    <cellStyle name="Excel Built-in Heading 1 6" xfId="9"/>
-    <cellStyle name="Excel Built-in Heading 1 7" xfId="10"/>
-    <cellStyle name="Excel Built-in Heading 1 8" xfId="11"/>
-    <cellStyle name="Excel Built-in Heading 1 9" xfId="12"/>
-    <cellStyle name="Heading" xfId="13"/>
+    <cellStyle name="Excel Built-in Heading 1 10" xfId="5"/>
+    <cellStyle name="Excel Built-in Heading 1 11" xfId="6"/>
+    <cellStyle name="Excel Built-in Heading 1 12" xfId="7"/>
+    <cellStyle name="Excel Built-in Heading 1 2" xfId="8"/>
+    <cellStyle name="Excel Built-in Heading 1 3" xfId="9"/>
+    <cellStyle name="Excel Built-in Heading 1 4" xfId="10"/>
+    <cellStyle name="Excel Built-in Heading 1 5" xfId="11"/>
+    <cellStyle name="Excel Built-in Heading 1 6" xfId="12"/>
+    <cellStyle name="Excel Built-in Heading 1 7" xfId="13"/>
+    <cellStyle name="Excel Built-in Heading 1 8" xfId="14"/>
+    <cellStyle name="Excel Built-in Heading 1 9" xfId="15"/>
+    <cellStyle name="Heading" xfId="16"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading1" xfId="14"/>
-    <cellStyle name="Heading1 1" xfId="15"/>
-    <cellStyle name="Heading1 10" xfId="16"/>
-    <cellStyle name="Heading1 11" xfId="17"/>
-    <cellStyle name="Heading1 2" xfId="18"/>
-    <cellStyle name="Heading1 3" xfId="19"/>
-    <cellStyle name="Heading1 4" xfId="20"/>
-    <cellStyle name="Heading1 5" xfId="21"/>
-    <cellStyle name="Heading1 6" xfId="22"/>
-    <cellStyle name="Heading1 7" xfId="23"/>
-    <cellStyle name="Heading1 8" xfId="24"/>
-    <cellStyle name="Heading1 9" xfId="25"/>
+    <cellStyle name="Heading1" xfId="17"/>
+    <cellStyle name="Heading1 1" xfId="18"/>
+    <cellStyle name="Heading1 10" xfId="19"/>
+    <cellStyle name="Heading1 11" xfId="20"/>
+    <cellStyle name="Heading1 12" xfId="21"/>
+    <cellStyle name="Heading1 13" xfId="22"/>
+    <cellStyle name="Heading1 14" xfId="23"/>
+    <cellStyle name="Heading1 2" xfId="24"/>
+    <cellStyle name="Heading1 3" xfId="25"/>
+    <cellStyle name="Heading1 4" xfId="26"/>
+    <cellStyle name="Heading1 5" xfId="27"/>
+    <cellStyle name="Heading1 6" xfId="28"/>
+    <cellStyle name="Heading1 7" xfId="29"/>
+    <cellStyle name="Heading1 8" xfId="30"/>
+    <cellStyle name="Heading1 9" xfId="31"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="26"/>
-    <cellStyle name="Result 1" xfId="27"/>
-    <cellStyle name="Result 10" xfId="28"/>
-    <cellStyle name="Result 11" xfId="29"/>
-    <cellStyle name="Result 2" xfId="30"/>
-    <cellStyle name="Result 3" xfId="31"/>
-    <cellStyle name="Result 4" xfId="32"/>
-    <cellStyle name="Result 5" xfId="33"/>
-    <cellStyle name="Result 6" xfId="34"/>
-    <cellStyle name="Result 7" xfId="35"/>
-    <cellStyle name="Result 8" xfId="36"/>
-    <cellStyle name="Result 9" xfId="37"/>
-    <cellStyle name="Result2" xfId="38"/>
-    <cellStyle name="Result2 1" xfId="39"/>
-    <cellStyle name="Result2 10" xfId="40"/>
-    <cellStyle name="Result2 11" xfId="41"/>
-    <cellStyle name="Result2 2" xfId="42"/>
-    <cellStyle name="Result2 3" xfId="43"/>
-    <cellStyle name="Result2 4" xfId="44"/>
-    <cellStyle name="Result2 5" xfId="45"/>
-    <cellStyle name="Result2 6" xfId="46"/>
-    <cellStyle name="Result2 7" xfId="47"/>
-    <cellStyle name="Result2 8" xfId="48"/>
-    <cellStyle name="Result2 9" xfId="49"/>
+    <cellStyle name="Result" xfId="32"/>
+    <cellStyle name="Result 1" xfId="33"/>
+    <cellStyle name="Result 10" xfId="34"/>
+    <cellStyle name="Result 11" xfId="35"/>
+    <cellStyle name="Result 12" xfId="36"/>
+    <cellStyle name="Result 13" xfId="37"/>
+    <cellStyle name="Result 14" xfId="38"/>
+    <cellStyle name="Result 2" xfId="39"/>
+    <cellStyle name="Result 3" xfId="40"/>
+    <cellStyle name="Result 4" xfId="41"/>
+    <cellStyle name="Result 5" xfId="42"/>
+    <cellStyle name="Result 6" xfId="43"/>
+    <cellStyle name="Result 7" xfId="44"/>
+    <cellStyle name="Result 8" xfId="45"/>
+    <cellStyle name="Result 9" xfId="46"/>
+    <cellStyle name="Result2" xfId="47"/>
+    <cellStyle name="Result2 1" xfId="48"/>
+    <cellStyle name="Result2 10" xfId="49"/>
+    <cellStyle name="Result2 11" xfId="50"/>
+    <cellStyle name="Result2 12" xfId="51"/>
+    <cellStyle name="Result2 13" xfId="52"/>
+    <cellStyle name="Result2 14" xfId="53"/>
+    <cellStyle name="Result2 2" xfId="54"/>
+    <cellStyle name="Result2 3" xfId="55"/>
+    <cellStyle name="Result2 4" xfId="56"/>
+    <cellStyle name="Result2 5" xfId="57"/>
+    <cellStyle name="Result2 6" xfId="58"/>
+    <cellStyle name="Result2 7" xfId="59"/>
+    <cellStyle name="Result2 8" xfId="60"/>
+    <cellStyle name="Result2 9" xfId="61"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1581,14 +1666,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
-    <col min="2" max="1024" width="11" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="19.6640625" collapsed="true"/>
+    <col min="2" max="1024" customWidth="true" style="1" width="11.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
@@ -1634,13 +1719,19 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -1649,10 +1740,10 @@
     </row>
     <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -1660,10 +1751,10 @@
     </row>
     <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -1676,7 +1767,7 @@
     <hyperlink ref="C5" r:id="rId3"/>
     <hyperlink ref="C6" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="6.4964566929133856" bottom="6.4964566929133856" header="6.1027559055118106" footer="6.1027559055118106"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.6775590551181105" bottom="7.6775590551181105" header="7.2838582677165356" footer="7.2838582677165356"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -1684,88 +1775,88 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5" style="1" customWidth="1"/>
-    <col min="3" max="1024" width="11" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="30.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="23.9140625" collapsed="true"/>
+    <col min="3" max="1024" customWidth="true" style="1" width="11.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C2" s="1">
         <v>3571</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H2" s="1">
         <v>123456</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L2" s="1">
         <v>231</v>
@@ -1773,10 +1864,10 @@
     </row>
     <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C3" s="1">
         <v>3572</v>
@@ -1784,17 +1875,17 @@
     </row>
     <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C4" s="1">
         <v>3183</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="6.4964566929133856" bottom="6.4964566929133856" header="6.1027559055118106" footer="6.1027559055118106"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.6775590551181105" bottom="7.6775590551181105" header="7.2838582677165356" footer="7.2838582677165356"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -1808,86 +1899,86 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="29.75" customWidth="1"/>
-    <col min="5" max="1024" width="10.58203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="33.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.25" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.4140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="31.5" collapsed="true"/>
+    <col min="5" max="1024" customWidth="true" width="11.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C2" s="1">
         <v>3595</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C3" s="1">
         <v>3595</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C4" s="1">
         <v>3595</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="170.81929133858264" bottom="170.81929133858264" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="227.70826771653543" bottom="227.70826771653543" header="0" footer="0"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
@@ -1904,36 +1995,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.08203125" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="1024" width="9.58203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="32.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.9140625" collapsed="true"/>
+    <col min="4" max="1024" customWidth="true" width="10.08203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C2" s="1">
         <v>3546</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="15.59724409448819" bottom="15.59724409448819" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="78.197244094488184" bottom="78.197244094488184" header="0" footer="0"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
@@ -1944,42 +2035,205 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.9140625" customWidth="1"/>
-    <col min="4" max="1024" width="8.75" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.4140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.25" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="14.25" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.1640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="9.25" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="9" max="14" customWidth="true" width="9.25" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="19.5" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="26.3046875" collapsed="true"/>
+    <col min="17" max="1024" customWidth="true" width="9.25" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <v>251</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>287</v>
+        <v>340</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3208</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I2" s="1">
+        <v>123456</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="M2" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3208</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I3" s="1">
+        <v>123456</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="M3" s="1">
+        <v>231</v>
+      </c>
+      <c r="N3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C4">
+        <v>3208</v>
+      </c>
+      <c r="D4">
+        <v>2068</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="I4" s="1">
+        <v>123456</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="M4" s="1">
+        <v>231</v>
+      </c>
+      <c r="N4" t="s">
+        <v>344</v>
+      </c>
+      <c r="P4" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0.63543307086614176" bottom="0.63543307086614176" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="4.014173228346456" bottom="4.014173228346456" header="0" footer="0"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
@@ -1990,143 +2244,143 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD7"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="11" style="1" customWidth="1"/>
+    <col min="1" max="1024" customWidth="true" style="1" width="11.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N2" s="1">
         <v>987456</v>
@@ -2147,110 +2401,110 @@
         <v>101010</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA5" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2260,7 +2514,7 @@
     <hyperlink ref="Z6" r:id="rId3" location="$"/>
     <hyperlink ref="Z7" r:id="rId4" location="$"/>
   </hyperlinks>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="6.4964566929133856" bottom="6.4964566929133856" header="6.1027559055118106" footer="6.1027559055118106"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.6775590551181105" bottom="7.6775590551181105" header="7.2838582677165356" footer="7.2838582677165356"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2268,232 +2522,232 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD3"/>
+  <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="11" style="1" customWidth="1"/>
+    <col min="1" max="1024" customWidth="true" style="1" width="11.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1">
         <v>2965</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C3" s="1">
         <v>2965</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2501,7 +2755,7 @@
     <hyperlink ref="S2" r:id="rId1"/>
     <hyperlink ref="AF3" r:id="rId2" location="$"/>
   </hyperlinks>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="6.4964566929133856" bottom="6.4964566929133856" header="6.1027559055118106" footer="6.1027559055118106"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.6775590551181105" bottom="7.6775590551181105" header="7.2838582677165356" footer="7.2838582677165356"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2509,65 +2763,65 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="11" style="1" customWidth="1"/>
+    <col min="1" max="1024" customWidth="true" style="1" width="11.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="6.4964566929133856" bottom="6.4964566929133856" header="6.1027559055118106" footer="6.1027559055118106"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.6775590551181105" bottom="7.6775590551181105" header="7.2838582677165356" footer="7.2838582677165356"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2575,262 +2829,262 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD4"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="11" style="1" customWidth="1"/>
+    <col min="1" max="1024" customWidth="true" style="1" width="11.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="AA2" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AF3" r:id="rId1" location="$"/>
   </hyperlinks>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="6.4964566929133856" bottom="6.4964566929133856" header="6.1027559055118106" footer="6.1027559055118106"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.6775590551181105" bottom="7.6775590551181105" header="7.2838582677165356" footer="7.2838582677165356"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2838,259 +3092,259 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD6"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.58203125" style="1" customWidth="1"/>
-    <col min="4" max="1024" width="11" style="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="37.5" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="25.25" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="30.33203125" collapsed="true"/>
+    <col min="4" max="1024" customWidth="true" style="1" width="11.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C2" s="1">
         <v>2971</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="N2" s="1">
         <v>23</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="U2" s="1">
         <v>2</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C3" s="1">
         <v>2971</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C4" s="1">
         <v>2971</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C5" s="1">
         <v>2971</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C6" s="1">
         <v>2971</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -3099,7 +3353,7 @@
     <hyperlink ref="AA5" r:id="rId2" location="$"/>
     <hyperlink ref="AA6" r:id="rId3" location="$"/>
   </hyperlinks>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="6.4964566929133856" bottom="6.4964566929133856" header="6.1027559055118106" footer="6.1027559055118106"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.6775590551181105" bottom="7.6775590551181105" header="7.2838582677165356" footer="7.2838582677165356"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -3107,61 +3361,61 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="11" style="1" customWidth="1"/>
+    <col min="1" max="1024" customWidth="true" style="1" width="11.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="6.4964566929133856" bottom="6.4964566929133856" header="6.1027559055118106" footer="6.1027559055118106"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.6775590551181105" bottom="7.6775590551181105" header="7.2838582677165356" footer="7.2838582677165356"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -3169,94 +3423,94 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="11" style="1" customWidth="1"/>
+    <col min="1" max="1024" customWidth="true" style="1" width="11.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="6.4964566929133856" bottom="6.4964566929133856" header="6.1027559055118106" footer="6.1027559055118106"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.6775590551181105" bottom="7.6775590551181105" header="7.2838582677165356" footer="7.2838582677165356"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -3264,115 +3518,115 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD5"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1024" width="11" style="1" customWidth="1"/>
+    <col min="1" max="1024" customWidth="true" style="1" width="11.75" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K3" s="1">
         <v>1000000</v>
@@ -3384,51 +3638,51 @@
         <v>60000</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="O3" s="1">
         <v>2</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="6.4964566929133856" bottom="6.4964566929133856" header="6.1027559055118106" footer="6.1027559055118106"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.6775590551181105" bottom="7.6775590551181105" header="7.2838582677165356" footer="7.2838582677165356"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/Uls_Ramya/TestData/ijaraTestData.xlsx
+++ b/Uls_Ramya/TestData/ijaraTestData.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fc\fcproduction\files_vol\task\654e01e2b4688faaf4ffbc74\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fc\fcproduction\files_vol\task\6556ee5f573bccc89958a281\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAAA9259-C77E-47F0-8AB0-E505AC812A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34083F96-8266-4AEF-8407-7F6E45CD0612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="16800" windowHeight="9760"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="16800" windowHeight="9760"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,14 @@
     <sheet name="CustomerDetails_TestData" sheetId="11" r:id="rId11"/>
     <sheet name="mura_identificationDetail" sheetId="12" r:id="rId12"/>
     <sheet name="Tawarooq_Repayment" sheetId="13" r:id="rId13"/>
+    <sheet name="Tawarruq_DocumentDetails" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1" refMode="R1C1" iterateDelta="1E-4"/>
+  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="364">
   <si>
     <t>UserType</t>
   </si>
@@ -91,6 +92,9 @@
     <t>0323</t>
   </si>
   <si>
+    <t>userType07</t>
+  </si>
+  <si>
     <t>Test Case ID</t>
   </si>
   <si>
@@ -1045,9 +1049,6 @@
     <t>mismatch</t>
   </si>
   <si>
-    <t>ref no</t>
-  </si>
-  <si>
     <t>save_record_reference_number</t>
   </si>
   <si>
@@ -1075,10 +1076,55 @@
     <t>DS01_AT_TW_AD_IRM_06</t>
   </si>
   <si>
-    <t>0181.</t>
-  </si>
-  <si>
     <t>0181</t>
+  </si>
+  <si>
+    <t>Document Name</t>
+  </si>
+  <si>
+    <t>Required At Stage</t>
+  </si>
+  <si>
+    <t>Document Status</t>
+  </si>
+  <si>
+    <t>Mandatory/optional</t>
+  </si>
+  <si>
+    <t>Document Category</t>
+  </si>
+  <si>
+    <t>Document Quality</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_DOC_01</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_AD_DOC_01</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_DOC_02</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_AD_DOC_02</t>
+  </si>
+  <si>
+    <t>AADHAAR</t>
+  </si>
+  <si>
+    <t>Commodity Purchase Maker</t>
+  </si>
+  <si>
+    <t>Deferred</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>KYC Document</t>
+  </si>
+  <si>
+    <t>Valid and Clear</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1136,7 @@
     <numFmt numFmtId="165" formatCode="[$-4009]General"/>
     <numFmt numFmtId="166" formatCode="[$Rs.-4009]#,##0.00;[Red]&quot;-&quot;[$Rs.-4009]#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1107,7 +1153,7 @@
       <b/>
       <i/>
       <sz val="16"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1115,7 +1161,7 @@
       <b/>
       <i/>
       <sz val="16"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1143,6 +1189,17 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1161,200 +1218,48 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="62">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="62">
+  <cellStyles count="10">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="2"/>
-    <cellStyle name="Excel Built-in Heading 1" xfId="3"/>
-    <cellStyle name="Excel Built-in Heading 1 1" xfId="4"/>
-    <cellStyle name="Excel Built-in Heading 1 10" xfId="5"/>
-    <cellStyle name="Excel Built-in Heading 1 11" xfId="6"/>
-    <cellStyle name="Excel Built-in Heading 1 12" xfId="7"/>
-    <cellStyle name="Excel Built-in Heading 1 2" xfId="8"/>
-    <cellStyle name="Excel Built-in Heading 1 3" xfId="9"/>
-    <cellStyle name="Excel Built-in Heading 1 4" xfId="10"/>
-    <cellStyle name="Excel Built-in Heading 1 5" xfId="11"/>
-    <cellStyle name="Excel Built-in Heading 1 6" xfId="12"/>
-    <cellStyle name="Excel Built-in Heading 1 7" xfId="13"/>
-    <cellStyle name="Excel Built-in Heading 1 8" xfId="14"/>
-    <cellStyle name="Excel Built-in Heading 1 9" xfId="15"/>
-    <cellStyle name="Heading" xfId="16"/>
+    <cellStyle name="Heading" xfId="3"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading1" xfId="17"/>
-    <cellStyle name="Heading1 1" xfId="18"/>
-    <cellStyle name="Heading1 10" xfId="19"/>
-    <cellStyle name="Heading1 11" xfId="20"/>
-    <cellStyle name="Heading1 12" xfId="21"/>
-    <cellStyle name="Heading1 13" xfId="22"/>
-    <cellStyle name="Heading1 14" xfId="23"/>
-    <cellStyle name="Heading1 2" xfId="24"/>
-    <cellStyle name="Heading1 3" xfId="25"/>
-    <cellStyle name="Heading1 4" xfId="26"/>
-    <cellStyle name="Heading1 5" xfId="27"/>
-    <cellStyle name="Heading1 6" xfId="28"/>
-    <cellStyle name="Heading1 7" xfId="29"/>
-    <cellStyle name="Heading1 8" xfId="30"/>
-    <cellStyle name="Heading1 9" xfId="31"/>
+    <cellStyle name="Heading1" xfId="4"/>
+    <cellStyle name="Heading1 1" xfId="5"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="32"/>
-    <cellStyle name="Result 1" xfId="33"/>
-    <cellStyle name="Result 10" xfId="34"/>
-    <cellStyle name="Result 11" xfId="35"/>
-    <cellStyle name="Result 12" xfId="36"/>
-    <cellStyle name="Result 13" xfId="37"/>
-    <cellStyle name="Result 14" xfId="38"/>
-    <cellStyle name="Result 2" xfId="39"/>
-    <cellStyle name="Result 3" xfId="40"/>
-    <cellStyle name="Result 4" xfId="41"/>
-    <cellStyle name="Result 5" xfId="42"/>
-    <cellStyle name="Result 6" xfId="43"/>
-    <cellStyle name="Result 7" xfId="44"/>
-    <cellStyle name="Result 8" xfId="45"/>
-    <cellStyle name="Result 9" xfId="46"/>
-    <cellStyle name="Result2" xfId="47"/>
-    <cellStyle name="Result2 1" xfId="48"/>
-    <cellStyle name="Result2 10" xfId="49"/>
-    <cellStyle name="Result2 11" xfId="50"/>
-    <cellStyle name="Result2 12" xfId="51"/>
-    <cellStyle name="Result2 13" xfId="52"/>
-    <cellStyle name="Result2 14" xfId="53"/>
-    <cellStyle name="Result2 2" xfId="54"/>
-    <cellStyle name="Result2 3" xfId="55"/>
-    <cellStyle name="Result2 4" xfId="56"/>
-    <cellStyle name="Result2 5" xfId="57"/>
-    <cellStyle name="Result2 6" xfId="58"/>
-    <cellStyle name="Result2 7" xfId="59"/>
-    <cellStyle name="Result2 8" xfId="60"/>
-    <cellStyle name="Result2 9" xfId="61"/>
+    <cellStyle name="Result" xfId="6"/>
+    <cellStyle name="Result 1" xfId="7"/>
+    <cellStyle name="Result2" xfId="8"/>
+    <cellStyle name="Result2 1" xfId="9"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1666,17 +1571,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:XFD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="19.6640625" collapsed="true"/>
-    <col min="2" max="1024" customWidth="true" style="1" width="11.75" collapsed="true"/>
+    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
+    <col min="2" max="1024" width="12.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1687,7 +1592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15.5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1698,7 +1603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15.5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1709,7 +1614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15.5">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1726,7 +1631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15.5">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1738,7 +1643,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15.5">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1749,7 +1654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15.5">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1758,6 +1663,20 @@
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.5">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2068</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1767,7 +1686,7 @@
     <hyperlink ref="C5" r:id="rId3"/>
     <hyperlink ref="C6" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.6775590551181105" bottom="7.6775590551181105" header="7.2838582677165356" footer="7.2838582677165356"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="8.4653543307086618" bottom="8.4653543307086618" header="8.071653543307086" footer="8.071653543307086"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -1775,117 +1694,117 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:XFD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="30.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="23.9140625" collapsed="true"/>
-    <col min="3" max="1024" customWidth="true" style="1" width="11.75" collapsed="true"/>
+    <col min="1" max="1" width="31.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.9140625" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="12.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="15.5">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.5">
       <c r="A2" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C2" s="1">
         <v>3571</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H2" s="1">
         <v>123456</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L2" s="1">
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15.5">
       <c r="A3" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C3" s="1">
         <v>3572</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.5">
       <c r="A4" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C4" s="1">
         <v>3183</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.6775590551181105" bottom="7.6775590551181105" header="7.2838582677165356" footer="7.2838582677165356"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="8.4653543307086618" bottom="8.4653543307086618" header="8.071653543307086" footer="8.071653543307086"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -1897,88 +1816,88 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.25" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.4140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="31.5" collapsed="true"/>
-    <col min="5" max="1024" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="14.9140625" customWidth="1"/>
+    <col min="4" max="4" width="32.83203125" customWidth="1"/>
+    <col min="5" max="1024" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.5">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.5">
       <c r="A2" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C2" s="1">
         <v>3595</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.5">
       <c r="A3" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C3" s="1">
         <v>3595</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.5">
       <c r="A4" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C4" s="1">
         <v>3595</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="227.70826771653543" bottom="227.70826771653543" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0.15275590551181104" bottom="0.15275590551181104" header="0" footer="0"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
@@ -1993,38 +1912,38 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.1640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.9140625" collapsed="true"/>
-    <col min="4" max="1024" customWidth="true" width="10.08203125" collapsed="true"/>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.4140625" customWidth="1"/>
+    <col min="4" max="1024" width="10.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.5">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.5">
       <c r="A2" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C2" s="1">
         <v>3546</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="78.197244094488184" bottom="78.197244094488184" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="84.774803149606299" bottom="84.774803149606299" header="0" footer="0"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
@@ -2035,76 +1954,73 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="20.4140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.25" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="14.25" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.1640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.25" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="18.6640625" collapsed="true"/>
-    <col min="9" max="14" customWidth="true" width="9.25" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="19.5" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="26.3046875" collapsed="true"/>
-    <col min="17" max="1024" customWidth="true" width="9.25" collapsed="true"/>
+    <col min="1" max="1" width="21.25" customWidth="1"/>
+    <col min="2" max="2" width="36.75" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.58203125" customWidth="1"/>
+    <col min="7" max="7" width="19.4140625" customWidth="1"/>
+    <col min="8" max="13" width="9.58203125" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" customWidth="1"/>
+    <col min="15" max="15" width="27.4140625" customWidth="1"/>
+    <col min="16" max="1024" width="9.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="15.5">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>338</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.5">
       <c r="A2" s="1" t="s">
         <v>339</v>
       </c>
@@ -2114,36 +2030,35 @@
       <c r="C2" s="1">
         <v>3208</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="E2" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="I2" s="1">
+        <v>319</v>
+      </c>
+      <c r="H2" s="1">
         <v>123456</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="M2" s="1">
+        <v>322</v>
+      </c>
+      <c r="L2" s="1">
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="15.5">
       <c r="A3" s="1" t="s">
         <v>342</v>
       </c>
@@ -2153,39 +2068,38 @@
       <c r="C3" s="1">
         <v>3208</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="E3" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="I3" s="1">
+        <v>319</v>
+      </c>
+      <c r="H3" s="1">
         <v>123456</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="J3" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="M3" s="1">
+        <v>322</v>
+      </c>
+      <c r="L3" s="1">
         <v>231</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="15.5">
       <c r="A4" s="1" t="s">
         <v>345</v>
       </c>
@@ -2195,45 +2109,42 @@
       <c r="C4">
         <v>3208</v>
       </c>
-      <c r="D4">
-        <v>2068</v>
+      <c r="D4" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="I4" s="1">
+        <v>319</v>
+      </c>
+      <c r="H4" s="1">
         <v>123456</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="J4" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="M4" s="1">
+        <v>322</v>
+      </c>
+      <c r="L4" s="1">
         <v>231</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
         <v>344</v>
       </c>
-      <c r="P4" t="s">
-        <v>348</v>
+      <c r="O4" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="4.014173228346456" bottom="4.014173228346456" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="15.59724409448819" bottom="15.59724409448819" header="0" footer="0"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
@@ -2242,145 +2153,273 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1024" customWidth="true" style="1" width="11.75" collapsed="true"/>
+    <col min="1" max="1" width="32.25" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="21.75" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="9" max="1024" width="10.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.5">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.5">
+      <c r="A2" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3722</v>
+      </c>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:9" ht="26.5">
+      <c r="A3" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3722</v>
+      </c>
+      <c r="D3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="F3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G3" t="s">
+        <v>361</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="26.5">
+      <c r="A4" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3208</v>
+      </c>
+      <c r="D4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="F4" t="s">
+        <v>360</v>
+      </c>
+      <c r="G4" t="s">
+        <v>361</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78740157480314954" right="0.78740157480314954" top="1.3200787401574803" bottom="1.3200787401574803" header="0.78740157480314954" footer="0.78740157480314954"/>
+  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;10&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;10&amp;K000000Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:XFD7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.25"/>
+  <cols>
+    <col min="1" max="1024" width="12.25" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="15.5">
+      <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="15.5">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N2" s="1">
         <v>987456</v>
@@ -2401,110 +2440,110 @@
         <v>101010</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="W2" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="15.5">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA3" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="15.5">
+      <c r="A4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15.5">
+      <c r="A5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z5" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:29" ht="15.5">
+      <c r="A6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z6" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="AA6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="15.5">
+      <c r="A7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z7" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="AA7" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2514,7 +2553,7 @@
     <hyperlink ref="Z6" r:id="rId3" location="$"/>
     <hyperlink ref="Z7" r:id="rId4" location="$"/>
   </hyperlinks>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.6775590551181105" bottom="7.6775590551181105" header="7.2838582677165356" footer="7.2838582677165356"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="8.4653543307086618" bottom="8.4653543307086618" header="8.071653543307086" footer="8.071653543307086"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2522,232 +2561,232 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:XFD3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.25"/>
   <cols>
-    <col min="1" max="1024" customWidth="true" style="1" width="11.75" collapsed="true"/>
+    <col min="1" max="1024" width="12.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" ht="15.5">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="15.5">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1">
         <v>2965</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="15.5">
       <c r="A3" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C3" s="1">
         <v>2965</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2755,7 +2794,7 @@
     <hyperlink ref="S2" r:id="rId1"/>
     <hyperlink ref="AF3" r:id="rId2" location="$"/>
   </hyperlinks>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.6775590551181105" bottom="7.6775590551181105" header="7.2838582677165356" footer="7.2838582677165356"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="8.4653543307086618" bottom="8.4653543307086618" header="8.071653543307086" footer="8.071653543307086"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2763,65 +2802,65 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:XFD3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.25"/>
   <cols>
-    <col min="1" max="1024" customWidth="true" style="1" width="11.75" collapsed="true"/>
+    <col min="1" max="1024" width="12.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.5">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.5">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.5">
       <c r="A3" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.6775590551181105" bottom="7.6775590551181105" header="7.2838582677165356" footer="7.2838582677165356"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="8.4653543307086618" bottom="8.4653543307086618" header="8.071653543307086" footer="8.071653543307086"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -2829,262 +2868,262 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:XFD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.25"/>
   <cols>
-    <col min="1" max="1024" customWidth="true" style="1" width="11.75" collapsed="true"/>
+    <col min="1" max="1024" width="12.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="15.5">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="15.5">
       <c r="A2" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="15.5">
+      <c r="A3" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" ht="15.5">
+      <c r="A4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AF3" r:id="rId1" location="$"/>
   </hyperlinks>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.6775590551181105" bottom="7.6775590551181105" header="7.2838582677165356" footer="7.2838582677165356"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="8.4653543307086618" bottom="8.4653543307086618" header="8.071653543307086" footer="8.071653543307086"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -3092,259 +3131,259 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:XFD6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="37.5" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="25.25" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="30.33203125" collapsed="true"/>
-    <col min="4" max="1024" customWidth="true" style="1" width="11.75" collapsed="true"/>
+    <col min="1" max="1" width="39" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" style="1" customWidth="1"/>
+    <col min="4" max="1024" width="12.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="15.5">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="15.5">
       <c r="A2" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C2" s="1">
         <v>2971</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N2" s="1">
         <v>23</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="U2" s="1">
         <v>2</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="15.5">
       <c r="A3" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C3" s="1">
         <v>2971</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="15.5">
       <c r="A4" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C4" s="1">
         <v>2971</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15.5">
       <c r="A5" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C5" s="1">
         <v>2971</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="15.5" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15.5">
       <c r="A6" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C6" s="1">
         <v>2971</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3353,7 +3392,7 @@
     <hyperlink ref="AA5" r:id="rId2" location="$"/>
     <hyperlink ref="AA6" r:id="rId3" location="$"/>
   </hyperlinks>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.6775590551181105" bottom="7.6775590551181105" header="7.2838582677165356" footer="7.2838582677165356"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="8.4653543307086618" bottom="8.4653543307086618" header="8.071653543307086" footer="8.071653543307086"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -3361,61 +3400,61 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:XFD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.25"/>
   <cols>
-    <col min="1" max="1024" customWidth="true" style="1" width="11.75" collapsed="true"/>
+    <col min="1" max="1024" width="12.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.5">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.5">
       <c r="A2" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.5">
       <c r="A3" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:3" ht="15.5">
       <c r="A4" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.6775590551181105" bottom="7.6775590551181105" header="7.2838582677165356" footer="7.2838582677165356"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="8.4653543307086618" bottom="8.4653543307086618" header="8.071653543307086" footer="8.071653543307086"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -3423,94 +3462,94 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:XFD7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.25"/>
   <cols>
-    <col min="1" max="1024" customWidth="true" style="1" width="11.75" collapsed="true"/>
+    <col min="1" max="1024" width="12.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.5">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.5">
       <c r="A2" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.5">
       <c r="A3" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.5">
       <c r="A4" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.5">
       <c r="A5" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.5">
       <c r="A6" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.5">
       <c r="A7" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.6775590551181105" bottom="7.6775590551181105" header="7.2838582677165356" footer="7.2838582677165356"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="8.4653543307086618" bottom="8.4653543307086618" header="8.071653543307086" footer="8.071653543307086"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
@@ -3518,115 +3557,115 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:XFD5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.25"/>
   <cols>
-    <col min="1" max="1024" customWidth="true" style="1" width="11.75" collapsed="true"/>
+    <col min="1" max="1024" width="12.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15.5">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.5">
       <c r="A2" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.5">
       <c r="A3" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K3" s="1">
         <v>1000000</v>
@@ -3638,51 +3677,51 @@
         <v>60000</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O3" s="1">
         <v>2</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.5">
       <c r="A4" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.5">
       <c r="A5" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="7.6775590551181105" bottom="7.6775590551181105" header="7.2838582677165356" footer="7.2838582677165356"/>
+  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="8.4653543307086618" bottom="8.4653543307086618" header="8.071653543307086" footer="8.071653543307086"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/Uls_Ramya/TestData/ijaraTestData.xlsx
+++ b/Uls_Ramya/TestData/ijaraTestData.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fc\fcproduction\files_vol\task\6556ee5f573bccc89958a281\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34083F96-8266-4AEF-8407-7F6E45CD0612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="16800" windowHeight="9760"/>
+    <workbookView windowWidth="21240" windowHeight="6960"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -27,13 +21,17 @@
     <sheet name="mura_identificationDetail" sheetId="12" r:id="rId12"/>
     <sheet name="Tawarooq_Repayment" sheetId="13" r:id="rId13"/>
     <sheet name="Tawarruq_DocumentDetails" sheetId="14" r:id="rId14"/>
+    <sheet name="Tawar_NewApp_CustomerDetails" sheetId="15" r:id="rId15"/>
+    <sheet name="Tawar_offering" sheetId="18" r:id="rId16"/>
+    <sheet name="Tawa_Commoditymaker" sheetId="19" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="1E-4"/>
+  <calcPr calcId="144525"/>
+  <oleSize ref="A1:J10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="391">
   <si>
     <t>UserType</t>
   </si>
@@ -95,6 +93,24 @@
     <t>userType07</t>
   </si>
   <si>
+    <t>userType08</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>offerDetail</t>
+  </si>
+  <si>
+    <t>userType09</t>
+  </si>
+  <si>
+    <t>commodityMaker</t>
+  </si>
+  <si>
+    <t>InsuranceInfo,DocumentDetail</t>
+  </si>
+  <si>
     <t>Test Case ID</t>
   </si>
   <si>
@@ -1125,29 +1141,274 @@
   </si>
   <si>
     <t>Valid and Clear</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Maritail status</t>
+  </si>
+  <si>
+    <t>Education level</t>
+  </si>
+  <si>
+    <t>residential status</t>
+  </si>
+  <si>
+    <t>AT_TW_NewApp_CD_01</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NewApp_CD_01</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Miss</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
+  </si>
+  <si>
+    <t>Graduate</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>AT_TW_NewApp_CD_06</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NewApp_CD_06</t>
+  </si>
+  <si>
+    <t>AT_TW_OFO_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS01_AT_TW_OFO_02
+</t>
+  </si>
+  <si>
+    <t>TRL</t>
+  </si>
+  <si>
+    <t>AT_TW_CSM_17</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_CSM_17</t>
+  </si>
+  <si>
+    <t>AT_TW_CSM_18</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_CSM_18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="0.000%"/>
-    <numFmt numFmtId="165" formatCode="[$-4009]General"/>
-    <numFmt numFmtId="166" formatCode="[$Rs.-4009]#,##0.00;[Red]&quot;-&quot;[$Rs.-4009]#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="7">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="[$-4009]General"/>
+    <numFmt numFmtId="181" formatCode="[$Rs.-4009]#,##0.00;[Red]&quot;-&quot;[$Rs.-4009]#,##0.00"/>
+    <numFmt numFmtId="182" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas11"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1155,15 +1416,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1172,7 +1425,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1181,35 +1434,204 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Consolas1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1217,58 +1639,425 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="180" fontId="25" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="10">
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="2"/>
-    <cellStyle name="Heading" xfId="3"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading1" xfId="4"/>
-    <cellStyle name="Heading1 1" xfId="5"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="6"/>
-    <cellStyle name="Result 1" xfId="7"/>
-    <cellStyle name="Result2" xfId="8"/>
-    <cellStyle name="Result2 1" xfId="9"/>
+  <cellStyles count="85">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="49"/>
+    <cellStyle name="Excel Built-in Heading 1" xfId="50"/>
+    <cellStyle name="Excel Built-in Heading 1 1" xfId="51"/>
+    <cellStyle name="Excel Built-in Heading 1 2" xfId="52"/>
+    <cellStyle name="Excel Built-in Heading 1 3" xfId="53"/>
+    <cellStyle name="Excel Built-in Heading 1 4" xfId="54"/>
+    <cellStyle name="Excel Built-in Heading 1 5" xfId="55"/>
+    <cellStyle name="Excel Built-in Heading 1 6" xfId="56"/>
+    <cellStyle name="Heading" xfId="57"/>
+    <cellStyle name="Heading1" xfId="58"/>
+    <cellStyle name="Heading1 1" xfId="59"/>
+    <cellStyle name="Heading1 2" xfId="60"/>
+    <cellStyle name="Heading1 3" xfId="61"/>
+    <cellStyle name="Heading1 4" xfId="62"/>
+    <cellStyle name="Heading1 5" xfId="63"/>
+    <cellStyle name="Heading1 6" xfId="64"/>
+    <cellStyle name="Heading1 7" xfId="65"/>
+    <cellStyle name="Heading1 8" xfId="66"/>
+    <cellStyle name="Result" xfId="67"/>
+    <cellStyle name="Result 1" xfId="68"/>
+    <cellStyle name="Result 2" xfId="69"/>
+    <cellStyle name="Result 3" xfId="70"/>
+    <cellStyle name="Result 4" xfId="71"/>
+    <cellStyle name="Result 5" xfId="72"/>
+    <cellStyle name="Result 6" xfId="73"/>
+    <cellStyle name="Result 7" xfId="74"/>
+    <cellStyle name="Result 8" xfId="75"/>
+    <cellStyle name="Result2" xfId="76"/>
+    <cellStyle name="Result2 1" xfId="77"/>
+    <cellStyle name="Result2 2" xfId="78"/>
+    <cellStyle name="Result2 3" xfId="79"/>
+    <cellStyle name="Result2 4" xfId="80"/>
+    <cellStyle name="Result2 5" xfId="81"/>
+    <cellStyle name="Result2 6" xfId="82"/>
+    <cellStyle name="Result2 7" xfId="83"/>
+    <cellStyle name="Result2 8" xfId="84"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1317,7 +2106,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1350,26 +2139,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1402,23 +2174,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1560,28 +2315,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
-    <col min="2" max="1024" width="12.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" style="1" customWidth="1"/>
+    <col min="2" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.5" style="1" customWidth="1"/>
+    <col min="7" max="1024" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1592,7 +2346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.5">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1603,7 +2357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.5">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1614,11 +2368,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.5">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1631,41 +2385,41 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.5">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.5">
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.5">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.5">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1679,226 +2433,279 @@
         <v>11</v>
       </c>
     </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3129</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1">
+        <v>354</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C3" r:id="rId1" display="Admin@1"/>
+    <hyperlink ref="C4" r:id="rId1" display="Admin@1"/>
+    <hyperlink ref="C5" r:id="rId1" display="Admin@1"/>
+    <hyperlink ref="C6" r:id="rId1" display="Admin@1"/>
   </hyperlinks>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="8.4653543307086618" bottom="8.4653543307086618" header="8.071653543307086" footer="8.071653543307086"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.2216535433071" bottom="11.2216535433071" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="B4:B7" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="31.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.9140625" style="1" customWidth="1"/>
-    <col min="3" max="1024" width="12.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.625" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.5">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.5">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C2" s="1">
         <v>3571</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="H2" s="1">
         <v>123456</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L2" s="1">
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.5">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C3" s="1">
         <v>3572</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.5">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C4" s="1">
         <v>3183</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="8.4653543307086618" bottom="8.4653543307086618" header="8.071653543307086" footer="8.071653543307086"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.2216535433071" bottom="11.2216535433071" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" customWidth="1"/>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="14.9140625" customWidth="1"/>
-    <col min="4" max="4" width="32.83203125" customWidth="1"/>
-    <col min="5" max="1024" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="2" max="2" width="36.375" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="37.875" customWidth="1"/>
+    <col min="5" max="1024" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
+    <row r="1" ht="15.75" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E1" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="F1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="G1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C2" s="1">
         <v>3595</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C3" s="1">
         <v>3595</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C4" s="1">
         <v>3595</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
-      </c>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0.15275590551181104" bottom="0.15275590551181104" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0" right="0" top="0.152755905511811" bottom="0.152755905511811" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;K000000Page &amp;P</oddFooter>
@@ -1907,44 +2714,47 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="33.5" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.4140625" customWidth="1"/>
-    <col min="4" max="1024" width="10.4140625" customWidth="1"/>
+    <col min="1" max="1" width="38.625" customWidth="1"/>
+    <col min="2" max="2" width="33.125" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="1024" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5">
+    <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C2" s="1">
         <v>3546</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="84.774803149606299" bottom="84.774803149606299" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0" right="0" top="273.219291338583" bottom="273.219291338583" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;K000000Page &amp;P</oddFooter>
@@ -1953,199 +2763,202 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="2" width="36.75" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" customWidth="1"/>
-    <col min="6" max="6" width="9.58203125" customWidth="1"/>
-    <col min="7" max="7" width="19.4140625" customWidth="1"/>
-    <col min="8" max="13" width="9.58203125" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" customWidth="1"/>
-    <col min="15" max="15" width="27.4140625" customWidth="1"/>
-    <col min="16" max="1024" width="9.58203125" customWidth="1"/>
+    <col min="1" max="1" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="42.375" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="22.375" customWidth="1"/>
+    <col min="8" max="13" width="10.875" customWidth="1"/>
+    <col min="14" max="14" width="23.375" customWidth="1"/>
+    <col min="15" max="15" width="31.5" customWidth="1"/>
+    <col min="16" max="1024" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.5">
+    <row r="1" ht="15.75" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.5">
+        <v>279</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C2" s="1">
         <v>3208</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="H2" s="1">
         <v>123456</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L2" s="1">
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.5">
+    <row r="3" ht="15.75" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C3" s="1">
         <v>3208</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="H3" s="1">
         <v>123456</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L3" s="1">
         <v>231</v>
       </c>
       <c r="M3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.5">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C4">
         <v>3208</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="H4" s="1">
         <v>123456</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L4" s="1">
         <v>231</v>
       </c>
       <c r="M4" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="O4" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="15.59724409448819" bottom="15.59724409448819" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0" right="0" top="202.108267716535" bottom="202.108267716535" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;K000000Page &amp;P</oddFooter>
@@ -2154,126 +2967,129 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="32.25" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="21.75" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
-    <col min="9" max="1024" width="10.9140625" customWidth="1"/>
+    <col min="1" max="1" width="37.125" customWidth="1"/>
+    <col min="2" max="2" width="32.125" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="7" max="7" width="22.625" customWidth="1"/>
+    <col min="8" max="8" width="24.875" customWidth="1"/>
+    <col min="9" max="1024" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5">
+    <row r="1" ht="15.75" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.5">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C2" s="1">
         <v>3722</v>
       </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" ht="26.5">
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" ht="15.75" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="C3" s="1">
         <v>3722</v>
       </c>
       <c r="D3" t="s">
-        <v>358</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>359</v>
+        <v>364</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>365</v>
       </c>
       <c r="F3" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="G3" t="s">
-        <v>361</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="26.5">
+        <v>367</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C4" s="1">
         <v>3208</v>
       </c>
       <c r="D4" t="s">
-        <v>358</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>359</v>
+        <v>364</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>365</v>
       </c>
       <c r="F4" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="G4" t="s">
-        <v>361</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>363</v>
+        <v>367</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78740157480314954" right="0.78740157480314954" top="1.3200787401574803" bottom="1.3200787401574803" header="0.78740157480314954" footer="0.78740157480314954"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.78740157480315" right="0.78740157480315" top="51.3263779527559" bottom="51.3263779527559" header="0.78740157480315" footer="0.78740157480315"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;10&amp;K000000&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;10&amp;K000000Page &amp;P</oddFooter>
@@ -2281,145 +3097,386 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD7"/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1024" width="12.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.75" customWidth="1"/>
+    <col min="2" max="2" width="35.625" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="5" width="23.625" customWidth="1"/>
+    <col min="6" max="1024" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.5">
+    <row r="1" ht="15.75" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>258</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>333</v>
+      </c>
+      <c r="E1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J1" t="s">
+        <v>374</v>
+      </c>
+      <c r="K1" t="s">
+        <v>224</v>
+      </c>
+      <c r="L1" t="s">
+        <v>226</v>
+      </c>
+      <c r="M1" t="s">
+        <v>335</v>
+      </c>
+      <c r="N1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2">
+        <v>3877</v>
+      </c>
+      <c r="D2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3">
+        <v>3877</v>
+      </c>
+      <c r="D3" t="s">
+        <v>377</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="N3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="15.5972440944882" bottom="15.5972440944882" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;K000000Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C2">
+        <v>3330</v>
+      </c>
+      <c r="D2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="27.75" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.75" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2">
+        <v>3967</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3">
+        <v>3967</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AC7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1024" width="14" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="15.5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="N2" s="1">
         <v>987456</v>
@@ -2440,1232 +3497,1253 @@
         <v>101010</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="15.5">
-      <c r="A3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="15.5">
-      <c r="A4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="15.5">
-      <c r="A5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="15.5">
-      <c r="A6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="15.5">
-      <c r="A7" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="AC7" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Z3" r:id="rId1" location="$"/>
-    <hyperlink ref="Z5" r:id="rId2" location="$"/>
-    <hyperlink ref="Z6" r:id="rId3" location="$"/>
-    <hyperlink ref="Z7" r:id="rId4" location="$"/>
+    <hyperlink ref="Z3" r:id="rId1" location="$" display="!@#$"/>
+    <hyperlink ref="Z5" r:id="rId1" location="$" display="!@#$"/>
+    <hyperlink ref="Z6" r:id="rId1" location="$" display="!@#$"/>
+    <hyperlink ref="Z7" r:id="rId1" location="$" display="!@#$"/>
   </hyperlinks>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="8.4653543307086618" bottom="8.4653543307086618" header="8.071653543307086" footer="8.071653543307086"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.2216535433071" bottom="11.2216535433071" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1024" width="12.25" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15.5">
+    <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" ht="15.5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C2" s="1">
         <v>2965</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="15.5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1">
         <v>2965</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1"/>
-    <hyperlink ref="AF3" r:id="rId2" location="$"/>
+    <hyperlink ref="S2" r:id="rId1" display="naveenhaq098@gmail.com"/>
+    <hyperlink ref="AF3" r:id="rId2" location="$" display="!@#$"/>
   </hyperlinks>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="8.4653543307086618" bottom="8.4653543307086618" header="8.071653543307086" footer="8.071653543307086"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.2216535433071" bottom="11.2216535433071" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1024" width="12.25" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.5">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.5">
-      <c r="A2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.5">
-      <c r="A3" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="8.4653543307086618" bottom="8.4653543307086618" header="8.071653543307086" footer="8.071653543307086"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.2216535433071" bottom="11.2216535433071" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1024" width="12.25" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15.5">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" ht="15.5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" ht="15.5">
-      <c r="A3" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="AE3" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" ht="15.5">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AF3" r:id="rId1" location="$"/>
+    <hyperlink ref="AF3" r:id="rId1" location="$" display="!@#$"/>
   </hyperlinks>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="8.4653543307086618" bottom="8.4653543307086618" header="8.071653543307086" footer="8.071653543307086"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.2216535433071" bottom="11.2216535433071" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="39" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" style="1" customWidth="1"/>
-    <col min="4" max="1024" width="12.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="44.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.375" style="1" customWidth="1"/>
+    <col min="4" max="1024" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.5">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" ht="15.5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C2" s="1">
         <v>2971</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="N2" s="1">
         <v>23</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="U2" s="1">
         <v>2</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" ht="15.5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C3" s="1">
         <v>2971</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="15.5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="C4" s="1">
         <v>2971</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="15.5">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="1" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C5" s="1">
         <v>2971</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="15.5">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" s="1" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C6" s="1">
         <v>2971</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AA3" r:id="rId1" location="$"/>
-    <hyperlink ref="AA5" r:id="rId2" location="$"/>
-    <hyperlink ref="AA6" r:id="rId3" location="$"/>
+    <hyperlink ref="AA3" r:id="rId1" location="$" display="!@#$"/>
+    <hyperlink ref="AA5" r:id="rId1" location="$" display="!@#$"/>
+    <hyperlink ref="AA6" r:id="rId1" location="$" display="!@#$"/>
   </hyperlinks>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="8.4653543307086618" bottom="8.4653543307086618" header="8.071653543307086" footer="8.071653543307086"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.2216535433071" bottom="11.2216535433071" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1024" width="12.25" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="8.4653543307086618" bottom="8.4653543307086618" header="8.071653543307086" footer="8.071653543307086"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.2216535433071" bottom="11.2216535433071" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1024" width="12.25" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.5">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.5">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="8.4653543307086618" bottom="8.4653543307086618" header="8.071653543307086" footer="8.071653543307086"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.2216535433071" bottom="11.2216535433071" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1024" width="12.25" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.5">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="15.5">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.5">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="K3" s="1">
         <v>1000000</v>
@@ -3677,52 +4755,52 @@
         <v>60000</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="O3" s="1">
         <v>2</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="15.5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="15.5">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="8.4653543307086618" bottom="8.4653543307086618" header="8.071653543307086" footer="8.071653543307086"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.2216535433071" bottom="11.2216535433071" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Uls_Ramya/TestData/ijaraTestData.xlsx
+++ b/Uls_Ramya/TestData/ijaraTestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21240" windowHeight="6960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,15 @@
     <sheet name="Tawar_NewApp_CustomerDetails" sheetId="15" r:id="rId15"/>
     <sheet name="Tawar_offering" sheetId="18" r:id="rId16"/>
     <sheet name="Tawa_Commoditymaker" sheetId="19" r:id="rId17"/>
+    <sheet name="Mura_Offering_documentDetail" sheetId="20" r:id="rId18"/>
+    <sheet name="mura_offering_offerDetail" sheetId="21" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="144525"/>
-  <oleSize ref="A1:J10"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="403">
   <si>
     <t>UserType</t>
   </si>
@@ -1205,22 +1206,54 @@
   </si>
   <si>
     <t>DS01_AT_TW_CSM_18</t>
+  </si>
+  <si>
+    <t>0378</t>
+  </si>
+  <si>
+    <t>Murabha</t>
+  </si>
+  <si>
+    <t>AT_DOC_01</t>
+  </si>
+  <si>
+    <t>DS01_AT_DOC_01</t>
+  </si>
+  <si>
+    <t>AT_DOC_04</t>
+  </si>
+  <si>
+    <t>DS01_AT_DOC_04</t>
+  </si>
+  <si>
+    <t>App Data Entry</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>DocumentDetails,offeringDetails</t>
+  </si>
+  <si>
+    <t>AT_MU_OFO_01</t>
+  </si>
+  <si>
+    <t>DS01_AT_MU_OFO_01</t>
+  </si>
+  <si>
+    <t>userType10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="[$-4009]General"/>
-    <numFmt numFmtId="181" formatCode="[$Rs.-4009]#,##0.00;[Red]&quot;-&quot;[$Rs.-4009]#,##0.00"/>
-    <numFmt numFmtId="182" formatCode="0.000%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="[$-4009]General"/>
+    <numFmt numFmtId="165" formatCode="[$Rs.-4009]#,##0.00;[Red]&quot;-&quot;[$Rs.-4009]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1231,13 +1264,13 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1252,163 +1285,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1416,7 +1298,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1425,7 +1307,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1434,204 +1316,36 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1639,421 +1353,135 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="85">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="180" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="180" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="180" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="180" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="180" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="85">
+  <cellStyles count="37">
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
+    <cellStyle name="Excel Built-in Heading 1" xfId="2"/>
+    <cellStyle name="Excel Built-in Heading 1 1" xfId="3"/>
+    <cellStyle name="Excel Built-in Heading 1 2" xfId="4"/>
+    <cellStyle name="Excel Built-in Heading 1 3" xfId="5"/>
+    <cellStyle name="Excel Built-in Heading 1 4" xfId="6"/>
+    <cellStyle name="Excel Built-in Heading 1 5" xfId="7"/>
+    <cellStyle name="Excel Built-in Heading 1 6" xfId="8"/>
+    <cellStyle name="Heading" xfId="9"/>
+    <cellStyle name="Heading1" xfId="10"/>
+    <cellStyle name="Heading1 1" xfId="11"/>
+    <cellStyle name="Heading1 2" xfId="12"/>
+    <cellStyle name="Heading1 3" xfId="13"/>
+    <cellStyle name="Heading1 4" xfId="14"/>
+    <cellStyle name="Heading1 5" xfId="15"/>
+    <cellStyle name="Heading1 6" xfId="16"/>
+    <cellStyle name="Heading1 7" xfId="17"/>
+    <cellStyle name="Heading1 8" xfId="18"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="49"/>
-    <cellStyle name="Excel Built-in Heading 1" xfId="50"/>
-    <cellStyle name="Excel Built-in Heading 1 1" xfId="51"/>
-    <cellStyle name="Excel Built-in Heading 1 2" xfId="52"/>
-    <cellStyle name="Excel Built-in Heading 1 3" xfId="53"/>
-    <cellStyle name="Excel Built-in Heading 1 4" xfId="54"/>
-    <cellStyle name="Excel Built-in Heading 1 5" xfId="55"/>
-    <cellStyle name="Excel Built-in Heading 1 6" xfId="56"/>
-    <cellStyle name="Heading" xfId="57"/>
-    <cellStyle name="Heading1" xfId="58"/>
-    <cellStyle name="Heading1 1" xfId="59"/>
-    <cellStyle name="Heading1 2" xfId="60"/>
-    <cellStyle name="Heading1 3" xfId="61"/>
-    <cellStyle name="Heading1 4" xfId="62"/>
-    <cellStyle name="Heading1 5" xfId="63"/>
-    <cellStyle name="Heading1 6" xfId="64"/>
-    <cellStyle name="Heading1 7" xfId="65"/>
-    <cellStyle name="Heading1 8" xfId="66"/>
-    <cellStyle name="Result" xfId="67"/>
-    <cellStyle name="Result 1" xfId="68"/>
-    <cellStyle name="Result 2" xfId="69"/>
-    <cellStyle name="Result 3" xfId="70"/>
-    <cellStyle name="Result 4" xfId="71"/>
-    <cellStyle name="Result 5" xfId="72"/>
-    <cellStyle name="Result 6" xfId="73"/>
-    <cellStyle name="Result 7" xfId="74"/>
-    <cellStyle name="Result 8" xfId="75"/>
-    <cellStyle name="Result2" xfId="76"/>
-    <cellStyle name="Result2 1" xfId="77"/>
-    <cellStyle name="Result2 2" xfId="78"/>
-    <cellStyle name="Result2 3" xfId="79"/>
-    <cellStyle name="Result2 4" xfId="80"/>
-    <cellStyle name="Result2 5" xfId="81"/>
-    <cellStyle name="Result2 6" xfId="82"/>
-    <cellStyle name="Result2 7" xfId="83"/>
-    <cellStyle name="Result2 8" xfId="84"/>
+    <cellStyle name="Result" xfId="19"/>
+    <cellStyle name="Result 1" xfId="20"/>
+    <cellStyle name="Result 2" xfId="21"/>
+    <cellStyle name="Result 3" xfId="22"/>
+    <cellStyle name="Result 4" xfId="23"/>
+    <cellStyle name="Result 5" xfId="24"/>
+    <cellStyle name="Result 6" xfId="25"/>
+    <cellStyle name="Result 7" xfId="26"/>
+    <cellStyle name="Result 8" xfId="27"/>
+    <cellStyle name="Result2" xfId="28"/>
+    <cellStyle name="Result2 1" xfId="29"/>
+    <cellStyle name="Result2 2" xfId="30"/>
+    <cellStyle name="Result2 3" xfId="31"/>
+    <cellStyle name="Result2 4" xfId="32"/>
+    <cellStyle name="Result2 5" xfId="33"/>
+    <cellStyle name="Result2 6" xfId="34"/>
+    <cellStyle name="Result2 7" xfId="35"/>
+    <cellStyle name="Result2 8" xfId="36"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2315,16 +1743,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2335,7 +1763,7 @@
     <col min="7" max="1024" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2345,8 +1773,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="G1" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2357,7 +1788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2368,7 +1799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -2382,6 +1813,9 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2397,7 +1831,7 @@
       </c>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -2408,7 +1842,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -2419,11 +1853,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>2068</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2433,11 +1867,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6">
         <v>3129</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2453,11 +1887,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6">
         <v>354</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2473,14 +1907,37 @@
         <v>25</v>
       </c>
     </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4049</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="Admin@1"/>
-    <hyperlink ref="C4" r:id="rId1" display="Admin@1"/>
-    <hyperlink ref="C5" r:id="rId1" display="Admin@1"/>
-    <hyperlink ref="C6" r:id="rId1" display="Admin@1"/>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
   </hyperlinks>
-  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.2216535433071" bottom="11.2216535433071" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
@@ -2490,15 +1947,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="36.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.625" style="1" customWidth="1"/>
@@ -2581,7 +2035,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>329</v>
       </c>
@@ -2592,7 +2046,7 @@
         <v>3572</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>331</v>
       </c>
@@ -2604,22 +2058,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.2216535433071" bottom="11.2216535433071" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="39.5" customWidth="1"/>
     <col min="2" max="2" width="36.375" customWidth="1"/>
@@ -2628,7 +2079,7 @@
     <col min="5" max="1024" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:7">
+    <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -2651,7 +2102,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:4">
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>336</v>
       </c>
@@ -2665,7 +2116,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:5">
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="1" t="s">
         <v>339</v>
       </c>
@@ -2679,7 +2130,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:7">
+    <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>341</v>
       </c>
@@ -2699,12 +2150,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" ht="15.75" spans="1:2">
+    <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0.152755905511811" bottom="0.152755905511811" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0.15275590551181101" bottom="0.15275590551181101" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
@@ -2714,15 +2165,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="38.625" customWidth="1"/>
     <col min="2" max="2" width="33.125" customWidth="1"/>
@@ -2730,7 +2178,7 @@
     <col min="4" max="1024" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:3">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -2741,7 +2189,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:3">
+    <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>331</v>
       </c>
@@ -2753,7 +2201,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="273.219291338583" bottom="273.219291338583" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="273.21929133858299" bottom="273.21929133858299" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
@@ -2763,15 +2211,12 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="24.375" customWidth="1"/>
     <col min="2" max="2" width="42.375" customWidth="1"/>
@@ -2786,7 +2231,7 @@
     <col min="16" max="1024" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:15">
+    <row r="1" spans="1:15" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -2833,7 +2278,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:12">
+    <row r="2" spans="1:15" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>345</v>
       </c>
@@ -2871,7 +2316,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:13">
+    <row r="3" spans="1:15" ht="15.75">
       <c r="A3" s="1" t="s">
         <v>348</v>
       </c>
@@ -2912,7 +2357,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:15">
+    <row r="4" spans="1:15" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>351</v>
       </c>
@@ -2957,7 +2402,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="202.108267716535" bottom="202.108267716535" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="202.10826771653501" bottom="202.10826771653501" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
@@ -2967,15 +2412,14 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C1"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="37.125" customWidth="1"/>
     <col min="2" max="2" width="32.125" customWidth="1"/>
@@ -2988,7 +2432,7 @@
     <col min="9" max="1024" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:9">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -3017,7 +2461,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:9">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>360</v>
       </c>
@@ -3029,7 +2473,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" ht="15.75" spans="1:9">
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="1" t="s">
         <v>362</v>
       </c>
@@ -3058,7 +2502,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:9">
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>345</v>
       </c>
@@ -3088,7 +2532,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78740157480315" right="0.78740157480315" top="51.3263779527559" bottom="51.3263779527559" header="0.78740157480315" footer="0.78740157480315"/>
+  <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="51.326377952755898" bottom="51.326377952755898" header="0.78740157480314998" footer="0.78740157480314998"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;10&amp;K000000&amp;A</oddHeader>
@@ -3098,15 +2542,14 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="32.75" customWidth="1"/>
     <col min="2" max="2" width="35.625" customWidth="1"/>
@@ -3115,7 +2558,7 @@
     <col min="6" max="1024" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:14">
+    <row r="1" spans="1:14" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -3159,7 +2602,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:12">
+    <row r="2" spans="1:14" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>375</v>
       </c>
@@ -3197,7 +2640,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:14">
+    <row r="3" spans="1:14" ht="15.75">
       <c r="A3" s="1" t="s">
         <v>382</v>
       </c>
@@ -3217,7 +2660,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="4" ht="15.75" spans="1:2">
+    <row r="4" spans="1:14" ht="15.75">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
@@ -3232,22 +2675,21 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:C2"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19.75" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:4">
+    <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -3261,7 +2703,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:4">
+    <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>384</v>
       </c>
@@ -3277,26 +2719,24 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="27.75" customWidth="1"/>
     <col min="2" max="2" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" spans="1:3">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -3307,7 +2747,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:3">
+    <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>387</v>
       </c>
@@ -3318,7 +2758,7 @@
         <v>3967</v>
       </c>
     </row>
-    <row r="3" ht="15.75" spans="1:3">
+    <row r="3" spans="1:3" ht="15.75">
       <c r="A3" s="1" t="s">
         <v>389</v>
       </c>
@@ -3331,20 +2771,132 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A5:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="3" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75">
+      <c r="A2" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C2">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75">
+      <c r="A3" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C3">
+        <v>4049</v>
+      </c>
+      <c r="D3" s="10">
+        <v>3103</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="23.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="E1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15">
+      <c r="A2" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C2">
+        <v>4049</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AC7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1024" width="14" style="1" customWidth="1"/>
   </cols>
@@ -3438,7 +2990,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:29">
       <c r="A2" s="1" t="s">
         <v>55</v>
       </c>
@@ -3515,7 +3067,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:29">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -3532,7 +3084,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:29">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -3546,7 +3098,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:29">
       <c r="A5" s="1" t="s">
         <v>79</v>
       </c>
@@ -3563,7 +3115,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:29">
       <c r="A6" s="1" t="s">
         <v>80</v>
       </c>
@@ -3605,27 +3157,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Z3" r:id="rId1" location="$" display="!@#$"/>
-    <hyperlink ref="Z5" r:id="rId1" location="$" display="!@#$"/>
-    <hyperlink ref="Z6" r:id="rId1" location="$" display="!@#$"/>
-    <hyperlink ref="Z7" r:id="rId1" location="$" display="!@#$"/>
+    <hyperlink ref="Z3" r:id="rId1" location="$"/>
+    <hyperlink ref="Z5" r:id="rId2" location="$"/>
+    <hyperlink ref="Z6" r:id="rId3" location="$"/>
+    <hyperlink ref="Z7" r:id="rId4" location="$"/>
   </hyperlinks>
-  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.2216535433071" bottom="11.2216535433071" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AH3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1024" width="14" style="1" customWidth="1"/>
   </cols>
@@ -3734,7 +3283,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:34">
       <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
@@ -3851,25 +3400,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" display="naveenhaq098@gmail.com"/>
-    <hyperlink ref="AF3" r:id="rId2" location="$" display="!@#$"/>
+    <hyperlink ref="S2" r:id="rId1"/>
+    <hyperlink ref="AF3" r:id="rId2" location="$"/>
   </hyperlinks>
-  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.2216535433071" bottom="11.2216535433071" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1024" width="14" style="1" customWidth="1"/>
   </cols>
@@ -3900,7 +3446,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
@@ -3911,7 +3457,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>137</v>
       </c>
@@ -3923,22 +3469,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.2216535433071" bottom="11.2216535433071" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AG4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1024" width="14" style="1" customWidth="1"/>
   </cols>
@@ -4044,7 +3587,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:33">
       <c r="A2" s="1" t="s">
         <v>178</v>
       </c>
@@ -4171,7 +3714,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:33">
       <c r="A4" s="1" t="s">
         <v>207</v>
       </c>
@@ -4187,24 +3730,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AF3" r:id="rId1" location="$" display="!@#$"/>
+    <hyperlink ref="AF3" r:id="rId1" location="$"/>
   </hyperlinks>
-  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.2216535433071" bottom="11.2216535433071" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AC6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="44.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.25" style="1" customWidth="1"/>
@@ -4301,7 +3841,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:29">
       <c r="A2" s="1" t="s">
         <v>232</v>
       </c>
@@ -4375,7 +3915,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:29">
       <c r="A3" s="1" t="s">
         <v>247</v>
       </c>
@@ -4395,7 +3935,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:29">
       <c r="A4" s="1" t="s">
         <v>250</v>
       </c>
@@ -4409,7 +3949,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:29">
       <c r="A5" s="1" t="s">
         <v>253</v>
       </c>
@@ -4457,26 +3997,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AA3" r:id="rId1" location="$" display="!@#$"/>
-    <hyperlink ref="AA5" r:id="rId1" location="$" display="!@#$"/>
-    <hyperlink ref="AA6" r:id="rId1" location="$" display="!@#$"/>
+    <hyperlink ref="AA3" r:id="rId1" location="$"/>
+    <hyperlink ref="AA5" r:id="rId2" location="$"/>
+    <hyperlink ref="AA6" r:id="rId3" location="$"/>
   </hyperlinks>
-  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.2216535433071" bottom="11.2216535433071" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1024" width="14" style="1" customWidth="1"/>
   </cols>
@@ -4526,22 +4065,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.2216535433071" bottom="11.2216535433071" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1024" width="14" style="1" customWidth="1"/>
   </cols>
@@ -4624,22 +4160,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.2216535433071" bottom="11.2216535433071" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:S5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1024" width="14" style="1" customWidth="1"/>
   </cols>
@@ -4703,7 +4236,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
         <v>294</v>
       </c>
@@ -4714,7 +4247,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
         <v>297</v>
       </c>
@@ -4764,7 +4297,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>308</v>
       </c>
@@ -4799,7 +4332,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.2216535433071" bottom="11.2216535433071" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/Uls_Ramya/TestData/ijaraTestData.xlsx
+++ b/Uls_Ramya/TestData/ijaraTestData.xlsx
@@ -4,35 +4,39 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" firstSheet="19" activeTab="22"/>
   </bookViews>
   <sheets>
-    <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
-    <sheet name="ijarah_AddressDetailsTestData" sheetId="2" r:id="rId2"/>
-    <sheet name="Ijarah_AssetDetailsTestData" sheetId="3" r:id="rId3"/>
-    <sheet name="Ijarah_AssetdetailsExecution" sheetId="4" r:id="rId4"/>
-    <sheet name="ApplicationDetails_NewApp" sheetId="5" r:id="rId5"/>
-    <sheet name="customerdetails_NewApp" sheetId="6" r:id="rId6"/>
-    <sheet name="EmpDetailsTestData" sheetId="7" r:id="rId7"/>
-    <sheet name="EmpDetailsCom_firmTestData" sheetId="8" r:id="rId8"/>
-    <sheet name="ApplicationDataEntry_testdata" sheetId="9" r:id="rId9"/>
-    <sheet name="Murabha_Repayment_TestData" sheetId="10" r:id="rId10"/>
-    <sheet name="CustomerDetails_TestData" sheetId="11" r:id="rId11"/>
-    <sheet name="mura_identificationDetail" sheetId="12" r:id="rId12"/>
-    <sheet name="Tawarooq_Repayment" sheetId="13" r:id="rId13"/>
-    <sheet name="Tawarruq_DocumentDetails" sheetId="14" r:id="rId14"/>
-    <sheet name="Tawar_NewApp_CustomerDetails" sheetId="15" r:id="rId15"/>
-    <sheet name="Tawar_offering" sheetId="18" r:id="rId16"/>
-    <sheet name="Tawa_Commoditymaker" sheetId="19" r:id="rId17"/>
-    <sheet name="Mura_Offering_documentDetail" sheetId="20" r:id="rId18"/>
-    <sheet name="mura_offering_offerDetail" sheetId="21" r:id="rId19"/>
+    <sheet name="ijarah_AddressDetailsTestData" sheetId="2" r:id="rId1"/>
+    <sheet name="Ijarah_AssetDetailsTestData" sheetId="3" r:id="rId2"/>
+    <sheet name="Ijarah_AssetdetailsExecution" sheetId="4" r:id="rId3"/>
+    <sheet name="ApplicationDetails_NewApp" sheetId="5" r:id="rId4"/>
+    <sheet name="customerdetails_NewApp" sheetId="6" r:id="rId5"/>
+    <sheet name="EmpDetailsTestData" sheetId="7" r:id="rId6"/>
+    <sheet name="EmpDetailsCom_firmTestData" sheetId="8" r:id="rId7"/>
+    <sheet name="ApplicationDataEntry_testdata" sheetId="9" r:id="rId8"/>
+    <sheet name="Murabha_Repayment_TestData" sheetId="10" r:id="rId9"/>
+    <sheet name="CustomerDetails_TestData" sheetId="11" r:id="rId10"/>
+    <sheet name="mura_identificationDetail" sheetId="12" r:id="rId11"/>
+    <sheet name="Tawarooq_Repayment" sheetId="13" r:id="rId12"/>
+    <sheet name="Tawarruq_DocumentDetails" sheetId="14" r:id="rId13"/>
+    <sheet name="Tawar_NewApp_CustomerDetails" sheetId="15" r:id="rId14"/>
+    <sheet name="Tawar_offering" sheetId="18" r:id="rId15"/>
+    <sheet name="Tawa_Commoditymaker" sheetId="19" r:id="rId16"/>
+    <sheet name="Mura_Offering_documentDetail" sheetId="20" r:id="rId17"/>
+    <sheet name="mura_offering_offerDetail" sheetId="21" r:id="rId18"/>
+    <sheet name="ijaraa_LoginCredentials" sheetId="22" r:id="rId19"/>
+    <sheet name="AutoL_AppDataEn_AddressDetail" sheetId="23" r:id="rId20"/>
+    <sheet name="ijara_LoginCredentials" sheetId="24" r:id="rId21"/>
+    <sheet name="AppDataEn_AL_Asset" sheetId="25" r:id="rId22"/>
+    <sheet name="AppDataEn_AL_AssetD" sheetId="26" r:id="rId23"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="432">
   <si>
     <t>UserType</t>
   </si>
@@ -1242,18 +1246,104 @@
   </si>
   <si>
     <t>userType10</t>
+  </si>
+  <si>
+    <t>ijara</t>
+  </si>
+  <si>
+    <t>Employment Details</t>
+  </si>
+  <si>
+    <t>AT_AU_AD_01</t>
+  </si>
+  <si>
+    <t>DS01_AT_AU_AD_01</t>
+  </si>
+  <si>
+    <t>Record1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office </t>
+  </si>
+  <si>
+    <t>Address Type</t>
+  </si>
+  <si>
+    <t>Address status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercial rent </t>
+  </si>
+  <si>
+    <t>residential_or_ocupency_status</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>AddressLine2</t>
+  </si>
+  <si>
+    <t>AddressLine1</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>Maharastra</t>
+  </si>
+  <si>
+    <t>Thane</t>
+  </si>
+  <si>
+    <t>userType0</t>
+  </si>
+  <si>
+    <t>DocumentDetails,offeringDetails,AssetDetail</t>
+  </si>
+  <si>
+    <t>AT_AL_ASD_01</t>
+  </si>
+  <si>
+    <t>DS01_AT_AL_ASD_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tata Motors </t>
+  </si>
+  <si>
+    <t>TATA Harrier</t>
+  </si>
+  <si>
+    <t>year of manufacture</t>
+  </si>
+  <si>
+    <t>Dealer 1</t>
+  </si>
+  <si>
+    <t>Azentio</t>
+  </si>
+  <si>
+    <t>abc098@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-4009]General"/>
     <numFmt numFmtId="165" formatCode="[$Rs.-4009]#,##0.00;[Red]&quot;-&quot;[$Rs.-4009]#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1336,6 +1426,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1354,7 +1451,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
@@ -1426,8 +1523,12 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -1437,12 +1538,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="37" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="37">
+  <cellStyles count="38">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
     <cellStyle name="Excel Built-in Heading 1" xfId="2"/>
     <cellStyle name="Excel Built-in Heading 1 1" xfId="3"/>
@@ -1461,6 +1564,7 @@
     <cellStyle name="Heading1 6" xfId="16"/>
     <cellStyle name="Heading1 7" xfId="17"/>
     <cellStyle name="Heading1 8" xfId="18"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Result" xfId="19"/>
     <cellStyle name="Result 1" xfId="20"/>
@@ -1749,217 +1853,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="23.5" style="1" customWidth="1"/>
-    <col min="2" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.5" style="1" customWidth="1"/>
-    <col min="7" max="1024" width="14" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="6">
-        <v>2068</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="6">
-        <v>3129</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="6">
-        <v>354</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="G11" s="1">
-        <v>4049</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="B4:B7" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ4"/>
+  <dimension ref="A1:AMJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="36.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.625" style="1" customWidth="1"/>
-    <col min="3" max="1024" width="14" style="1" customWidth="1"/>
+    <col min="1" max="1024" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1967,108 +1870,272 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>313</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>314</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>315</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>316</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>317</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>318</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>319</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="1" t="s">
-        <v>321</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3571</v>
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>323</v>
+        <v>58</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>324</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="1">
+        <v>987456</v>
+      </c>
+      <c r="O2" s="1">
+        <v>974121</v>
+      </c>
+      <c r="P2" s="1">
+        <v>9874563210</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>20</v>
+      </c>
+      <c r="R2" s="1">
+        <v>101010</v>
+      </c>
+      <c r="S2" s="1">
+        <v>101010</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H2" s="1">
-        <v>123456</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L2" s="1">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="U2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="1" t="s">
-        <v>329</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3572</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>73</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" s="1" t="s">
-        <v>331</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3183</v>
+        <v>77</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Z3" r:id="rId1" location="$"/>
+    <hyperlink ref="Z5" r:id="rId2" location="$"/>
+    <hyperlink ref="Z6" r:id="rId3" location="$"/>
+    <hyperlink ref="Z7" r:id="rId4" location="$"/>
+  </hyperlinks>
   <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
@@ -2110,7 +2177,7 @@
         <v>337</v>
       </c>
       <c r="C2" s="1">
-        <v>3595</v>
+        <v>3208</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>338</v>
@@ -2124,7 +2191,7 @@
         <v>340</v>
       </c>
       <c r="C3" s="1">
-        <v>3595</v>
+        <v>3208</v>
       </c>
       <c r="E3" t="s">
         <v>67</v>
@@ -2138,7 +2205,7 @@
         <v>342</v>
       </c>
       <c r="C4" s="1">
-        <v>3595</v>
+        <v>3208</v>
       </c>
       <c r="E4" t="s">
         <v>67</v>
@@ -2148,6 +2215,14 @@
       </c>
       <c r="G4" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75">
+      <c r="C7" s="1">
+        <v>3595</v>
+      </c>
+      <c r="D7" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75">
@@ -2164,7 +2239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2210,7 +2285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -2411,7 +2486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -2541,7 +2616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N4"/>
   <sheetViews>
@@ -2674,7 +2749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2722,12 +2797,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2774,7 +2849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -2806,10 +2881,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>394</v>
       </c>
       <c r="C2">
@@ -2817,25 +2892,25 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>396</v>
       </c>
       <c r="C3">
         <v>4049</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="9">
         <v>3103</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2843,12 +2918,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2875,10 +2950,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>401</v>
       </c>
       <c r="C2">
@@ -2886,22 +2961,266 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="6" max="6" width="32.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2068</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="6">
+        <v>3129</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="6">
+        <v>354</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C11" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ7"/>
+  <dimension ref="A1:AMJ3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:AI3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1024" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -2912,259 +3231,1042 @@
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AG1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>116</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2965</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" s="1">
-        <v>987456</v>
-      </c>
-      <c r="O2" s="1">
-        <v>974121</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9874563210</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>20</v>
-      </c>
-      <c r="R2" s="1">
-        <v>101010</v>
-      </c>
-      <c r="S2" s="1">
-        <v>101010</v>
+        <v>124</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+        <v>70</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2965</v>
+      </c>
+      <c r="AF3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
-      <c r="A4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
-      <c r="A5" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
-      <c r="A6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
-      <c r="A7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC7" s="1" t="s">
-        <v>84</v>
+      <c r="AG3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Z3" r:id="rId1" location="$"/>
-    <hyperlink ref="Z5" r:id="rId2" location="$"/>
-    <hyperlink ref="Z6" r:id="rId3" location="$"/>
-    <hyperlink ref="Z7" r:id="rId4" location="$"/>
+    <hyperlink ref="S2" r:id="rId1"/>
+    <hyperlink ref="AF3" r:id="rId2" location="$"/>
   </hyperlinks>
   <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AD6"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="12" max="12" width="21.75" customWidth="1"/>
+    <col min="14" max="14" width="13.875" customWidth="1"/>
+    <col min="17" max="17" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="G1" t="s">
+        <v>412</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="R1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="15">
+      <c r="A2" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C2">
+        <v>4138</v>
+      </c>
+      <c r="D2">
+        <v>4385</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="O2" s="9">
+        <v>987456</v>
+      </c>
+      <c r="P2" s="9">
+        <v>974121</v>
+      </c>
+      <c r="Q2">
+        <v>9632587410</v>
+      </c>
+      <c r="R2" s="9">
+        <v>20</v>
+      </c>
+      <c r="S2" s="9">
+        <v>101010</v>
+      </c>
+      <c r="T2" s="9">
+        <v>101010</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" s="10">
+        <v>36779</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" s="9">
+        <v>9874563210</v>
+      </c>
+      <c r="Y2" s="9">
+        <v>10000</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="AA3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="AA5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AA3" r:id="rId1" location="$" display="mailto:!@ - $"/>
+    <hyperlink ref="AA4" r:id="rId2" location="$" display="mailto:!@ - $"/>
+    <hyperlink ref="AA5" r:id="rId3" location="$" display="mailto:!@ - $"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="30.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75">
+      <c r="A4" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2068</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="6">
+        <v>3129</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="6">
+        <v>354</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C12" r:id="rId5"/>
+    <hyperlink ref="C2" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="C2">
+        <v>4138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AI6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="6" max="7" width="17.625" customWidth="1"/>
+    <col min="8" max="8" width="17.25" customWidth="1"/>
+    <col min="17" max="17" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI1" s="1"/>
+    </row>
+    <row r="2" spans="1:35" ht="15.75">
+      <c r="A2" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="C2">
+        <v>4138</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="12">
+        <v>43836</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+    </row>
+    <row r="3" spans="1:35" ht="15.75">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI3" s="1"/>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="H6" s="12"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="S2" r:id="rId1"/>
+    <hyperlink ref="AF3" r:id="rId2" location="$"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -3179,230 +4281,55 @@
     <col min="1" max="1024" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="1">
-        <v>2965</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
+      <c r="C2" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="1">
-        <v>2965</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>140</v>
+      <c r="C3" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1"/>
-    <hyperlink ref="AF3" r:id="rId2" location="$"/>
-  </hyperlinks>
   <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
@@ -3410,72 +4337,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1024" width="14" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ4"/>
   <sheetViews>
@@ -3738,7 +4599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ6"/>
   <sheetViews>
@@ -4007,7 +4868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ4"/>
   <sheetViews>
@@ -4071,7 +4932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ7"/>
   <sheetViews>
@@ -4166,7 +5027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ5"/>
   <sheetViews>
@@ -4336,4 +5197,124 @@
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="36.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.625" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="14" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3571</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H2" s="1">
+        <v>123456</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L2" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/Uls_Ramya/TestData/ijaraTestData.xlsx
+++ b/Uls_Ramya/TestData/ijaraTestData.xlsx
@@ -1,42 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" firstSheet="19" activeTab="22"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" firstSheet="20" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="ijarah_AddressDetailsTestData" sheetId="2" r:id="rId1"/>
     <sheet name="Ijarah_AssetDetailsTestData" sheetId="3" r:id="rId2"/>
-    <sheet name="Ijarah_AssetdetailsExecution" sheetId="4" r:id="rId3"/>
-    <sheet name="ApplicationDetails_NewApp" sheetId="5" r:id="rId4"/>
-    <sheet name="customerdetails_NewApp" sheetId="6" r:id="rId5"/>
-    <sheet name="EmpDetailsTestData" sheetId="7" r:id="rId6"/>
-    <sheet name="EmpDetailsCom_firmTestData" sheetId="8" r:id="rId7"/>
-    <sheet name="ApplicationDataEntry_testdata" sheetId="9" r:id="rId8"/>
-    <sheet name="Murabha_Repayment_TestData" sheetId="10" r:id="rId9"/>
-    <sheet name="CustomerDetails_TestData" sheetId="11" r:id="rId10"/>
-    <sheet name="mura_identificationDetail" sheetId="12" r:id="rId11"/>
-    <sheet name="Tawarooq_Repayment" sheetId="13" r:id="rId12"/>
-    <sheet name="Tawarruq_DocumentDetails" sheetId="14" r:id="rId13"/>
-    <sheet name="Tawar_NewApp_CustomerDetails" sheetId="15" r:id="rId14"/>
-    <sheet name="Tawar_offering" sheetId="18" r:id="rId15"/>
-    <sheet name="Tawa_Commoditymaker" sheetId="19" r:id="rId16"/>
-    <sheet name="Mura_Offering_documentDetail" sheetId="20" r:id="rId17"/>
-    <sheet name="mura_offering_offerDetail" sheetId="21" r:id="rId18"/>
-    <sheet name="ijaraa_LoginCredentials" sheetId="22" r:id="rId19"/>
-    <sheet name="AutoL_AppDataEn_AddressDetail" sheetId="23" r:id="rId20"/>
-    <sheet name="ijara_LoginCredentials" sheetId="24" r:id="rId21"/>
-    <sheet name="AppDataEn_AL_Asset" sheetId="25" r:id="rId22"/>
-    <sheet name="AppDataEn_AL_AssetD" sheetId="26" r:id="rId23"/>
+    <sheet name="ApplicationDetails_NewApp" sheetId="5" r:id="rId3"/>
+    <sheet name="EmpDetailsTestData" sheetId="7" r:id="rId4"/>
+    <sheet name="EmpDetailsCom_firmTestData" sheetId="8" r:id="rId5"/>
+    <sheet name="ApplicationDataEntry_testdata" sheetId="9" r:id="rId6"/>
+    <sheet name="Murabha_Repayment_TestData" sheetId="10" r:id="rId7"/>
+    <sheet name="CustomerDetails_TestData" sheetId="11" r:id="rId8"/>
+    <sheet name="mura_identificationDetail" sheetId="12" r:id="rId9"/>
+    <sheet name="Tawarooq_Repayment" sheetId="13" r:id="rId10"/>
+    <sheet name="Tawarruq_DocumentDetails" sheetId="14" r:id="rId11"/>
+    <sheet name="Tawar_NewApp_CustomerDetails" sheetId="15" r:id="rId12"/>
+    <sheet name="Tawar_offering" sheetId="18" r:id="rId13"/>
+    <sheet name="Tawa_Commoditymaker" sheetId="19" r:id="rId14"/>
+    <sheet name="Mura_Offering_documentDetail" sheetId="20" r:id="rId15"/>
+    <sheet name="mura_offering_offerDetail" sheetId="21" r:id="rId16"/>
+    <sheet name="ijaraa_LoginCredentials" sheetId="22" r:id="rId17"/>
+    <sheet name="AutoL_AppDataEn_AddressDetail" sheetId="23" r:id="rId18"/>
+    <sheet name="ijara_LoginCredentials" sheetId="24" r:id="rId19"/>
+    <sheet name="AppDataEn_AL_Asset" sheetId="25" r:id="rId20"/>
+    <sheet name="AppDataEn_AL_AssetD" sheetId="26" r:id="rId21"/>
+    <sheet name="Tawa_Check_QuotationInfo" sheetId="27" r:id="rId22"/>
+    <sheet name="Tawa_check_InsuranceInfo" sheetId="28" r:id="rId23"/>
+    <sheet name="Tawa_check_Repayment" sheetId="29" r:id="rId24"/>
+    <sheet name="Tawa_Entry_FacilityInfo" sheetId="30" r:id="rId25"/>
+    <sheet name="Tawar_Entry_FacilityInfo" sheetId="31" r:id="rId26"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="408">
   <si>
     <t>UserType</t>
   </si>
@@ -461,33 +464,6 @@
     <t>ABCD</t>
   </si>
   <si>
-    <t>TestCase ID</t>
-  </si>
-  <si>
-    <t>dataSet_ID</t>
-  </si>
-  <si>
-    <t>ExecuteYes/No</t>
-  </si>
-  <si>
-    <t>Dependent Test Case Id_One</t>
-  </si>
-  <si>
-    <t>Dependent Test Case Id_Two</t>
-  </si>
-  <si>
-    <t>Dependent Test Case Id_Three</t>
-  </si>
-  <si>
-    <t>Dependent Test Case Id_Four</t>
-  </si>
-  <si>
-    <t>Dependent Test Case Id_Five</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>customer_type</t>
   </si>
   <si>
@@ -668,105 +644,18 @@
     <t>1600000</t>
   </si>
   <si>
-    <t>application_type</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>middle_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>first_name_arabic</t>
-  </si>
-  <si>
-    <t>middle_name_arabic</t>
-  </si>
-  <si>
-    <t>last_name_arabic</t>
-  </si>
-  <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>maritail_status</t>
-  </si>
-  <si>
-    <t>educational_level</t>
-  </si>
-  <si>
     <t>nationality</t>
   </si>
   <si>
-    <t>residential_status</t>
-  </si>
-  <si>
     <t>language</t>
   </si>
   <si>
-    <t>no_of_dependents</t>
-  </si>
-  <si>
     <t>client_category</t>
   </si>
   <si>
-    <t>Consent Obtained For Credit Bureau</t>
-  </si>
-  <si>
-    <t>numeric_input</t>
-  </si>
-  <si>
-    <t>alphabet_input</t>
-  </si>
-  <si>
-    <t>matched_search_text</t>
-  </si>
-  <si>
-    <t>unmatched_search_text</t>
-  </si>
-  <si>
-    <t>AT_IJ_NEWAPP_01</t>
-  </si>
-  <si>
-    <t>DS01_AT_IJ_NEWAPP_01</t>
-  </si>
-  <si>
-    <t>Primary Applicant</t>
-  </si>
-  <si>
-    <t>Mr</t>
-  </si>
-  <si>
-    <t>Anandh</t>
-  </si>
-  <si>
-    <t>Kumar</t>
-  </si>
-  <si>
-    <t>سرور</t>
-  </si>
-  <si>
-    <t>كومار</t>
-  </si>
-  <si>
-    <t>MALE</t>
-  </si>
-  <si>
     <t>Single</t>
   </si>
   <si>
-    <t>UG</t>
-  </si>
-  <si>
     <t>Indian</t>
   </si>
   <si>
@@ -776,42 +665,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>Accomodation</t>
-  </si>
-  <si>
-    <t>AT_IJ_NEWAPP_02</t>
-  </si>
-  <si>
-    <t>DS01_AT_IJ_NEWAPP_02</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>AT_IJ_NEWAPP_03</t>
-  </si>
-  <si>
-    <t>DS01_AT_IJ_NEWAPP_03</t>
-  </si>
-  <si>
-    <t>updatedfirstName</t>
-  </si>
-  <si>
-    <t>AT_IJ_NEWAPP_05</t>
-  </si>
-  <si>
-    <t>DS01_AT_IJ_NEWAPP_05</t>
-  </si>
-  <si>
-    <t>AT_IJ_NEWAPP_06</t>
-  </si>
-  <si>
-    <t>DS01_AT_IJ_NEWAPP_06</t>
-  </si>
-  <si>
-    <t>345ABDC</t>
-  </si>
-  <si>
     <t>Ref No</t>
   </si>
   <si>
@@ -941,21 +794,12 @@
     <t>AHL</t>
   </si>
   <si>
-    <t>Home Loan-Ready to move / Under construction Property from Builder/Society</t>
-  </si>
-  <si>
-    <t>Ready to move / Under construction Property from Builder/Society</t>
-  </si>
-  <si>
     <t>Income Based</t>
   </si>
   <si>
     <t>Auto Leasing Loan</t>
   </si>
   <si>
-    <t>Ijara auto retail 3</t>
-  </si>
-  <si>
     <t>USD</t>
   </si>
   <si>
@@ -1016,15 +860,9 @@
     <t>Savings Account</t>
   </si>
   <si>
-    <t>CAD</t>
-  </si>
-  <si>
     <t>BankofBaroda</t>
   </si>
   <si>
-    <t>BOAVA Branch</t>
-  </si>
-  <si>
     <t>AT_MU_IRM_007</t>
   </si>
   <si>
@@ -1086,9 +924,6 @@
   </si>
   <si>
     <t>DS01_AT_TW_AD_IRM_04</t>
-  </si>
-  <si>
-    <t>cc</t>
   </si>
   <si>
     <t>AT_TW_AD_IRM_06</t>
@@ -1305,9 +1140,6 @@
     <t>Thane</t>
   </si>
   <si>
-    <t>userType0</t>
-  </si>
-  <si>
     <t>DocumentDetails,offeringDetails,AssetDetail</t>
   </si>
   <si>
@@ -1333,6 +1165,105 @@
   </si>
   <si>
     <t>abc098@gmail.com</t>
+  </si>
+  <si>
+    <t>Home Loan-ReadyOrUnderConstructionProperty</t>
+  </si>
+  <si>
+    <t>Ready to move Under construction Property from B</t>
+  </si>
+  <si>
+    <t>servingBranch</t>
+  </si>
+  <si>
+    <t>Azentio Main Branch</t>
+  </si>
+  <si>
+    <t>Home Loan Floating Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chennai </t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>AT_TW_INS_01</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_INS_01</t>
+  </si>
+  <si>
+    <t>userType11</t>
+  </si>
+  <si>
+    <t>App Data Check</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_QI_01</t>
+  </si>
+  <si>
+    <t>0303</t>
+  </si>
+  <si>
+    <t>AT_TW_QI</t>
+  </si>
+  <si>
+    <t>murabha</t>
+  </si>
+  <si>
+    <t>App data entry</t>
+  </si>
+  <si>
+    <t>repayment</t>
+  </si>
+  <si>
+    <t>record move to next stage</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>chennai</t>
+  </si>
+  <si>
+    <t>Cash Mode</t>
+  </si>
+  <si>
+    <t>InsuranceInfo,QuotationInfo,RepaymentMode</t>
+  </si>
+  <si>
+    <t>AT_TW_RM_01</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_RM_01</t>
+  </si>
+  <si>
+    <t>AT_FAC_DET_04</t>
+  </si>
+  <si>
+    <t>DS01_AT_FAC_DET_04</t>
+  </si>
+  <si>
+    <t>DocumentDetail</t>
+  </si>
+  <si>
+    <t>Tawarooq Retail Loan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Tawaroow Retail Sub product </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tawarooq Scheme A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto Retail Loan </t>
+  </si>
+  <si>
+    <t>Tawarooq fixed rate</t>
   </si>
 </sst>
 </file>
@@ -1366,12 +1297,6 @@
       <sz val="12"/>
       <color rgb="FF2A00FF"/>
       <name val="Consolas11"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2A00FF"/>
-      <name val="Consolas1"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1433,6 +1358,12 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1454,76 +1385,76 @@
   <cellStyleXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1536,14 +1467,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="37" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="37" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="38">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
@@ -1587,11 +1520,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1855,7 +1783,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
@@ -2131,22 +2061,28 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="39.5" customWidth="1"/>
-    <col min="2" max="2" width="36.375" customWidth="1"/>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="37.875" customWidth="1"/>
-    <col min="5" max="1024" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="42.375" customWidth="1"/>
+    <col min="3" max="4" width="13.875" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
+    <col min="6" max="6" width="21.75" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="22.375" customWidth="1"/>
+    <col min="9" max="14" width="10.875" customWidth="1"/>
+    <col min="15" max="15" width="23.375" customWidth="1"/>
+    <col min="16" max="16" width="31.5" customWidth="1"/>
+    <col min="17" max="1025" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
+    <row r="1" spans="1:16" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -2154,84 +2090,176 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E1" t="s">
-        <v>333</v>
-      </c>
-      <c r="F1" t="s">
-        <v>334</v>
-      </c>
-      <c r="G1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75">
+        <v>208</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75">
       <c r="A2" s="1" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="C2" s="1">
         <v>3208</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75">
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I2" s="1">
+        <v>123456</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="M2" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75">
       <c r="A3" s="1" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>340</v>
+        <v>294</v>
       </c>
       <c r="C3" s="1">
         <v>3208</v>
       </c>
-      <c r="E3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I3" s="1">
+        <v>123456</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="M3" s="1">
+        <v>231</v>
+      </c>
+      <c r="N3" s="8">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75">
       <c r="A4" s="1" t="s">
-        <v>341</v>
+        <v>295</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C4" s="1">
+        <v>296</v>
+      </c>
+      <c r="C4">
         <v>3208</v>
       </c>
-      <c r="E4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F4" t="s">
-        <v>343</v>
-      </c>
-      <c r="G4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75">
-      <c r="C7" s="1">
-        <v>3595</v>
-      </c>
-      <c r="D7" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I4" s="1">
+        <v>123456</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="M4" s="1">
+        <v>231</v>
+      </c>
+      <c r="N4" s="8">
+        <v>602</v>
+      </c>
+      <c r="P4" t="s">
+        <v>297</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0.15275590551181101" bottom="0.15275590551181101" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
+  <pageMargins left="0" right="0" top="202.10826771653501" bottom="202.10826771653501" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;K000000Page &amp;P</oddFooter>
@@ -2241,257 +2269,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="38.625" customWidth="1"/>
-    <col min="2" max="2" width="33.125" customWidth="1"/>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="1024" width="12.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75">
-      <c r="A2" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3546</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0" right="0" top="273.21929133858299" bottom="273.21929133858299" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;K000000Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="24.375" customWidth="1"/>
-    <col min="2" max="2" width="42.375" customWidth="1"/>
-    <col min="3" max="3" width="13.875" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="21.75" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="22.375" customWidth="1"/>
-    <col min="8" max="13" width="10.875" customWidth="1"/>
-    <col min="14" max="14" width="23.375" customWidth="1"/>
-    <col min="15" max="15" width="31.5" customWidth="1"/>
-    <col min="16" max="1024" width="10.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="15.75">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75">
-      <c r="A2" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3208</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H2" s="1">
-        <v>123456</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L2" s="1">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75">
-      <c r="A3" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3208</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H3" s="1">
-        <v>123456</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L3" s="1">
-        <v>231</v>
-      </c>
-      <c r="M3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75">
-      <c r="A4" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C4">
-        <v>3208</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H4" s="1">
-        <v>123456</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L4" s="1">
-        <v>231</v>
-      </c>
-      <c r="M4" t="s">
-        <v>350</v>
-      </c>
-      <c r="O4" t="s">
-        <v>353</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0" right="0" top="202.10826771653501" bottom="202.10826771653501" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;K000000Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2515,33 +2296,33 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>354</v>
+        <v>298</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>355</v>
+        <v>299</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>356</v>
+        <v>300</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>357</v>
+        <v>301</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>359</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="1" t="s">
-        <v>360</v>
+        <v>304</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>361</v>
+        <v>305</v>
       </c>
       <c r="C2" s="1">
         <v>3722</v>
@@ -2550,60 +2331,60 @@
     </row>
     <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="1" t="s">
-        <v>362</v>
+        <v>306</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>363</v>
+        <v>307</v>
       </c>
       <c r="C3" s="1">
         <v>3722</v>
       </c>
       <c r="D3" t="s">
-        <v>364</v>
+        <v>308</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>365</v>
+        <v>309</v>
       </c>
       <c r="F3" t="s">
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="G3" t="s">
-        <v>367</v>
+        <v>311</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>368</v>
+        <v>312</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>369</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="1" t="s">
-        <v>345</v>
+        <v>290</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>346</v>
+        <v>291</v>
       </c>
       <c r="C4" s="1">
         <v>3208</v>
       </c>
       <c r="D4" t="s">
-        <v>364</v>
+        <v>308</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>365</v>
+        <v>309</v>
       </c>
       <c r="F4" t="s">
-        <v>366</v>
+        <v>310</v>
       </c>
       <c r="G4" t="s">
-        <v>367</v>
+        <v>311</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>368</v>
+        <v>312</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>369</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2616,12 +2397,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2641,98 +2422,98 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="E1" t="s">
-        <v>370</v>
+        <v>314</v>
       </c>
       <c r="F1" t="s">
-        <v>371</v>
+        <v>315</v>
       </c>
       <c r="G1" t="s">
-        <v>372</v>
+        <v>316</v>
       </c>
       <c r="H1" t="s">
-        <v>373</v>
+        <v>317</v>
       </c>
       <c r="I1" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="J1" t="s">
-        <v>374</v>
+        <v>318</v>
       </c>
       <c r="K1" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="L1" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="M1" t="s">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="N1" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75">
       <c r="A2" s="1" t="s">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>376</v>
+        <v>320</v>
       </c>
       <c r="C2">
         <v>3877</v>
       </c>
       <c r="D2" t="s">
-        <v>377</v>
+        <v>321</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>378</v>
+        <v>322</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>379</v>
+        <v>323</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>380</v>
+        <v>324</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>243</v>
+        <v>205</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>244</v>
+        <v>206</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>381</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75">
       <c r="A3" s="1" t="s">
-        <v>382</v>
+        <v>326</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>383</v>
+        <v>327</v>
       </c>
       <c r="C3">
         <v>3877</v>
       </c>
       <c r="D3" t="s">
-        <v>377</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>377</v>
+        <v>321</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>321</v>
       </c>
       <c r="N3" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75">
@@ -2741,7 +2522,7 @@
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="15.5972440944882" bottom="15.5972440944882" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;K000000Page &amp;P</oddFooter>
@@ -2749,7 +2530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2772,24 +2553,24 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="1" t="s">
-        <v>384</v>
+        <v>328</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>385</v>
+        <v>329</v>
       </c>
       <c r="C2">
         <v>3330</v>
       </c>
       <c r="D2" t="s">
-        <v>386</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -2797,7 +2578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -2819,15 +2600,15 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="1" t="s">
-        <v>387</v>
+        <v>331</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>388</v>
+        <v>332</v>
       </c>
       <c r="C2">
         <v>3967</v>
@@ -2835,10 +2616,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75">
       <c r="A3" s="1" t="s">
-        <v>389</v>
+        <v>333</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>390</v>
+        <v>334</v>
       </c>
       <c r="C3">
         <v>3967</v>
@@ -2849,12 +2630,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A5:C6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2871,46 +2652,46 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="E1" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75">
-      <c r="A2" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>394</v>
+      <c r="A2" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="C2">
         <v>4049</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75">
-      <c r="A3" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>396</v>
+      <c r="A3" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>340</v>
       </c>
       <c r="C3">
         <v>4049</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>3103</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>343</v>
+      <c r="E3" s="8">
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2918,7 +2699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2940,21 +2721,21 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="E1" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
-      <c r="A2" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>401</v>
+      <c r="A2" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>345</v>
       </c>
       <c r="C2">
         <v>4049</v>
@@ -2965,12 +2746,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2980,7 +2761,7 @@
     <col min="3" max="3" width="20.25" customWidth="1"/>
     <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="32.5" customWidth="1"/>
+    <col min="6" max="6" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
@@ -2997,7 +2778,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>398</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75">
@@ -3026,13 +2807,13 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>397</v>
+        <v>341</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>404</v>
+        <v>348</v>
       </c>
       <c r="G3" s="1">
         <v>2987</v>
@@ -3052,7 +2833,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>397</v>
+        <v>341</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -3063,7 +2844,7 @@
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3078,7 +2859,7 @@
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3093,7 +2874,7 @@
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3108,7 +2889,7 @@
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>2068</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3117,15 +2898,19 @@
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>402</v>
+      </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>3129</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3146,7 +2931,7 @@
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>354</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -3165,22 +2950,22 @@
     </row>
     <row r="11" spans="1:7" ht="15.75">
       <c r="A11" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="C11" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>423</v>
+        <v>366</v>
       </c>
       <c r="G11" s="1">
         <v>4049</v>
@@ -3207,255 +2992,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:AI3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1024" width="14" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2965</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
-      <c r="A3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2965</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1"/>
-    <hyperlink ref="AF3" r:id="rId2" location="$"/>
-  </hyperlinks>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3478,75 +3020,75 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>410</v>
+        <v>351</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>354</v>
       </c>
       <c r="G1" t="s">
-        <v>412</v>
+        <v>356</v>
       </c>
       <c r="H1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="K1" s="9" t="s">
+      <c r="I1" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="9" t="s">
-        <v>418</v>
+      <c r="Q1" s="8" t="s">
+        <v>362</v>
       </c>
       <c r="R1" t="s">
         <v>42</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="W1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="X1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="Y1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="Z1" s="8" t="s">
         <v>50</v>
       </c>
       <c r="AA1" t="s">
@@ -3563,11 +3105,11 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="15">
-      <c r="A2" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>406</v>
+      <c r="A2" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>350</v>
       </c>
       <c r="C2">
         <v>4138</v>
@@ -3575,124 +3117,124 @@
       <c r="D2">
         <v>4385</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="G2" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="M2" s="9" t="s">
+      <c r="L2" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="O2" s="9">
+      <c r="N2" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="O2" s="8">
         <v>987456</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="8">
         <v>974121</v>
       </c>
       <c r="Q2">
         <v>9632587410</v>
       </c>
-      <c r="R2" s="9">
+      <c r="R2" s="8">
         <v>20</v>
       </c>
-      <c r="S2" s="9">
+      <c r="S2" s="8">
         <v>101010</v>
       </c>
-      <c r="T2" s="9">
+      <c r="T2" s="8">
         <v>101010</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="V2" s="10">
+      <c r="V2" s="9">
         <v>36779</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="X2" s="9">
+      <c r="X2" s="8">
         <v>9874563210</v>
       </c>
-      <c r="Y2" s="9">
+      <c r="Y2" s="8">
         <v>10000</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="Z2" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
     </row>
     <row r="3" spans="1:30">
       <c r="AA3" t="s">
         <v>74</v>
       </c>
       <c r="AB3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:30">
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9" t="s">
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AB4" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
+      <c r="AB4" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
     </row>
     <row r="5" spans="1:30">
       <c r="AA5" t="s">
         <v>74</v>
       </c>
       <c r="AB5" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:30">
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3705,12 +3247,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3718,9 +3260,10 @@
     <col min="1" max="1" width="22.375" customWidth="1"/>
     <col min="4" max="4" width="14.125" customWidth="1"/>
     <col min="5" max="5" width="30.625" customWidth="1"/>
+    <col min="6" max="6" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
+    <row r="1" spans="1:10" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3734,10 +3277,10 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3752,7 +3295,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:10" ht="15.75">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -3763,21 +3306,21 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>397</v>
+        <v>341</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>404</v>
+        <v>348</v>
       </c>
       <c r="G3" s="1">
         <v>2987</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" spans="1:10" ht="15.75">
       <c r="A4" s="1" t="s">
-        <v>422</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -3789,18 +3332,18 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>397</v>
+        <v>341</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75">
+    <row r="5" spans="1:10" ht="15.75">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3810,12 +3353,21 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75">
+      <c r="H5" t="s">
+        <v>390</v>
+      </c>
+      <c r="I5" t="s">
+        <v>391</v>
+      </c>
+      <c r="J5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3826,11 +3378,11 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75">
+    <row r="7" spans="1:10" ht="15.75">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3841,11 +3393,11 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75">
+    <row r="8" spans="1:10" ht="15.75">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>2068</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3858,11 +3410,11 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75">
+    <row r="9" spans="1:10" ht="15.75">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>3129</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -3879,11 +3431,11 @@
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75">
+    <row r="10" spans="1:10" ht="15.75">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>354</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -3900,35 +3452,35 @@
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75">
+    <row r="11" spans="1:10" ht="15.75">
       <c r="A11" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>391</v>
+        <v>346</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>335</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>392</v>
+        <v>336</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>399</v>
+        <v>343</v>
       </c>
       <c r="G11" s="1">
         <v>4049</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75">
+    <row r="12" spans="1:10" ht="15.75">
       <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>385</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>388</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -3937,10 +3489,13 @@
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>12</v>
+      <c r="G12">
+        <v>4690</v>
       </c>
     </row>
   </sheetData>
@@ -3956,7 +3511,250 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ3"/>
+  <sheetViews>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AI17" sqref="AI17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1024" width="14" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2965</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2965</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="S2" r:id="rId1"/>
+    <hyperlink ref="AF3" r:id="rId2" location="$"/>
+  </hyperlinks>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -3978,15 +3776,15 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
-      <c r="A2" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>425</v>
+      <c r="A2" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="C2">
         <v>4138</v>
@@ -3997,12 +3795,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4021,7 +3819,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>86</v>
@@ -4033,7 +3831,7 @@
         <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>428</v>
+        <v>371</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>89</v>
@@ -4119,26 +3917,26 @@
       <c r="AI1" s="1"/>
     </row>
     <row r="2" spans="1:35" ht="15.75">
-      <c r="A2" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>425</v>
+      <c r="A2" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="C2">
         <v>4138</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>427</v>
+      <c r="D2" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>370</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G2" s="12">
-        <v>43836</v>
+      <c r="G2" s="9">
+        <v>36779</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>120</v>
@@ -4168,13 +3966,13 @@
         <v>127</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>429</v>
+        <v>372</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>430</v>
+        <v>373</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>431</v>
+        <v>374</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>131</v>
@@ -4212,9 +4010,15 @@
       <c r="AE2" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
+      <c r="AF2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" ht="15.75">
@@ -4246,101 +4050,415 @@
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
-      <c r="AF3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="AI3" s="1"/>
     </row>
     <row r="6" spans="1:35">
-      <c r="H6" s="12"/>
+      <c r="H6" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="S2" r:id="rId1"/>
-    <hyperlink ref="AF3" r:id="rId2" location="$"/>
+    <hyperlink ref="AF2" r:id="rId2" location="$"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1024" width="14" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>149</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C2">
+        <v>4690</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C2">
+        <v>4690</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C2">
+        <v>4690</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R3"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:T2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="24.375" customWidth="1"/>
+    <col min="6" max="6" width="15.375" customWidth="1"/>
+    <col min="8" max="8" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="17.875" customWidth="1"/>
+    <col min="11" max="11" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75">
+      <c r="A2" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C2">
+        <v>3722</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="N2" s="1">
+        <v>20000000</v>
+      </c>
+      <c r="O2" s="1">
+        <v>60000</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75">
+      <c r="D3" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75">
+      <c r="A2" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C2">
+        <v>3722</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="N2" s="1">
+        <v>20000000</v>
+      </c>
+      <c r="O2" s="1">
+        <v>60000</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AI1" sqref="AI1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
@@ -4358,85 +4476,85 @@
         <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>113</v>
@@ -4445,148 +4563,148 @@
         <v>51</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:33">
       <c r="A2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>133</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="X2" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>135</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>74</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4599,276 +4717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="44.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.375" style="1" customWidth="1"/>
-    <col min="4" max="1024" width="14" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:29">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
-      <c r="A2" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2971</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="N2" s="1">
-        <v>23</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="U2" s="1">
-        <v>2</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
-      <c r="A3" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2971</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
-      <c r="A4" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2971</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
-      <c r="A5" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2971</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
-      <c r="A6" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2971</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="AA3" r:id="rId1" location="$"/>
-    <hyperlink ref="AA5" r:id="rId2" location="$"/>
-    <hyperlink ref="AA6" r:id="rId3" location="$"/>
-  </hyperlinks>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ4"/>
   <sheetViews>
@@ -4889,40 +4738,40 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -4932,7 +4781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ7"/>
   <sheetViews>
@@ -4951,73 +4800,393 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>268</v>
+        <v>218</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AML5"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:R3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1026" width="14" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="N3" s="1">
+        <v>20000000</v>
+      </c>
+      <c r="O3" s="1">
+        <v>60000</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>2</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMK7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="36.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.625" style="1" customWidth="1"/>
+    <col min="3" max="1025" width="14" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3588</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="I2" s="1">
+        <v>123456</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="M2" s="1">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
         <v>276</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="B7" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>261</v>
+        <v>269</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3571</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -5029,16 +5198,22 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1024" width="14" style="1" customWidth="1"/>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="2" max="2" width="36.375" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="37.875" customWidth="1"/>
+    <col min="5" max="1024" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -5046,175 +5221,106 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E1" t="s">
         <v>278</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
         <v>279</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" t="s">
         <v>280</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="C2" s="1">
+        <v>3208</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="15.75">
+      <c r="A3" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="C3" s="1">
+        <v>3208</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75">
+      <c r="A4" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="C4" s="1">
+        <v>3208</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
         <v>288</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1000000</v>
-      </c>
-      <c r="L3" s="1">
-        <v>20000000</v>
-      </c>
-      <c r="M3" s="1">
-        <v>60000</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="O3" s="1">
-        <v>2</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>293</v>
-      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75">
+      <c r="C7" s="1">
+        <v>3595</v>
+      </c>
+      <c r="D7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0" right="0" top="0.15275590551181101" bottom="0.15275590551181101" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;K000000Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="36.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.625" style="1" customWidth="1"/>
-    <col min="3" max="1024" width="14" style="1" customWidth="1"/>
+    <col min="1" max="1" width="38.625" customWidth="1"/>
+    <col min="2" max="2" width="33.125" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="1024" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -5222,99 +5328,26 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="1" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="C2" s="1">
-        <v>3571</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H2" s="1">
-        <v>123456</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="L2" s="1">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3572</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3183</v>
+        <v>3546</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0" right="0" top="273.21929133858299" bottom="273.21929133858299" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;K000000Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Uls_Ramya/TestData/ijaraTestData.xlsx
+++ b/Uls_Ramya/TestData/ijaraTestData.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="413">
   <si>
     <t>UserType</t>
   </si>
@@ -1264,6 +1264,21 @@
   </si>
   <si>
     <t>Tawarooq fixed rate</t>
+  </si>
+  <si>
+    <t>negativeValue</t>
+  </si>
+  <si>
+    <t>characterValue</t>
+  </si>
+  <si>
+    <t>specialCharacter</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>modification_loan</t>
   </si>
 </sst>
 </file>
@@ -4329,15 +4344,18 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75">
+    <row r="1" spans="1:21" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -4390,10 +4408,19 @@
         <v>239</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15.75">
+        <v>408</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>400</v>
       </c>
@@ -4403,7 +4430,9 @@
       <c r="C2">
         <v>3722</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>4689</v>
+      </c>
       <c r="E2" s="1" t="s">
         <v>250</v>
       </c>
@@ -4443,11 +4472,23 @@
       <c r="Q2" s="1">
         <v>2</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>254</v>
+      <c r="R2" s="1">
+        <v>-2000</v>
+      </c>
+      <c r="S2" t="s">
+        <v>411</v>
+      </c>
+      <c r="T2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="T2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Uls_Ramya/TestData/ijaraTestData.xlsx
+++ b/Uls_Ramya/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" firstSheet="20" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" firstSheet="22" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="ijarah_AddressDetailsTestData" sheetId="2" r:id="rId1"/>
@@ -33,13 +33,15 @@
     <sheet name="Tawa_check_Repayment" sheetId="29" r:id="rId24"/>
     <sheet name="Tawa_Entry_FacilityInfo" sheetId="30" r:id="rId25"/>
     <sheet name="Tawar_Entry_FacilityInfo" sheetId="31" r:id="rId26"/>
+    <sheet name="Mura_Entry_AddressDetails" sheetId="32" r:id="rId27"/>
+    <sheet name="Mura_check_productDetail" sheetId="33" r:id="rId28"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="445">
   <si>
     <t>UserType</t>
   </si>
@@ -1279,6 +1281,102 @@
   </si>
   <si>
     <t>modification_loan</t>
+  </si>
+  <si>
+    <t>AddressDetails</t>
+  </si>
+  <si>
+    <t>Address Details</t>
+  </si>
+  <si>
+    <t>AT_MU_AD_01</t>
+  </si>
+  <si>
+    <t>AT_MU_AD_02</t>
+  </si>
+  <si>
+    <t>AT_MU_AD_03</t>
+  </si>
+  <si>
+    <t>AT_MU_AD_04</t>
+  </si>
+  <si>
+    <t>AT_MU_AD_05</t>
+  </si>
+  <si>
+    <t>AT_MU_AD_06</t>
+  </si>
+  <si>
+    <t>DS01_AT_MU_AD_01</t>
+  </si>
+  <si>
+    <t>DS01_AT_MU_AD_02</t>
+  </si>
+  <si>
+    <t>DS01_AT_MU_AD_03</t>
+  </si>
+  <si>
+    <t>DS01_AT_MU_AD_04</t>
+  </si>
+  <si>
+    <t>DS01_AT_MU_AD_05</t>
+  </si>
+  <si>
+    <t>DS01_AT_MU_AD_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maharastra </t>
+  </si>
+  <si>
+    <t>Yearly</t>
+  </si>
+  <si>
+    <t>negativeNumber</t>
+  </si>
+  <si>
+    <t>Referrence no</t>
+  </si>
+  <si>
+    <t>negative_numeric</t>
+  </si>
+  <si>
+    <t>@#$%^</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>AT_AU_AD_09</t>
+  </si>
+  <si>
+    <t>DS01_AT_AU_AD_09</t>
+  </si>
+  <si>
+    <t>Datacheck</t>
+  </si>
+  <si>
+    <t>EmploymentDetails</t>
+  </si>
+  <si>
+    <t>userType12</t>
+  </si>
+  <si>
+    <t>0215</t>
+  </si>
+  <si>
+    <t>userType13</t>
+  </si>
+  <si>
+    <t>0342</t>
+  </si>
+  <si>
+    <t>productDetails</t>
+  </si>
+  <si>
+    <t>AT_DC_PD_002</t>
+  </si>
+  <si>
+    <t>DS01_AT_DC_PD_002</t>
   </si>
 </sst>
 </file>
@@ -1289,7 +1387,7 @@
     <numFmt numFmtId="164" formatCode="[$-4009]General"/>
     <numFmt numFmtId="165" formatCode="[$Rs.-4009]#,##0.00;[Red]&quot;-&quot;[$Rs.-4009]#,##0.00"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1367,17 +1465,10 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1397,7 +1488,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="38">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -1469,10 +1560,6 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1487,13 +1574,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="15" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="37" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="38">
+  <cellStyles count="37">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
     <cellStyle name="Excel Built-in Heading 1" xfId="2"/>
     <cellStyle name="Excel Built-in Heading 1 1" xfId="3"/>
@@ -1512,7 +1599,6 @@
     <cellStyle name="Heading1 6" xfId="16"/>
     <cellStyle name="Heading1 7" xfId="17"/>
     <cellStyle name="Heading1 8" xfId="18"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Result" xfId="19"/>
     <cellStyle name="Result 1" xfId="20"/>
@@ -1798,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ7"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection sqref="A1:AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2071,6 +2157,9 @@
   <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="C2:C7" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2524,7 +2613,7 @@
       <c r="D3" t="s">
         <v>321</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>321</v>
       </c>
       <c r="N3" t="s">
@@ -2547,10 +2636,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2560,7 +2649,7 @@
     <col min="3" max="3" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
+    <row r="1" spans="1:5" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -2573,8 +2662,11 @@
       <c r="D1" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75">
+      <c r="E1" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>328</v>
       </c>
@@ -2586,6 +2678,9 @@
       </c>
       <c r="D2" t="s">
         <v>330</v>
+      </c>
+      <c r="E2">
+        <v>3330</v>
       </c>
     </row>
   </sheetData>
@@ -2763,10 +2858,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A12" sqref="A12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2865,10 +2960,18 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3588</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="15.75">
       <c r="A6" s="1" t="s">
@@ -2970,7 +3073,7 @@
       <c r="B11" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2987,13 +3090,38 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="G12" s="1">
+        <v>4984</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75">
+      <c r="A13" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3002,17 +3130,22 @@
     <hyperlink ref="C5" r:id="rId3"/>
     <hyperlink ref="C6" r:id="rId4"/>
     <hyperlink ref="C11" r:id="rId5"/>
+    <hyperlink ref="C12" r:id="rId6"/>
+    <hyperlink ref="C13" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B4 B5:B7 B11" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD6"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3020,14 +3153,19 @@
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="12" max="12" width="21.75" customWidth="1"/>
+    <col min="6" max="6" width="17.375" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="19.125" customWidth="1"/>
+    <col min="9" max="9" width="17.375" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="12" max="13" width="12.375" customWidth="1"/>
     <col min="14" max="14" width="13.875" customWidth="1"/>
     <col min="17" max="17" width="10.875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75">
+    <row r="1" spans="1:31" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -3112,14 +3250,17 @@
       <c r="AB1" t="s">
         <v>52</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="AD1" t="s">
         <v>53</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="15">
+    <row r="2" spans="1:31" ht="15">
       <c r="A2" s="6" t="s">
         <v>349</v>
       </c>
@@ -3157,7 +3298,7 @@
         <v>364</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="N2" s="8" t="s">
         <v>365</v>
@@ -3196,22 +3337,106 @@
         <v>10000</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>71</v>
+        <v>428</v>
       </c>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
+      <c r="AC2" s="8">
+        <v>-123</v>
+      </c>
       <c r="AD2" s="8"/>
-    </row>
-    <row r="3" spans="1:30">
+      <c r="AE2" s="8"/>
+    </row>
+    <row r="3" spans="1:31" ht="15">
+      <c r="A3" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="C3">
+        <v>4138</v>
+      </c>
+      <c r="D3">
+        <v>4385</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="O3" s="8">
+        <v>987456</v>
+      </c>
+      <c r="P3" s="8">
+        <v>974121</v>
+      </c>
+      <c r="Q3">
+        <v>9632587410</v>
+      </c>
+      <c r="R3" s="8">
+        <v>20</v>
+      </c>
+      <c r="S3" s="8">
+        <v>101010</v>
+      </c>
+      <c r="T3" s="8">
+        <v>101010</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="V3" s="9">
+        <v>36779</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="X3" s="8">
+        <v>9874563210</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>10000</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>428</v>
+      </c>
       <c r="AA3" t="s">
-        <v>74</v>
+        <v>432</v>
       </c>
       <c r="AB3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>433</v>
+      </c>
+      <c r="AC3">
+        <v>-123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
       <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
@@ -3221,23 +3446,29 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8" t="s">
-        <v>74</v>
+        <v>432</v>
       </c>
       <c r="AB4" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="AC4" s="8"/>
+        <v>433</v>
+      </c>
+      <c r="AC4">
+        <v>-123</v>
+      </c>
       <c r="AD4" s="8"/>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="AE4" s="8"/>
+    </row>
+    <row r="5" spans="1:31">
       <c r="AA5" t="s">
-        <v>74</v>
+        <v>432</v>
       </c>
       <c r="AB5" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>433</v>
+      </c>
+      <c r="AC5">
+        <v>-123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
@@ -3250,24 +3481,20 @@
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
       <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="AA3" r:id="rId1" location="$" display="mailto:!@ - $"/>
-    <hyperlink ref="AA4" r:id="rId2" location="$" display="mailto:!@ - $"/>
-    <hyperlink ref="AA5" r:id="rId3" location="$" display="mailto:!@ - $"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3276,6 +3503,8 @@
     <col min="4" max="4" width="14.125" customWidth="1"/>
     <col min="5" max="5" width="30.625" customWidth="1"/>
     <col min="6" max="6" width="37.125" customWidth="1"/>
+    <col min="8" max="8" width="22.75" customWidth="1"/>
+    <col min="9" max="9" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
@@ -3364,9 +3593,15 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>413</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
         <v>390</v>
@@ -3511,6 +3746,52 @@
       </c>
       <c r="G12">
         <v>4690</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75">
+      <c r="A13" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4984</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75">
+      <c r="A14" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G14" s="2">
+        <v>4994</v>
       </c>
     </row>
   </sheetData>
@@ -3521,8 +3802,13 @@
     <hyperlink ref="C6" r:id="rId4"/>
     <hyperlink ref="C12" r:id="rId5"/>
     <hyperlink ref="C2" r:id="rId6"/>
+    <hyperlink ref="C13" r:id="rId7"/>
+    <hyperlink ref="C14" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B4:B14" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -4068,7 +4354,7 @@
       <c r="AI3" s="1"/>
     </row>
     <row r="6" spans="1:35">
-      <c r="H6" s="11"/>
+      <c r="H6" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4208,8 +4494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection sqref="A1:T2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4346,7 +4632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -4493,12 +4779,476 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AD7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="16" max="16" width="17.375" customWidth="1"/>
+    <col min="23" max="23" width="16.375" customWidth="1"/>
+    <col min="25" max="25" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="15.75">
+      <c r="A2" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3588</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="1">
+        <v>987456</v>
+      </c>
+      <c r="O2" s="1">
+        <v>974121</v>
+      </c>
+      <c r="P2" s="12">
+        <v>9874563210</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>20</v>
+      </c>
+      <c r="R2" s="1">
+        <v>101010</v>
+      </c>
+      <c r="S2" s="1">
+        <v>101010</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" s="12">
+        <v>9874563210</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+    </row>
+    <row r="3" spans="1:30" ht="15.75">
+      <c r="A3" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3588</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+    </row>
+    <row r="4" spans="1:30" ht="15.75">
+      <c r="A4" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3588</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+    </row>
+    <row r="5" spans="1:30" ht="15.75">
+      <c r="A5" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3588</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+    </row>
+    <row r="6" spans="1:30" ht="15.75">
+      <c r="A6" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3588</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+    </row>
+    <row r="7" spans="1:30" ht="15.75">
+      <c r="A7" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3588</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>-123</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Z3" r:id="rId1" location="$"/>
+    <hyperlink ref="Z5" r:id="rId2" location="$"/>
+    <hyperlink ref="Z6" r:id="rId3" location="$"/>
+    <hyperlink ref="Z7" r:id="rId4" location="$"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+  <ignoredErrors>
+    <ignoredError sqref="X2" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="28.25" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
+      <c r="A2" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ4"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4755,6 +5505,9 @@
   <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="W2 AD2 AE3 C2:C4 G2:G3 K2:M4" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -4826,7 +5579,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
@@ -4914,6 +5669,9 @@
   <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="C2:C7" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -4922,7 +5680,7 @@
   <dimension ref="A1:AML5"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:R3"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>

--- a/Uls_Ramya/TestData/ijaraTestData.xlsx
+++ b/Uls_Ramya/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" firstSheet="22" activeTab="27"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ijarah_AddressDetailsTestData" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="454">
   <si>
     <t>UserType</t>
   </si>
@@ -683,12 +683,6 @@
   </si>
   <si>
     <t>DS01_AT_EDC_02</t>
-  </si>
-  <si>
-    <t>AT_EDC_03</t>
-  </si>
-  <si>
-    <t>DS01_AT_EDC_03</t>
   </si>
   <si>
     <t>AT_EDC_04</t>
@@ -1377,6 +1371,39 @@
   </si>
   <si>
     <t>DS01_AT_DC_PD_002</t>
+  </si>
+  <si>
+    <t>record</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>Company/Firm</t>
+  </si>
+  <si>
+    <t>Pensioner</t>
+  </si>
+  <si>
+    <t>Self-employed</t>
+  </si>
+  <si>
+    <t>salaried</t>
+  </si>
+  <si>
+    <t>AT_EDC_10</t>
+  </si>
+  <si>
+    <t>DS01_AT_EDC_10</t>
+  </si>
+  <si>
+    <t>old ref number</t>
+  </si>
+  <si>
+    <t>Self</t>
   </si>
 </sst>
 </file>
@@ -2197,40 +2224,40 @@
         <v>208</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>28</v>
@@ -2238,38 +2265,38 @@
     </row>
     <row r="2" spans="1:16" ht="15.75">
       <c r="A2" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C2" s="1">
         <v>3208</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="I2" s="1">
         <v>123456</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M2" s="1">
         <v>231</v>
@@ -2277,38 +2304,38 @@
     </row>
     <row r="3" spans="1:16" ht="15.75">
       <c r="A3" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C3" s="1">
         <v>3208</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="I3" s="1">
         <v>123456</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M3" s="1">
         <v>231</v>
@@ -2319,37 +2346,37 @@
     </row>
     <row r="4" spans="1:16" ht="15.75">
       <c r="A4" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C4">
         <v>3208</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="I4" s="1">
         <v>123456</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M4" s="1">
         <v>231</v>
@@ -2358,7 +2385,7 @@
         <v>602</v>
       </c>
       <c r="P4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -2403,30 +2430,30 @@
         <v>208</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C2" s="1">
         <v>3722</v>
@@ -2435,60 +2462,60 @@
     </row>
     <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C3" s="1">
         <v>3722</v>
       </c>
       <c r="D3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F3" t="s">
         <v>308</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" t="s">
         <v>309</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C4" s="1">
         <v>3208</v>
       </c>
       <c r="D4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F4" t="s">
         <v>308</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" t="s">
         <v>309</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2529,25 +2556,25 @@
         <v>208</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G1" t="s">
         <v>314</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>315</v>
-      </c>
-      <c r="G1" t="s">
-        <v>316</v>
-      </c>
-      <c r="H1" t="s">
-        <v>317</v>
       </c>
       <c r="I1" t="s">
         <v>201</v>
       </c>
       <c r="J1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K1" t="s">
         <v>202</v>
@@ -2556,36 +2583,36 @@
         <v>203</v>
       </c>
       <c r="M1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75">
       <c r="A2" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C2">
         <v>3877</v>
       </c>
       <c r="D2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>204</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>205</v>
@@ -2597,27 +2624,27 @@
         <v>207</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75">
       <c r="A3" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C3">
         <v>3877</v>
       </c>
       <c r="D3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75">
@@ -2660,24 +2687,24 @@
         <v>208</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C2">
         <v>3330</v>
       </c>
       <c r="D2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E2">
         <v>3330</v>
@@ -2715,10 +2742,10 @@
     </row>
     <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C2">
         <v>3967</v>
@@ -2726,10 +2753,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75">
       <c r="A3" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C3">
         <v>3967</v>
@@ -2765,18 +2792,18 @@
         <v>208</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C2">
         <v>4049</v>
@@ -2784,10 +2811,10 @@
     </row>
     <row r="3" spans="1:5" ht="15.75">
       <c r="A3" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C3">
         <v>4049</v>
@@ -2834,18 +2861,18 @@
         <v>208</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
       <c r="A2" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C2">
         <v>4049</v>
@@ -2861,7 +2888,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:G12"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2888,7 +2915,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75">
@@ -2917,13 +2944,13 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G3" s="1">
         <v>2987</v>
@@ -2943,7 +2970,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -2961,13 +2988,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G5" s="1">
         <v>3588</v>
@@ -3017,10 +3044,10 @@
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -3068,22 +3095,22 @@
     </row>
     <row r="11" spans="1:7" ht="15.75">
       <c r="A11" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G11" s="1">
         <v>4049</v>
@@ -3091,7 +3118,7 @@
     </row>
     <row r="12" spans="1:7" ht="15.75">
       <c r="A12" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B12" s="1">
         <v>1980</v>
@@ -3100,13 +3127,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G12" s="1">
         <v>4984</v>
@@ -3114,7 +3141,7 @@
     </row>
     <row r="13" spans="1:7" ht="15.75">
       <c r="A13" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B13" s="1">
         <v>1980</v>
@@ -3176,25 +3203,25 @@
         <v>208</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>353</v>
-      </c>
       <c r="F1" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="G1" t="s">
         <v>354</v>
-      </c>
-      <c r="G1" t="s">
-        <v>356</v>
       </c>
       <c r="H1" t="s">
         <v>32</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>35</v>
@@ -3215,7 +3242,7 @@
         <v>40</v>
       </c>
       <c r="Q1" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="R1" t="s">
         <v>42</v>
@@ -3251,7 +3278,7 @@
         <v>52</v>
       </c>
       <c r="AC1" s="8" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AD1" t="s">
         <v>53</v>
@@ -3262,10 +3289,10 @@
     </row>
     <row r="2" spans="1:31" ht="15">
       <c r="A2" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C2">
         <v>4138</v>
@@ -3274,34 +3301,34 @@
         <v>4385</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>59</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>357</v>
-      </c>
       <c r="I2" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K2" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O2" s="8">
         <v>987456</v>
@@ -3337,7 +3364,7 @@
         <v>10000</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
@@ -3349,10 +3376,10 @@
     </row>
     <row r="3" spans="1:31" ht="15">
       <c r="A3" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C3">
         <v>4138</v>
@@ -3361,34 +3388,34 @@
         <v>4385</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>59</v>
       </c>
       <c r="G3" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>357</v>
-      </c>
       <c r="I3" s="8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>63</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>65</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="O3" s="8">
         <v>987456</v>
@@ -3424,13 +3451,13 @@
         <v>10000</v>
       </c>
       <c r="Z3" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AA3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AB3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC3">
         <v>-123</v>
@@ -3446,10 +3473,10 @@
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AB4" s="8" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC4">
         <v>-123</v>
@@ -3459,10 +3486,10 @@
     </row>
     <row r="5" spans="1:31">
       <c r="AA5" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AB5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="AC5">
         <v>-123</v>
@@ -3521,7 +3548,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75">
@@ -3550,13 +3577,13 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G3" s="1">
         <v>2987</v>
@@ -3576,7 +3603,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>12</v>
@@ -3594,23 +3621,23 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
+        <v>388</v>
+      </c>
+      <c r="I5" t="s">
+        <v>389</v>
+      </c>
+      <c r="J5" t="s">
         <v>390</v>
-      </c>
-      <c r="I5" t="s">
-        <v>391</v>
-      </c>
-      <c r="J5" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75">
@@ -3704,22 +3731,22 @@
     </row>
     <row r="11" spans="1:10" ht="15.75">
       <c r="A11" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G11" s="1">
         <v>4049</v>
@@ -3727,10 +3754,10 @@
     </row>
     <row r="12" spans="1:10" ht="15.75">
       <c r="A12" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -3739,10 +3766,10 @@
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G12">
         <v>4690</v>
@@ -3750,22 +3777,22 @@
     </row>
     <row r="13" spans="1:10" ht="15.75">
       <c r="A13" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G13" s="1">
         <v>4984</v>
@@ -3773,22 +3800,22 @@
     </row>
     <row r="14" spans="1:10" ht="15.75">
       <c r="A14" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G14" s="2">
         <v>4994</v>
@@ -4082,10 +4109,10 @@
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="A2" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C2">
         <v>4138</v>
@@ -4132,7 +4159,7 @@
         <v>88</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>89</v>
@@ -4219,19 +4246,19 @@
     </row>
     <row r="2" spans="1:35" ht="15.75">
       <c r="A2" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C2">
         <v>4138</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>119</v>
@@ -4267,13 +4294,13 @@
         <v>127</v>
       </c>
       <c r="Q2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>374</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>131</v>
@@ -4393,10 +4420,10 @@
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="A2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C2">
         <v>4690</v>
@@ -4435,10 +4462,10 @@
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="A2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C2">
         <v>4690</v>
@@ -4476,10 +4503,10 @@
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="A2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C2">
         <v>4690</v>
@@ -4520,85 +4547,85 @@
         <v>208</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75">
       <c r="A2" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C2">
         <v>3722</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="M2" s="1">
         <v>1000000</v>
@@ -4610,13 +4637,13 @@
         <v>60000</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="Q2" s="1">
         <v>2</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="15.75">
@@ -4652,66 +4679,66 @@
         <v>208</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75">
       <c r="A2" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C2">
         <v>3722</v>
@@ -4720,28 +4747,28 @@
         <v>4689</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>405</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>407</v>
       </c>
       <c r="M2" s="1">
         <v>1000000</v>
@@ -4753,7 +4780,7 @@
         <v>60000</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="Q2" s="1">
         <v>2</v>
@@ -4762,7 +4789,7 @@
         <v>-2000</v>
       </c>
       <c r="S2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="T2" t="s">
         <v>74</v>
@@ -4881,7 +4908,7 @@
         <v>52</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>53</v>
@@ -4892,10 +4919,10 @@
     </row>
     <row r="2" spans="1:30" ht="15.75">
       <c r="A2" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C2" s="1">
         <v>3588</v>
@@ -4922,10 +4949,10 @@
         <v>63</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>66</v>
@@ -4964,7 +4991,7 @@
         <v>70</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
@@ -4974,10 +5001,10 @@
     </row>
     <row r="3" spans="1:30" ht="15.75">
       <c r="A3" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C3" s="1">
         <v>3588</v>
@@ -5016,10 +5043,10 @@
     </row>
     <row r="4" spans="1:30" ht="15.75">
       <c r="A4" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C4" s="1">
         <v>3588</v>
@@ -5056,10 +5083,10 @@
     </row>
     <row r="5" spans="1:30" ht="15.75">
       <c r="A5" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C5" s="1">
         <v>3588</v>
@@ -5098,10 +5125,10 @@
     </row>
     <row r="6" spans="1:30" ht="15.75">
       <c r="A6" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C6" s="1">
         <v>3588</v>
@@ -5140,10 +5167,10 @@
     </row>
     <row r="7" spans="1:30" ht="15.75">
       <c r="A7" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C7" s="1">
         <v>3588</v>
@@ -5205,7 +5232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -5229,10 +5256,10 @@
     </row>
     <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C2" s="1">
         <v>4994</v>
@@ -5513,10 +5540,178 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ4"/>
+  <dimension ref="A1:AMJ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.375" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="14" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4984</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4984</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4984</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4984</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4984</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4984</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4984</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4984</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4984</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
+  <headerFooter alignWithMargins="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="F2" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AMJ10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -5524,7 +5719,7 @@
     <col min="1" max="1024" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -5534,135 +5729,152 @@
       <c r="C1" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="1">
+        <v>4984</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="1">
+        <v>4984</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="1">
+        <v>4984</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1024" width="14" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C5" s="1">
+        <v>4984</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C6" s="1">
+        <v>4984</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C7" s="1">
+        <v>4984</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C8" s="1">
+        <v>4984</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C9" s="1">
+        <v>4984</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>211</v>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4984</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -5670,7 +5882,7 @@
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="C2:C7" numberStoredAsText="1"/>
+    <ignoredError sqref="E4:E9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5699,104 +5911,104 @@
         <v>208</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M3" s="1">
         <v>1000000</v>
@@ -5808,47 +6020,47 @@
         <v>60000</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="Q3" s="1">
         <v>2</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -5884,69 +6096,69 @@
         <v>208</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C2" s="1">
         <v>3588</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="I2" s="1">
         <v>123456</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M2" s="1">
         <v>231</v>
@@ -5954,10 +6166,10 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C3" s="1">
         <v>3572</v>
@@ -5965,10 +6177,10 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C4" s="1">
         <v>3183</v>
@@ -5976,13 +6188,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="B7" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C7" s="1">
         <v>3571</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>67</v>
@@ -6026,35 +6238,35 @@
         <v>201</v>
       </c>
       <c r="E1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" t="s">
+        <v>277</v>
+      </c>
+      <c r="G1" t="s">
         <v>278</v>
-      </c>
-      <c r="F1" t="s">
-        <v>279</v>
-      </c>
-      <c r="G1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C2" s="1">
         <v>3208</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C3" s="1">
         <v>3208</v>
@@ -6065,10 +6277,10 @@
     </row>
     <row r="4" spans="1:7" ht="15.75">
       <c r="A4" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C4" s="1">
         <v>3208</v>
@@ -6077,7 +6289,7 @@
         <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G4" t="s">
         <v>67</v>
@@ -6088,7 +6300,7 @@
         <v>3595</v>
       </c>
       <c r="D7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75">
@@ -6132,10 +6344,10 @@
     </row>
     <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C2" s="1">
         <v>3546</v>

--- a/Uls_Ramya/TestData/ijaraTestData.xlsx
+++ b/Uls_Ramya/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" firstSheet="25" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="ijarah_AddressDetailsTestData" sheetId="2" r:id="rId1"/>
@@ -35,13 +35,16 @@
     <sheet name="Tawar_Entry_FacilityInfo" sheetId="31" r:id="rId26"/>
     <sheet name="Mura_Entry_AddressDetails" sheetId="32" r:id="rId27"/>
     <sheet name="Mura_check_productDetail" sheetId="33" r:id="rId28"/>
+    <sheet name="AL_OF_CustomerDetail" sheetId="34" r:id="rId29"/>
+    <sheet name="AL_MarginMoney" sheetId="35" r:id="rId30"/>
+    <sheet name="PL_NewApp_CustomerDetail" sheetId="36" r:id="rId31"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="474">
   <si>
     <t>UserType</t>
   </si>
@@ -1404,6 +1407,66 @@
   </si>
   <si>
     <t>Self</t>
+  </si>
+  <si>
+    <t>userType14</t>
+  </si>
+  <si>
+    <t>0362</t>
+  </si>
+  <si>
+    <t>AutoLoan</t>
+  </si>
+  <si>
+    <t>Offering</t>
+  </si>
+  <si>
+    <t>CustomerDetails</t>
+  </si>
+  <si>
+    <t>AT_AL_OFF_CD_001</t>
+  </si>
+  <si>
+    <t>DS01_AT_AL_OFF_CD_001</t>
+  </si>
+  <si>
+    <t>AT_AL_DSB_MM_04</t>
+  </si>
+  <si>
+    <t>DS01_AT_AL_DSB_MM_04</t>
+  </si>
+  <si>
+    <t>0371</t>
+  </si>
+  <si>
+    <t>margin money</t>
+  </si>
+  <si>
+    <t>Disbursion maker</t>
+  </si>
+  <si>
+    <t>userType15</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>valid data</t>
+  </si>
+  <si>
+    <t>invalid data</t>
+  </si>
+  <si>
+    <t>invalid</t>
+  </si>
+  <si>
+    <t>mismatching data</t>
+  </si>
+  <si>
+    <t>AT_PL_NEWAPP_CD_11</t>
+  </si>
+  <si>
+    <t>DS01_AT_PL_NEWAPP_CD_11</t>
   </si>
 </sst>
 </file>
@@ -1414,7 +1477,7 @@
     <numFmt numFmtId="164" formatCode="[$-4009]General"/>
     <numFmt numFmtId="165" formatCode="[$Rs.-4009]#,##0.00;[Red]&quot;-&quot;[$Rs.-4009]#,##0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1496,6 +1559,12 @@
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1588,7 +1657,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -1606,6 +1675,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="37">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
@@ -3172,7 +3242,7 @@
   <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3518,10 +3588,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3821,6 +3891,52 @@
         <v>4994</v>
       </c>
     </row>
+    <row r="15" spans="1:10" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="G15" s="2">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75">
+      <c r="A16" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="G16" s="2">
+        <v>5122</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
@@ -3831,10 +3947,12 @@
     <hyperlink ref="C2" r:id="rId6"/>
     <hyperlink ref="C13" r:id="rId7"/>
     <hyperlink ref="C14" r:id="rId8"/>
+    <hyperlink ref="C15" r:id="rId9"/>
+    <hyperlink ref="C16" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B4:B14" numberStoredAsText="1"/>
+    <ignoredError sqref="B4:B16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5233,7 +5351,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5263,6 +5381,47 @@
       </c>
       <c r="C2" s="1">
         <v>4994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="29.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
+      <c r="A2" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4006</v>
       </c>
     </row>
   </sheetData>
@@ -5538,6 +5697,120 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="G1" t="s">
+        <v>278</v>
+      </c>
+      <c r="H1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75">
+      <c r="A2" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5122</v>
+      </c>
+      <c r="D2">
+        <v>2000</v>
+      </c>
+      <c r="E2">
+        <v>3000</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="G2">
+        <v>1000</v>
+      </c>
+      <c r="H2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
+      <c r="A2" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ10"/>
@@ -5710,7 +5983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/Uls_Ramya/TestData/ijaraTestData.xlsx
+++ b/Uls_Ramya/TestData/ijaraTestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" firstSheet="25" activeTab="30"/>
+    <workbookView windowWidth="22770" windowHeight="6705" firstSheet="26" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="ijarah_AddressDetailsTestData" sheetId="2" r:id="rId1"/>
@@ -39,90 +39,13 @@
     <sheet name="AL_MarginMoney" sheetId="35" r:id="rId30"/>
     <sheet name="PL_NewApp_CustomerDetail" sheetId="36" r:id="rId31"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
+  <oleSize ref="A1:U2"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="474">
-  <si>
-    <t>UserType</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>userType01</t>
-  </si>
-  <si>
-    <t>in02040</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>userType02</t>
-  </si>
-  <si>
-    <t>v0169</t>
-  </si>
-  <si>
-    <t>Admin@1</t>
-  </si>
-  <si>
-    <t>userType03</t>
-  </si>
-  <si>
-    <t>0305</t>
-  </si>
-  <si>
-    <t>TAWAROOQ</t>
-  </si>
-  <si>
-    <t>Repayment</t>
-  </si>
-  <si>
-    <t>userType04</t>
-  </si>
-  <si>
-    <t>0363</t>
-  </si>
-  <si>
-    <t>userType05</t>
-  </si>
-  <si>
-    <t>0368</t>
-  </si>
-  <si>
-    <t>userType06</t>
-  </si>
-  <si>
-    <t>0323</t>
-  </si>
-  <si>
-    <t>userType07</t>
-  </si>
-  <si>
-    <t>userType08</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>offerDetail</t>
-  </si>
-  <si>
-    <t>userType09</t>
-  </si>
-  <si>
-    <t>commodityMaker</t>
-  </si>
-  <si>
-    <t>InsuranceInfo,DocumentDetail</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="493">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -649,18 +572,435 @@
     <t>1600000</t>
   </si>
   <si>
+    <t>Ref No</t>
+  </si>
+  <si>
+    <t>record</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>AT_EDC_01</t>
+  </si>
+  <si>
+    <t>DS01_AT_EDC_01</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>2987</t>
+  </si>
+  <si>
+    <t>AT_EDC_02</t>
+  </si>
+  <si>
+    <t>DS01_AT_EDC_02</t>
+  </si>
+  <si>
+    <t>AT_EDC_04</t>
+  </si>
+  <si>
+    <t>DS01_AT_EDC_04</t>
+  </si>
+  <si>
+    <t>Company/Firm</t>
+  </si>
+  <si>
+    <t>AT_EDC_05</t>
+  </si>
+  <si>
+    <t>DS01_AT_EDC_05</t>
+  </si>
+  <si>
+    <t>Pensioner</t>
+  </si>
+  <si>
+    <t>AT_EDC_06</t>
+  </si>
+  <si>
+    <t>DS01_AT_EDC_06</t>
+  </si>
+  <si>
+    <t>AT_EDC_07</t>
+  </si>
+  <si>
+    <t>DS01_AT_EDC_07</t>
+  </si>
+  <si>
+    <t>salaried</t>
+  </si>
+  <si>
+    <t>AT_EDC_08</t>
+  </si>
+  <si>
+    <t>DS01_AT_EDC_08</t>
+  </si>
+  <si>
+    <t>AT_EDC_09</t>
+  </si>
+  <si>
+    <t>DS01_AT_EDC_09</t>
+  </si>
+  <si>
+    <t>Self-employed</t>
+  </si>
+  <si>
+    <t>AT_EDC_10</t>
+  </si>
+  <si>
+    <t>DS01_AT_EDC_10</t>
+  </si>
+  <si>
+    <t>old ref number</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Scheme</t>
+  </si>
+  <si>
+    <t>ProgrameCode</t>
+  </si>
+  <si>
+    <t>FacilityType</t>
+  </si>
+  <si>
+    <t>servingBranch</t>
+  </si>
+  <si>
+    <t>PricingIndicator</t>
+  </si>
+  <si>
+    <t>RequestedAmount</t>
+  </si>
+  <si>
+    <t>DeclaredPropertyValue</t>
+  </si>
+  <si>
+    <t>DeclaredDownPaymentAmount</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>LoanTenure</t>
+  </si>
+  <si>
+    <t>ClassificationModification</t>
+  </si>
+  <si>
+    <t>MisMatchRecord</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>XLS</t>
+  </si>
+  <si>
+    <t>AT_FI_001</t>
+  </si>
+  <si>
+    <t>DS01_AT_FI_001</t>
+  </si>
+  <si>
+    <t>3016</t>
+  </si>
+  <si>
+    <t>AT_FI_005</t>
+  </si>
+  <si>
+    <t>DS01_AT_FI_005</t>
+  </si>
+  <si>
+    <t>AHL</t>
+  </si>
+  <si>
+    <t>Home Loan</t>
+  </si>
+  <si>
+    <t>Home Loan-ReadyOrUnderConstructionProperty</t>
+  </si>
+  <si>
+    <t>Ready to move Under construction Property from B</t>
+  </si>
+  <si>
+    <t>Income Based</t>
+  </si>
+  <si>
+    <t>Auto Leasing Loan</t>
+  </si>
+  <si>
+    <t>Azentio Main Branch</t>
+  </si>
+  <si>
+    <t>Home Loan Floating Rate</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Non Housing Loan</t>
+  </si>
+  <si>
+    <t>AT_FI_012</t>
+  </si>
+  <si>
+    <t>DS01_AT_FI_012</t>
+  </si>
+  <si>
+    <t>AT_FI_013</t>
+  </si>
+  <si>
+    <t>DS01_AT_FI_013</t>
+  </si>
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>repaymentModeField</t>
+  </si>
+  <si>
+    <t>AccountHolderName</t>
+  </si>
+  <si>
+    <t>AccountType</t>
+  </si>
+  <si>
+    <t>AccountNumber</t>
+  </si>
+  <si>
+    <t>AccountCurrency</t>
+  </si>
+  <si>
+    <t>BankName</t>
+  </si>
+  <si>
+    <t>BankBranch</t>
+  </si>
+  <si>
+    <t>EseCode</t>
+  </si>
+  <si>
+    <t>AT_MU_IRM_001</t>
+  </si>
+  <si>
+    <t>DS01_AT_MU_IRM_001</t>
+  </si>
+  <si>
+    <t>LOS</t>
+  </si>
+  <si>
+    <t>Cash Mode</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>Savings Account</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>BankofBaroda</t>
+  </si>
+  <si>
+    <t>chennai</t>
+  </si>
+  <si>
+    <t>AT_MU_IRM_007</t>
+  </si>
+  <si>
+    <t>DS01_AT_MU_IRM_007</t>
+  </si>
+  <si>
+    <t>AT_DC_MU_ID_001</t>
+  </si>
+  <si>
+    <t>DS01_AT_DC_MU_ID_001</t>
+  </si>
+  <si>
+    <t>record move to next stage</t>
+  </si>
+  <si>
     <t>nationality</t>
   </si>
   <si>
+    <t>Record_Firstname</t>
+  </si>
+  <si>
+    <t>mismatch data</t>
+  </si>
+  <si>
+    <t>matching data</t>
+  </si>
+  <si>
+    <t>AT_TW_CD_03</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_CD_03</t>
+  </si>
+  <si>
+    <t>MALAYSIAN</t>
+  </si>
+  <si>
+    <t>AT_TW_CD_05</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_CD_05</t>
+  </si>
+  <si>
+    <t>AT_TW_CD_06</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_CD_06</t>
+  </si>
+  <si>
+    <t>mismatch</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>save_record_reference_number</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_IRM_01</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_AD_IRM_01</t>
+  </si>
+  <si>
+    <t>Debit Card</t>
+  </si>
+  <si>
+    <t>TEST KI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chennai </t>
+  </si>
+  <si>
+    <t>AT_TW_AD_IRM_04</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_AD_IRM_04</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_IRM_06</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_AD_IRM_06</t>
+  </si>
+  <si>
+    <t>0181</t>
+  </si>
+  <si>
+    <t>Document Name</t>
+  </si>
+  <si>
+    <t>Required At Stage</t>
+  </si>
+  <si>
+    <t>Document Status</t>
+  </si>
+  <si>
+    <t>Mandatory/optional</t>
+  </si>
+  <si>
+    <t>Document Category</t>
+  </si>
+  <si>
+    <t>Document Quality</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_DOC_01</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_AD_DOC_01</t>
+  </si>
+  <si>
+    <t>AT_TW_AD_DOC_02</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_AD_DOC_02</t>
+  </si>
+  <si>
+    <t>AADHAAR</t>
+  </si>
+  <si>
+    <t>Commodity Purchase Maker</t>
+  </si>
+  <si>
+    <t>Deferred</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>KYC Document</t>
+  </si>
+  <si>
+    <t>Valid and Clear</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Maritail status</t>
+  </si>
+  <si>
+    <t>Education level</t>
+  </si>
+  <si>
+    <t>residential status</t>
+  </si>
+  <si>
     <t>language</t>
   </si>
   <si>
     <t>client_category</t>
   </si>
   <si>
+    <t>AT_TW_NewApp_CD_01</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_NewApp_CD_01</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>Miss</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
+  </si>
+  <si>
     <t>Single</t>
   </si>
   <si>
+    <t>Graduate</t>
+  </si>
+  <si>
     <t>Indian</t>
   </si>
   <si>
@@ -670,351 +1010,6 @@
     <t>English</t>
   </si>
   <si>
-    <t>Ref No</t>
-  </si>
-  <si>
-    <t>AT_EDC_01</t>
-  </si>
-  <si>
-    <t>DS01_AT_EDC_01</t>
-  </si>
-  <si>
-    <t>2987</t>
-  </si>
-  <si>
-    <t>AT_EDC_02</t>
-  </si>
-  <si>
-    <t>DS01_AT_EDC_02</t>
-  </si>
-  <si>
-    <t>AT_EDC_04</t>
-  </si>
-  <si>
-    <t>DS01_AT_EDC_04</t>
-  </si>
-  <si>
-    <t>AT_EDC_05</t>
-  </si>
-  <si>
-    <t>DS01_AT_EDC_05</t>
-  </si>
-  <si>
-    <t>AT_EDC_06</t>
-  </si>
-  <si>
-    <t>DS01_AT_EDC_06</t>
-  </si>
-  <si>
-    <t>AT_EDC_07</t>
-  </si>
-  <si>
-    <t>DS01_AT_EDC_07</t>
-  </si>
-  <si>
-    <t>AT_EDC_08</t>
-  </si>
-  <si>
-    <t>DS01_AT_EDC_08</t>
-  </si>
-  <si>
-    <t>AT_EDC_09</t>
-  </si>
-  <si>
-    <t>DS01_AT_EDC_09</t>
-  </si>
-  <si>
-    <t>Classification</t>
-  </si>
-  <si>
-    <t>Record</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Scheme</t>
-  </si>
-  <si>
-    <t>ProgrameCode</t>
-  </si>
-  <si>
-    <t>FacilityType</t>
-  </si>
-  <si>
-    <t>PricingIndicator</t>
-  </si>
-  <si>
-    <t>RequestedAmount</t>
-  </si>
-  <si>
-    <t>DeclaredPropertyValue</t>
-  </si>
-  <si>
-    <t>DeclaredDownPaymentAmount</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>LoanTenure</t>
-  </si>
-  <si>
-    <t>ClassificationModification</t>
-  </si>
-  <si>
-    <t>MisMatchRecord</t>
-  </si>
-  <si>
-    <t>PDF</t>
-  </si>
-  <si>
-    <t>XLS</t>
-  </si>
-  <si>
-    <t>AT_FI_001</t>
-  </si>
-  <si>
-    <t>DS01_AT_FI_001</t>
-  </si>
-  <si>
-    <t>3016</t>
-  </si>
-  <si>
-    <t>AT_FI_005</t>
-  </si>
-  <si>
-    <t>DS01_AT_FI_005</t>
-  </si>
-  <si>
-    <t>Home Loan</t>
-  </si>
-  <si>
-    <t>AHL</t>
-  </si>
-  <si>
-    <t>Income Based</t>
-  </si>
-  <si>
-    <t>Auto Leasing Loan</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>Non Housing Loan</t>
-  </si>
-  <si>
-    <t>AT_FI_012</t>
-  </si>
-  <si>
-    <t>DS01_AT_FI_012</t>
-  </si>
-  <si>
-    <t>AT_FI_013</t>
-  </si>
-  <si>
-    <t>DS01_AT_FI_013</t>
-  </si>
-  <si>
-    <t>Module Name</t>
-  </si>
-  <si>
-    <t>repaymentModeField</t>
-  </si>
-  <si>
-    <t>AccountHolderName</t>
-  </si>
-  <si>
-    <t>AccountType</t>
-  </si>
-  <si>
-    <t>AccountNumber</t>
-  </si>
-  <si>
-    <t>AccountCurrency</t>
-  </si>
-  <si>
-    <t>BankName</t>
-  </si>
-  <si>
-    <t>BankBranch</t>
-  </si>
-  <si>
-    <t>EseCode</t>
-  </si>
-  <si>
-    <t>AT_MU_IRM_001</t>
-  </si>
-  <si>
-    <t>DS01_AT_MU_IRM_001</t>
-  </si>
-  <si>
-    <t>LOS</t>
-  </si>
-  <si>
-    <t>Debit Card</t>
-  </si>
-  <si>
-    <t>Savings Account</t>
-  </si>
-  <si>
-    <t>BankofBaroda</t>
-  </si>
-  <si>
-    <t>AT_MU_IRM_007</t>
-  </si>
-  <si>
-    <t>DS01_AT_MU_IRM_007</t>
-  </si>
-  <si>
-    <t>AT_DC_MU_ID_001</t>
-  </si>
-  <si>
-    <t>DS01_AT_DC_MU_ID_001</t>
-  </si>
-  <si>
-    <t>Record_Firstname</t>
-  </si>
-  <si>
-    <t>mismatch data</t>
-  </si>
-  <si>
-    <t>matching data</t>
-  </si>
-  <si>
-    <t>AT_TW_CD_03</t>
-  </si>
-  <si>
-    <t>DS01_AT_TW_CD_03</t>
-  </si>
-  <si>
-    <t>MALAYSIAN</t>
-  </si>
-  <si>
-    <t>AT_TW_CD_05</t>
-  </si>
-  <si>
-    <t>DS01_AT_TW_CD_05</t>
-  </si>
-  <si>
-    <t>AT_TW_CD_06</t>
-  </si>
-  <si>
-    <t>DS01_AT_TW_CD_06</t>
-  </si>
-  <si>
-    <t>mismatch</t>
-  </si>
-  <si>
-    <t>save_record_reference_number</t>
-  </si>
-  <si>
-    <t>AT_TW_AD_IRM_01</t>
-  </si>
-  <si>
-    <t>DS01_AT_TW_AD_IRM_01</t>
-  </si>
-  <si>
-    <t>TEST KI</t>
-  </si>
-  <si>
-    <t>AT_TW_AD_IRM_04</t>
-  </si>
-  <si>
-    <t>DS01_AT_TW_AD_IRM_04</t>
-  </si>
-  <si>
-    <t>AT_TW_AD_IRM_06</t>
-  </si>
-  <si>
-    <t>DS01_AT_TW_AD_IRM_06</t>
-  </si>
-  <si>
-    <t>0181</t>
-  </si>
-  <si>
-    <t>Document Name</t>
-  </si>
-  <si>
-    <t>Required At Stage</t>
-  </si>
-  <si>
-    <t>Document Status</t>
-  </si>
-  <si>
-    <t>Mandatory/optional</t>
-  </si>
-  <si>
-    <t>Document Category</t>
-  </si>
-  <si>
-    <t>Document Quality</t>
-  </si>
-  <si>
-    <t>AT_TW_AD_DOC_01</t>
-  </si>
-  <si>
-    <t>DS01_AT_TW_AD_DOC_01</t>
-  </si>
-  <si>
-    <t>AT_TW_AD_DOC_02</t>
-  </si>
-  <si>
-    <t>DS01_AT_TW_AD_DOC_02</t>
-  </si>
-  <si>
-    <t>AADHAAR</t>
-  </si>
-  <si>
-    <t>Commodity Purchase Maker</t>
-  </si>
-  <si>
-    <t>Deferred</t>
-  </si>
-  <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <t>KYC Document</t>
-  </si>
-  <si>
-    <t>Valid and Clear</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Maritail status</t>
-  </si>
-  <si>
-    <t>Education level</t>
-  </si>
-  <si>
-    <t>residential status</t>
-  </si>
-  <si>
-    <t>AT_TW_NewApp_CD_01</t>
-  </si>
-  <si>
-    <t>DS01_AT_TW_NewApp_CD_01</t>
-  </si>
-  <si>
-    <t>First</t>
-  </si>
-  <si>
-    <t>Miss</t>
-  </si>
-  <si>
-    <t>FEMALE</t>
-  </si>
-  <si>
-    <t>Graduate</t>
-  </si>
-  <si>
     <t>Banking</t>
   </si>
   <si>
@@ -1022,6 +1017,9 @@
   </si>
   <si>
     <t>DS01_AT_TW_NewApp_CD_06</t>
+  </si>
+  <si>
+    <t>Referrence no</t>
   </si>
   <si>
     <t>AT_TW_OFO_02</t>
@@ -1046,100 +1044,271 @@
     <t>DS01_AT_TW_CSM_18</t>
   </si>
   <si>
+    <t>AT_DOC_01</t>
+  </si>
+  <si>
+    <t>DS01_AT_DOC_01</t>
+  </si>
+  <si>
+    <t>AT_DOC_04</t>
+  </si>
+  <si>
+    <t>DS01_AT_DOC_04</t>
+  </si>
+  <si>
+    <t>AT_MU_OFO_01</t>
+  </si>
+  <si>
+    <t>DS01_AT_MU_OFO_01</t>
+  </si>
+  <si>
+    <t>UserType</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>userType01</t>
+  </si>
+  <si>
+    <t>in02040</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>userType02</t>
+  </si>
+  <si>
+    <t>v0169</t>
+  </si>
+  <si>
+    <t>Admin@1</t>
+  </si>
+  <si>
+    <t>ijara</t>
+  </si>
+  <si>
+    <t>App Data Entry</t>
+  </si>
+  <si>
+    <t>Employment Details</t>
+  </si>
+  <si>
+    <t>userType03</t>
+  </si>
+  <si>
+    <t>0305</t>
+  </si>
+  <si>
+    <t>TAWAROOQ</t>
+  </si>
+  <si>
+    <t>Repayment</t>
+  </si>
+  <si>
+    <t>userType04</t>
+  </si>
+  <si>
+    <t>0363</t>
+  </si>
+  <si>
+    <t>Murabha</t>
+  </si>
+  <si>
+    <t>Address Details</t>
+  </si>
+  <si>
+    <t>userType05</t>
+  </si>
+  <si>
+    <t>0368</t>
+  </si>
+  <si>
+    <t>userType06</t>
+  </si>
+  <si>
+    <t>0323</t>
+  </si>
+  <si>
+    <t>userType07</t>
+  </si>
+  <si>
+    <t>DocumentDetail</t>
+  </si>
+  <si>
+    <t>userType08</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>offerDetail</t>
+  </si>
+  <si>
+    <t>userType09</t>
+  </si>
+  <si>
+    <t>commodityMaker</t>
+  </si>
+  <si>
+    <t>InsuranceInfo,DocumentDetail</t>
+  </si>
+  <si>
+    <t>userType10</t>
+  </si>
+  <si>
     <t>0378</t>
   </si>
   <si>
-    <t>Murabha</t>
-  </si>
-  <si>
-    <t>AT_DOC_01</t>
-  </si>
-  <si>
-    <t>DS01_AT_DOC_01</t>
-  </si>
-  <si>
-    <t>AT_DOC_04</t>
-  </si>
-  <si>
-    <t>DS01_AT_DOC_04</t>
-  </si>
-  <si>
-    <t>App Data Entry</t>
-  </si>
-  <si>
-    <t>Ref</t>
+    <t>DocumentDetails,offeringDetails,AssetDetail</t>
+  </si>
+  <si>
+    <t>userType11</t>
+  </si>
+  <si>
+    <t>Datacheck</t>
+  </si>
+  <si>
+    <t>EmploymentDetails</t>
+  </si>
+  <si>
+    <t>userType12</t>
+  </si>
+  <si>
+    <t>Record1</t>
+  </si>
+  <si>
+    <t>Address Type</t>
+  </si>
+  <si>
+    <t>Address status</t>
+  </si>
+  <si>
+    <t>residential_or_ocupency_status</t>
+  </si>
+  <si>
+    <t>AddressLine1</t>
+  </si>
+  <si>
+    <t>AddressLine2</t>
+  </si>
+  <si>
+    <t>MobileNumber</t>
+  </si>
+  <si>
+    <t>negative_numeric</t>
+  </si>
+  <si>
+    <t>AT_AU_AD_01</t>
+  </si>
+  <si>
+    <t>DS01_AT_AU_AD_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Office </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercial rent </t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>Maharastra</t>
+  </si>
+  <si>
+    <t>Thane</t>
+  </si>
+  <si>
+    <t>Yearly</t>
+  </si>
+  <si>
+    <t>AT_AU_AD_09</t>
+  </si>
+  <si>
+    <t>DS01_AT_AU_AD_09</t>
+  </si>
+  <si>
+    <t>@#$%^</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>AddressDetails</t>
+  </si>
+  <si>
+    <t>murabha</t>
+  </si>
+  <si>
+    <t>App data entry</t>
+  </si>
+  <si>
+    <t>repayment</t>
   </si>
   <si>
     <t>DocumentDetails,offeringDetails</t>
   </si>
   <si>
-    <t>AT_MU_OFO_01</t>
-  </si>
-  <si>
-    <t>DS01_AT_MU_OFO_01</t>
-  </si>
-  <si>
-    <t>userType10</t>
-  </si>
-  <si>
-    <t>ijara</t>
-  </si>
-  <si>
-    <t>Employment Details</t>
-  </si>
-  <si>
-    <t>AT_AU_AD_01</t>
-  </si>
-  <si>
-    <t>DS01_AT_AU_AD_01</t>
-  </si>
-  <si>
-    <t>Record1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Office </t>
-  </si>
-  <si>
-    <t>Address Type</t>
-  </si>
-  <si>
-    <t>Address status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commercial rent </t>
-  </si>
-  <si>
-    <t>residential_or_ocupency_status</t>
-  </si>
-  <si>
-    <t>Urban</t>
-  </si>
-  <si>
-    <t>AddressLine2</t>
-  </si>
-  <si>
-    <t>AddressLine1</t>
-  </si>
-  <si>
-    <t>Address1</t>
-  </si>
-  <si>
-    <t>Address2</t>
-  </si>
-  <si>
-    <t>MobileNumber</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>Maharastra</t>
-  </si>
-  <si>
-    <t>Thane</t>
-  </si>
-  <si>
-    <t>DocumentDetails,offeringDetails,AssetDetail</t>
+    <t>0303</t>
+  </si>
+  <si>
+    <t>App Data Check</t>
+  </si>
+  <si>
+    <t>InsuranceInfo,QuotationInfo,RepaymentMode</t>
+  </si>
+  <si>
+    <t>0215</t>
+  </si>
+  <si>
+    <t>userType13</t>
+  </si>
+  <si>
+    <t>0342</t>
+  </si>
+  <si>
+    <t>productDetails</t>
+  </si>
+  <si>
+    <t>userType14</t>
+  </si>
+  <si>
+    <t>0362</t>
+  </si>
+  <si>
+    <t>AutoLoan</t>
+  </si>
+  <si>
+    <t>Offering</t>
+  </si>
+  <si>
+    <t>CustomerDetails</t>
+  </si>
+  <si>
+    <t>userType15</t>
+  </si>
+  <si>
+    <t>0371</t>
+  </si>
+  <si>
+    <t>Disbursion maker</t>
+  </si>
+  <si>
+    <t>margin money</t>
   </si>
   <si>
     <t>AT_AL_ASD_01</t>
@@ -1148,15 +1317,15 @@
     <t>DS01_AT_AL_ASD_01</t>
   </si>
   <si>
+    <t>year of manufacture</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tata Motors </t>
   </si>
   <si>
     <t>TATA Harrier</t>
   </si>
   <si>
-    <t>year of manufacture</t>
-  </si>
-  <si>
     <t>Dealer 1</t>
   </si>
   <si>
@@ -1166,28 +1335,10 @@
     <t>abc098@gmail.com</t>
   </si>
   <si>
-    <t>Home Loan-ReadyOrUnderConstructionProperty</t>
-  </si>
-  <si>
-    <t>Ready to move Under construction Property from B</t>
-  </si>
-  <si>
-    <t>servingBranch</t>
-  </si>
-  <si>
-    <t>Azentio Main Branch</t>
-  </si>
-  <si>
-    <t>Home Loan Floating Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chennai </t>
-  </si>
-  <si>
-    <t>INR</t>
-  </si>
-  <si>
-    <t>Id</t>
+    <t>AT_TW_QI</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_QI_01</t>
   </si>
   <si>
     <t>AT_TW_INS_01</t>
@@ -1196,45 +1347,6 @@
     <t>DS01_AT_TW_INS_01</t>
   </si>
   <si>
-    <t>userType11</t>
-  </si>
-  <si>
-    <t>App Data Check</t>
-  </si>
-  <si>
-    <t>DS01_AT_TW_QI_01</t>
-  </si>
-  <si>
-    <t>0303</t>
-  </si>
-  <si>
-    <t>AT_TW_QI</t>
-  </si>
-  <si>
-    <t>murabha</t>
-  </si>
-  <si>
-    <t>App data entry</t>
-  </si>
-  <si>
-    <t>repayment</t>
-  </si>
-  <si>
-    <t>record move to next stage</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>chennai</t>
-  </si>
-  <si>
-    <t>Cash Mode</t>
-  </si>
-  <si>
-    <t>InsuranceInfo,QuotationInfo,RepaymentMode</t>
-  </si>
-  <si>
     <t>AT_TW_RM_01</t>
   </si>
   <si>
@@ -1247,9 +1359,6 @@
     <t>DS01_AT_FAC_DET_04</t>
   </si>
   <si>
-    <t>DocumentDetail</t>
-  </si>
-  <si>
     <t>Tawarooq Retail Loan</t>
   </si>
   <si>
@@ -1274,210 +1383,165 @@
     <t>specialCharacter</t>
   </si>
   <si>
+    <t>modification_loan</t>
+  </si>
+  <si>
     <t>character</t>
   </si>
   <si>
-    <t>modification_loan</t>
-  </si>
-  <si>
-    <t>AddressDetails</t>
-  </si>
-  <si>
-    <t>Address Details</t>
+    <t>negativeNumber</t>
   </si>
   <si>
     <t>AT_MU_AD_01</t>
   </si>
   <si>
+    <t>DS01_AT_MU_AD_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maharastra </t>
+  </si>
+  <si>
     <t>AT_MU_AD_02</t>
   </si>
   <si>
+    <t>DS01_AT_MU_AD_02</t>
+  </si>
+  <si>
     <t>AT_MU_AD_03</t>
   </si>
   <si>
+    <t>DS01_AT_MU_AD_03</t>
+  </si>
+  <si>
     <t>AT_MU_AD_04</t>
   </si>
   <si>
+    <t>DS01_AT_MU_AD_04</t>
+  </si>
+  <si>
     <t>AT_MU_AD_05</t>
   </si>
   <si>
+    <t>DS01_AT_MU_AD_05</t>
+  </si>
+  <si>
     <t>AT_MU_AD_06</t>
   </si>
   <si>
-    <t>DS01_AT_MU_AD_01</t>
-  </si>
-  <si>
-    <t>DS01_AT_MU_AD_02</t>
-  </si>
-  <si>
-    <t>DS01_AT_MU_AD_03</t>
-  </si>
-  <si>
-    <t>DS01_AT_MU_AD_04</t>
-  </si>
-  <si>
-    <t>DS01_AT_MU_AD_05</t>
-  </si>
-  <si>
     <t>DS01_AT_MU_AD_06</t>
   </si>
   <si>
-    <t xml:space="preserve">Maharastra </t>
-  </si>
-  <si>
-    <t>Yearly</t>
-  </si>
-  <si>
-    <t>negativeNumber</t>
-  </si>
-  <si>
-    <t>Referrence no</t>
-  </si>
-  <si>
-    <t>negative_numeric</t>
-  </si>
-  <si>
-    <t>@#$%^</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>AT_AU_AD_09</t>
-  </si>
-  <si>
-    <t>DS01_AT_AU_AD_09</t>
-  </si>
-  <si>
-    <t>Datacheck</t>
-  </si>
-  <si>
-    <t>EmploymentDetails</t>
-  </si>
-  <si>
-    <t>userType12</t>
-  </si>
-  <si>
-    <t>0215</t>
-  </si>
-  <si>
-    <t>userType13</t>
-  </si>
-  <si>
-    <t>0342</t>
-  </si>
-  <si>
-    <t>productDetails</t>
-  </si>
-  <si>
     <t>AT_DC_PD_002</t>
   </si>
   <si>
     <t>DS01_AT_DC_PD_002</t>
   </si>
   <si>
-    <t>record</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>Company/Firm</t>
-  </si>
-  <si>
-    <t>Pensioner</t>
-  </si>
-  <si>
-    <t>Self-employed</t>
-  </si>
-  <si>
-    <t>salaried</t>
-  </si>
-  <si>
-    <t>AT_EDC_10</t>
-  </si>
-  <si>
-    <t>DS01_AT_EDC_10</t>
-  </si>
-  <si>
-    <t>old ref number</t>
-  </si>
-  <si>
-    <t>Self</t>
-  </si>
-  <si>
-    <t>userType14</t>
-  </si>
-  <si>
-    <t>0362</t>
-  </si>
-  <si>
-    <t>AutoLoan</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>CustomerDetails</t>
-  </si>
-  <si>
     <t>AT_AL_OFF_CD_001</t>
   </si>
   <si>
     <t>DS01_AT_AL_OFF_CD_001</t>
   </si>
   <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>valid data</t>
+  </si>
+  <si>
+    <t>invalid data</t>
+  </si>
+  <si>
+    <t>mismatching data</t>
+  </si>
+  <si>
     <t>AT_AL_DSB_MM_04</t>
   </si>
   <si>
     <t>DS01_AT_AL_DSB_MM_04</t>
   </si>
   <si>
-    <t>0371</t>
-  </si>
-  <si>
-    <t>margin money</t>
-  </si>
-  <si>
-    <t>Disbursion maker</t>
-  </si>
-  <si>
-    <t>userType15</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>valid data</t>
-  </si>
-  <si>
-    <t>invalid data</t>
+    <t>AT_AL_DSB_MM_05</t>
+  </si>
+  <si>
+    <t>DS01_AT_AL_DSB_MM_05</t>
   </si>
   <si>
     <t>invalid</t>
   </si>
   <si>
-    <t>mismatching data</t>
+    <t>AT_AL_DSB_MM_06</t>
+  </si>
+  <si>
+    <t>DS01_AT_AL_DSB_MM_06</t>
+  </si>
+  <si>
+    <t>AT_AL_DSB_MM_07</t>
+  </si>
+  <si>
+    <t>DS01_AT_AL_DSB_MM_07</t>
+  </si>
+  <si>
+    <t>AT_AL_DSB_MM_08</t>
+  </si>
+  <si>
+    <t>DS01_AT_AL_DSB_MM_08</t>
+  </si>
+  <si>
+    <t>AT_AL_DSB_MM_09</t>
+  </si>
+  <si>
+    <t>DS01_AT_AL_DSB_MM_09</t>
+  </si>
+  <si>
+    <t>Negative numeric value</t>
+  </si>
+  <si>
+    <t>Charater value</t>
+  </si>
+  <si>
+    <t>Special character</t>
   </si>
   <si>
     <t>AT_PL_NEWAPP_CD_11</t>
   </si>
   <si>
     <t>DS01_AT_PL_NEWAPP_CD_11</t>
+  </si>
+  <si>
+    <t>AT_PL_NEWAPP_CD_12</t>
+  </si>
+  <si>
+    <t>DS01_AT_PL_NEWAPP_CD_12</t>
+  </si>
+  <si>
+    <t>AT_PL_NEWAPP_CD_13</t>
+  </si>
+  <si>
+    <t>DS01_AT_PL_NEWAPP_CD_13</t>
+  </si>
+  <si>
+    <t>Abcd</t>
+  </si>
+  <si>
+    <t>!#$%&amp;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-4009]General"/>
-    <numFmt numFmtId="165" formatCode="[$Rs.-4009]#,##0.00;[Red]&quot;-&quot;[$Rs.-4009]#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="[$-4009]General"/>
+    <numFmt numFmtId="181" formatCode="[$Rs.-4009]#,##0.00;[Red]&quot;-&quot;[$Rs.-4009]#,##0.00"/>
+    <numFmt numFmtId="182" formatCode="dd/mmm/yy"/>
+    <numFmt numFmtId="183" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1488,13 +1552,37 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1503,12 +1591,163 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1516,7 +1755,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1525,7 +1764,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1534,48 +1773,204 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1583,141 +1978,435 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="180" fontId="28" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="180" fontId="28" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="180" fontId="28" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="180" fontId="28" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="180" fontId="28" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="180" fontId="28" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="180" fontId="28" fillId="0" borderId="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="180" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="182" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="37">
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
-    <cellStyle name="Excel Built-in Heading 1" xfId="2"/>
-    <cellStyle name="Excel Built-in Heading 1 1" xfId="3"/>
-    <cellStyle name="Excel Built-in Heading 1 2" xfId="4"/>
-    <cellStyle name="Excel Built-in Heading 1 3" xfId="5"/>
-    <cellStyle name="Excel Built-in Heading 1 4" xfId="6"/>
-    <cellStyle name="Excel Built-in Heading 1 5" xfId="7"/>
-    <cellStyle name="Excel Built-in Heading 1 6" xfId="8"/>
-    <cellStyle name="Heading" xfId="9"/>
-    <cellStyle name="Heading1" xfId="10"/>
-    <cellStyle name="Heading1 1" xfId="11"/>
-    <cellStyle name="Heading1 2" xfId="12"/>
-    <cellStyle name="Heading1 3" xfId="13"/>
-    <cellStyle name="Heading1 4" xfId="14"/>
-    <cellStyle name="Heading1 5" xfId="15"/>
-    <cellStyle name="Heading1 6" xfId="16"/>
-    <cellStyle name="Heading1 7" xfId="17"/>
-    <cellStyle name="Heading1 8" xfId="18"/>
+  <cellStyles count="85">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Result" xfId="19"/>
-    <cellStyle name="Result 1" xfId="20"/>
-    <cellStyle name="Result 2" xfId="21"/>
-    <cellStyle name="Result 3" xfId="22"/>
-    <cellStyle name="Result 4" xfId="23"/>
-    <cellStyle name="Result 5" xfId="24"/>
-    <cellStyle name="Result 6" xfId="25"/>
-    <cellStyle name="Result 7" xfId="26"/>
-    <cellStyle name="Result 8" xfId="27"/>
-    <cellStyle name="Result2" xfId="28"/>
-    <cellStyle name="Result2 1" xfId="29"/>
-    <cellStyle name="Result2 2" xfId="30"/>
-    <cellStyle name="Result2 3" xfId="31"/>
-    <cellStyle name="Result2 4" xfId="32"/>
-    <cellStyle name="Result2 5" xfId="33"/>
-    <cellStyle name="Result2 6" xfId="34"/>
-    <cellStyle name="Result2 7" xfId="35"/>
-    <cellStyle name="Result2 8" xfId="36"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="49"/>
+    <cellStyle name="Excel Built-in Heading 1" xfId="50"/>
+    <cellStyle name="Excel Built-in Heading 1 1" xfId="51"/>
+    <cellStyle name="Excel Built-in Heading 1 2" xfId="52"/>
+    <cellStyle name="Excel Built-in Heading 1 3" xfId="53"/>
+    <cellStyle name="Excel Built-in Heading 1 4" xfId="54"/>
+    <cellStyle name="Excel Built-in Heading 1 5" xfId="55"/>
+    <cellStyle name="Excel Built-in Heading 1 6" xfId="56"/>
+    <cellStyle name="Heading" xfId="57"/>
+    <cellStyle name="Heading1" xfId="58"/>
+    <cellStyle name="Heading1 1" xfId="59"/>
+    <cellStyle name="Heading1 2" xfId="60"/>
+    <cellStyle name="Heading1 3" xfId="61"/>
+    <cellStyle name="Heading1 4" xfId="62"/>
+    <cellStyle name="Heading1 5" xfId="63"/>
+    <cellStyle name="Heading1 6" xfId="64"/>
+    <cellStyle name="Heading1 7" xfId="65"/>
+    <cellStyle name="Heading1 8" xfId="66"/>
+    <cellStyle name="Result" xfId="67"/>
+    <cellStyle name="Result 1" xfId="68"/>
+    <cellStyle name="Result 2" xfId="69"/>
+    <cellStyle name="Result 3" xfId="70"/>
+    <cellStyle name="Result 4" xfId="71"/>
+    <cellStyle name="Result 5" xfId="72"/>
+    <cellStyle name="Result 6" xfId="73"/>
+    <cellStyle name="Result 7" xfId="74"/>
+    <cellStyle name="Result 8" xfId="75"/>
+    <cellStyle name="Result2" xfId="76"/>
+    <cellStyle name="Result2 1" xfId="77"/>
+    <cellStyle name="Result2 2" xfId="78"/>
+    <cellStyle name="Result2 3" xfId="79"/>
+    <cellStyle name="Result2 4" xfId="80"/>
+    <cellStyle name="Result2 5" xfId="81"/>
+    <cellStyle name="Result2 6" xfId="82"/>
+    <cellStyle name="Result2 7" xfId="83"/>
+    <cellStyle name="Result2 8" xfId="84"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1973,151 +2662,153 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection sqref="A1:AC7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1024" width="14" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
-      <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="N2" s="1">
         <v>987456</v>
@@ -2138,137 +2829,138 @@
         <v>101010</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:29">
       <c r="A7" s="1" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Z3" r:id="rId1" location="$"/>
-    <hyperlink ref="Z5" r:id="rId2" location="$"/>
-    <hyperlink ref="Z6" r:id="rId3" location="$"/>
-    <hyperlink ref="Z7" r:id="rId4" location="$"/>
+    <hyperlink ref="Z3" r:id="rId1" location="$" display="!@#$"/>
+    <hyperlink ref="Z5" r:id="rId1" location="$" display="!@#$"/>
+    <hyperlink ref="Z6" r:id="rId1" location="$" display="!@#$"/>
+    <hyperlink ref="Z7" r:id="rId1" location="$" display="!@#$"/>
   </hyperlinks>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.2216535433071" bottom="11.2216535433071" header="10.8279527559055" footer="10.8279527559055"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="C2:C7" numberStoredAsText="1"/>
+    <ignoredError sqref="W2:X2 C2:C7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="24.375" customWidth="1"/>
     <col min="2" max="2" width="42.375" customWidth="1"/>
@@ -2283,184 +2975,184 @@
     <col min="17" max="1025" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75">
+    <row r="1" ht="15.75" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>380</v>
+        <v>204</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C2" s="1">
         <v>3208</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="I2" s="1">
         <v>123456</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>379</v>
+        <v>256</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>378</v>
+        <v>282</v>
       </c>
       <c r="M2" s="1">
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75">
+    <row r="3" ht="15.75" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C3" s="1">
         <v>3208</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="I3" s="1">
         <v>123456</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>379</v>
+        <v>256</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>378</v>
+        <v>282</v>
       </c>
       <c r="M3" s="1">
         <v>231</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="4">
         <v>602</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75">
+    <row r="4" ht="15.75" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C4">
         <v>3208</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="I4" s="1">
         <v>123456</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>379</v>
+        <v>256</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>378</v>
+        <v>282</v>
       </c>
       <c r="M4" s="1">
         <v>231</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="4">
         <v>602</v>
       </c>
       <c r="P4" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="202.10826771653501" bottom="202.10826771653501" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="202.108267716535" bottom="202.108267716535" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;K000000Page &amp;P</oddFooter>
@@ -2469,14 +3161,15 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="37.125" customWidth="1"/>
     <col min="2" max="2" width="32.125" customWidth="1"/>
@@ -2489,107 +3182,107 @@
     <col min="9" max="1024" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" ht="15.75" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C2" s="1">
         <v>3722</v>
       </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75">
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" ht="15.75" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C3" s="1">
         <v>3722</v>
       </c>
       <c r="D3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>307</v>
+        <v>298</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>299</v>
       </c>
       <c r="F3" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G3" t="s">
-        <v>309</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75">
+        <v>301</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C4" s="1">
         <v>3208</v>
       </c>
       <c r="D4" t="s">
-        <v>306</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>307</v>
+        <v>298</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>299</v>
       </c>
       <c r="F4" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G4" t="s">
-        <v>309</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>311</v>
+        <v>301</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78740157480314998" right="0.78740157480314998" top="51.326377952755898" bottom="51.326377952755898" header="0.78740157480314998" footer="0.78740157480314998"/>
+  <pageMargins left="0.78740157480315" right="0.78740157480315" top="51.3263779527559" bottom="51.3263779527559" header="0.78740157480315" footer="0.78740157480315"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;10&amp;K000000&amp;A</oddHeader>
@@ -2599,14 +3292,15 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="32.75" customWidth="1"/>
     <col min="2" max="2" width="35.625" customWidth="1"/>
@@ -2615,115 +3309,115 @@
     <col min="6" max="1024" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75">
+    <row r="1" ht="15.75" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="E1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H1" t="s">
+        <v>307</v>
+      </c>
+      <c r="I1" t="s">
+        <v>264</v>
+      </c>
+      <c r="J1" t="s">
+        <v>308</v>
+      </c>
+      <c r="K1" t="s">
+        <v>309</v>
+      </c>
+      <c r="L1" t="s">
+        <v>310</v>
+      </c>
+      <c r="M1" t="s">
+        <v>267</v>
+      </c>
+      <c r="N1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="F1" t="s">
-        <v>313</v>
-      </c>
-      <c r="G1" t="s">
-        <v>314</v>
-      </c>
-      <c r="H1" t="s">
-        <v>315</v>
-      </c>
-      <c r="I1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J1" t="s">
-        <v>316</v>
-      </c>
-      <c r="K1" t="s">
-        <v>202</v>
-      </c>
-      <c r="L1" t="s">
-        <v>203</v>
-      </c>
-      <c r="M1" t="s">
-        <v>278</v>
-      </c>
-      <c r="N1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.75">
-      <c r="A2" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="C2">
         <v>3877</v>
       </c>
       <c r="D2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="K2" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="L2" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H2" s="3" t="s">
+    </row>
+    <row r="3" ht="15.75" spans="1:14">
+      <c r="A3" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="L2" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75">
-      <c r="A3" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="C3">
         <v>3877</v>
       </c>
       <c r="D3" t="s">
-        <v>319</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>319</v>
+        <v>313</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>313</v>
       </c>
       <c r="N3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="15.5972440944882" bottom="15.5972440944882" header="0" footer="0"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;K000000Page &amp;P</oddFooter>
@@ -2732,49 +3426,50 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="19.75" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
+    <row r="1" ht="15.75" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="C2">
         <v>3330</v>
       </c>
       <c r="D2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E2">
         <v>3330</v>
@@ -2782,51 +3477,53 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="27.75" customWidth="1"/>
     <col min="2" max="2" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:3">
       <c r="A2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>330</v>
       </c>
       <c r="C2">
         <v>3967</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" ht="15.75" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>332</v>
       </c>
       <c r="C3">
         <v>3967</v>
@@ -2834,115 +3531,119 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="3" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
+    <row r="1" ht="15.75" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>333</v>
       </c>
       <c r="C2">
         <v>4049</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75">
+    <row r="3" ht="15.75" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>337</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>335</v>
       </c>
       <c r="C3">
         <v>4049</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="4">
         <v>3103</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="4">
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15">
+    <row r="6" ht="15" spans="1:2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="A1" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
+    <row r="1" ht="15.75" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C2">
         <v>4049</v>
@@ -2950,18 +3651,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
@@ -2971,281 +3674,283 @@
     <col min="6" max="6" width="44.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
+    <row r="1" ht="15.75" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>339</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>340</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>342</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>343</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>344</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" ht="15.75" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>345</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>346</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G3" s="1">
         <v>2987</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75">
+    <row r="4" ht="15.75" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>351</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>352</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>353</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>354</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75">
+    <row r="5" ht="15.75" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>355</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>356</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>412</v>
+        <v>358</v>
       </c>
       <c r="G5" s="1">
         <v>3588</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75">
+    <row r="6" ht="15.75" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>359</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>360</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75">
+    <row r="7" ht="15.75" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>361</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>362</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75">
+    <row r="8" ht="15.75" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="5">
+        <v>363</v>
+      </c>
+      <c r="B8" s="9">
         <v>2068</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>353</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75">
+    <row r="9" ht="15.75" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5">
+        <v>365</v>
+      </c>
+      <c r="B9" s="9">
         <v>3129</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>353</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>366</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>367</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75">
+    <row r="10" ht="15.75" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="5">
+        <v>368</v>
+      </c>
+      <c r="B10" s="9">
         <v>354</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>353</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>369</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>370</v>
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75">
+    <row r="11" ht="15.75" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>333</v>
+        <v>371</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>372</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>366</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="G11" s="1">
         <v>4049</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75">
+    <row r="12" ht="15.75" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B12" s="1">
         <v>1980</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>434</v>
+        <v>375</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>435</v>
+        <v>376</v>
       </c>
       <c r="G12" s="1">
         <v>4984</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75">
+    <row r="13" ht="15.75" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>436</v>
+        <v>377</v>
       </c>
       <c r="B13" s="1">
         <v>1980</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C11" r:id="rId5"/>
-    <hyperlink ref="C12" r:id="rId6"/>
-    <hyperlink ref="C13" r:id="rId7"/>
+    <hyperlink ref="C3" r:id="rId1" display="Admin@1"/>
+    <hyperlink ref="C4" r:id="rId1" display="Admin@1"/>
+    <hyperlink ref="C5" r:id="rId1" display="Admin@1"/>
+    <hyperlink ref="C6" r:id="rId1" display="Admin@1"/>
+    <hyperlink ref="C11" r:id="rId1" display="Admin@1"/>
+    <hyperlink ref="C12" r:id="rId1" display="Admin@1"/>
+    <hyperlink ref="C13" r:id="rId1" display="Admin@1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B4 B5:B7 B11" numberStoredAsText="1"/>
+    <ignoredError sqref="B11 B5:B7 B4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="18.5" customWidth="1"/>
@@ -3257,112 +3962,112 @@
     <col min="10" max="10" width="15.375" customWidth="1"/>
     <col min="12" max="13" width="12.375" customWidth="1"/>
     <col min="14" max="14" width="13.875" customWidth="1"/>
-    <col min="17" max="17" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.875" customWidth="1"/>
+    <col min="22" max="22" width="9.375" customWidth="1"/>
+    <col min="24" max="24" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15.75">
+    <row r="1" ht="15.75" spans="1:31">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="G1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="AC1" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="G1" t="s">
-        <v>354</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="R1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>53</v>
-      </c>
       <c r="AE1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" ht="15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:31">
       <c r="A2" s="6" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="C2">
         <v>4138</v>
@@ -3370,86 +4075,86 @@
       <c r="D2">
         <v>4385</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="O2" s="8">
+      <c r="E2" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="O2" s="4">
         <v>987456</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="4">
         <v>974121</v>
       </c>
       <c r="Q2">
         <v>9632587410</v>
       </c>
-      <c r="R2" s="8">
+      <c r="R2" s="4">
         <v>20</v>
       </c>
-      <c r="S2" s="8">
+      <c r="S2" s="4">
         <v>101010</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="4">
         <v>101010</v>
       </c>
-      <c r="U2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="V2" s="9">
+      <c r="U2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2" s="7">
         <v>36779</v>
       </c>
-      <c r="W2" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="X2" s="8">
+      <c r="W2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="4">
         <v>9874563210</v>
       </c>
-      <c r="Y2" s="8">
+      <c r="Y2" s="4">
         <v>10000</v>
       </c>
-      <c r="Z2" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8">
+      <c r="Z2" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4">
         <v>-123</v>
       </c>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-    </row>
-    <row r="3" spans="1:31" ht="15">
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+    </row>
+    <row r="3" ht="15" spans="1:29">
       <c r="A3" s="6" t="s">
-        <v>432</v>
+        <v>396</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>433</v>
+        <v>397</v>
       </c>
       <c r="C3">
         <v>4138</v>
@@ -3457,144 +4162,146 @@
       <c r="D3">
         <v>4385</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="O3" s="8">
+      <c r="E3" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="O3" s="4">
         <v>987456</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="4">
         <v>974121</v>
       </c>
       <c r="Q3">
         <v>9632587410</v>
       </c>
-      <c r="R3" s="8">
+      <c r="R3" s="4">
         <v>20</v>
       </c>
-      <c r="S3" s="8">
+      <c r="S3" s="4">
         <v>101010</v>
       </c>
-      <c r="T3" s="8">
+      <c r="T3" s="4">
         <v>101010</v>
       </c>
-      <c r="U3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="V3" s="9">
+      <c r="U3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" s="7">
         <v>36779</v>
       </c>
-      <c r="W3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="X3" s="8">
+      <c r="W3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" s="4">
         <v>9874563210</v>
       </c>
-      <c r="Y3" s="8">
+      <c r="Y3" s="4">
         <v>10000</v>
       </c>
-      <c r="Z3" s="8" t="s">
-        <v>426</v>
+      <c r="Z3" s="4" t="s">
+        <v>395</v>
       </c>
       <c r="AA3" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="AB3" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="AC3">
         <v>-123</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="AB4" s="8" t="s">
-        <v>431</v>
+    <row r="4" spans="19:31">
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>399</v>
       </c>
       <c r="AC4">
         <v>-123</v>
       </c>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-    </row>
-    <row r="5" spans="1:31">
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+    </row>
+    <row r="5" spans="27:29">
       <c r="AA5" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="AB5" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="AC5">
         <v>-123</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
+    <row r="6" spans="19:31">
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="22.375" customWidth="1"/>
     <col min="4" max="4" width="14.125" customWidth="1"/>
@@ -3604,334 +4311,334 @@
     <col min="9" max="9" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75">
+    <row r="1" ht="15.75" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>339</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>340</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>342</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>343</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75">
+    <row r="3" ht="15.75" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>345</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>346</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G3" s="1">
         <v>2987</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75">
+    <row r="4" ht="15.75" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>351</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>352</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>353</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>354</v>
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75">
+    <row r="5" ht="15.75" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>355</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>356</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="I5" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="J5" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>359</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>360</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75">
+    <row r="7" ht="15.75" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>361</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>362</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="15.75">
+    <row r="8" ht="15.75" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="5">
+        <v>363</v>
+      </c>
+      <c r="B8" s="9">
         <v>2068</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>353</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75">
+    <row r="9" ht="15.75" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5">
+        <v>365</v>
+      </c>
+      <c r="B9" s="9">
         <v>3129</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>353</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>366</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>367</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75">
+    <row r="10" ht="15.75" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="5">
+        <v>368</v>
+      </c>
+      <c r="B10" s="9">
         <v>354</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>353</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>369</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>370</v>
       </c>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75">
+    <row r="11" ht="15.75" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>333</v>
+        <v>371</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>372</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>366</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>341</v>
+        <v>404</v>
       </c>
       <c r="G11" s="1">
         <v>4049</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75">
+    <row r="12" ht="15.75" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>386</v>
+        <v>374</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>405</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>353</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="G12">
         <v>4690</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75">
+    <row r="13" ht="15.75" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>437</v>
+        <v>377</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>408</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>434</v>
+        <v>375</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>435</v>
+        <v>376</v>
       </c>
       <c r="G13" s="1">
         <v>4984</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75">
+    <row r="14" ht="15.75" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>439</v>
+        <v>409</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>410</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>347</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>434</v>
+        <v>375</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>440</v>
+        <v>411</v>
       </c>
       <c r="G14" s="2">
         <v>4994</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75">
+    <row r="15" ht="15.75" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>455</v>
+        <v>412</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>413</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>458</v>
+        <v>347</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>416</v>
       </c>
       <c r="G15" s="2">
         <v>4006</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75">
+    <row r="16" ht="15.75" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>463</v>
+        <v>417</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>418</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>456</v>
+        <v>347</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>414</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>464</v>
+        <v>419</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>420</v>
       </c>
       <c r="G16" s="2">
         <v>5122</v>
@@ -3939,18 +4646,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C12" r:id="rId5"/>
-    <hyperlink ref="C2" r:id="rId6"/>
-    <hyperlink ref="C13" r:id="rId7"/>
-    <hyperlink ref="C14" r:id="rId8"/>
-    <hyperlink ref="C15" r:id="rId9"/>
-    <hyperlink ref="C16" r:id="rId10"/>
+    <hyperlink ref="C3" r:id="rId1" display="Admin@1"/>
+    <hyperlink ref="C4" r:id="rId1" display="Admin@1"/>
+    <hyperlink ref="C5" r:id="rId1" display="Admin@1"/>
+    <hyperlink ref="C6" r:id="rId1" display="Admin@1"/>
+    <hyperlink ref="C12" r:id="rId1" display="Admin@1"/>
+    <hyperlink ref="C2" r:id="rId1" display="Admin@1"/>
+    <hyperlink ref="C13" r:id="rId1" display="Admin@1"/>
+    <hyperlink ref="C14" r:id="rId1" display="Admin@1"/>
+    <hyperlink ref="C15" r:id="rId1" display="Admin@1"/>
+    <hyperlink ref="C16" r:id="rId1" display="Admin@1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="B4:B16" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -3958,279 +4666,281 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView topLeftCell="T1" workbookViewId="0">
       <selection activeCell="AI17" sqref="AI17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1024" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="C2" s="1">
         <v>2965</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:34">
       <c r="A3" s="1" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C3" s="1">
         <v>2965</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1"/>
-    <hyperlink ref="AF3" r:id="rId2" location="$"/>
+    <hyperlink ref="S2" r:id="rId1" display="naveenhaq098@gmail.com"/>
+    <hyperlink ref="AF3" r:id="rId2" location="$" display="!@#$"/>
   </hyperlinks>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.2216535433071" bottom="11.2216535433071" header="10.8279527559055" footer="10.8279527559055"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>365</v>
+        <v>421</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>366</v>
+        <v>422</v>
       </c>
       <c r="C2">
         <v>4138</v>
@@ -4238,18 +4948,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="4" max="4" width="15.75" customWidth="1"/>
     <col min="6" max="7" width="17.625" customWidth="1"/>
@@ -4257,217 +4969,217 @@
     <col min="17" max="17" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.75">
+    <row r="1" ht="15.75" spans="1:35">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" ht="15.75">
+    <row r="2" ht="15.75" spans="1:35">
       <c r="A2" s="6" t="s">
-        <v>365</v>
+        <v>421</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>366</v>
+        <v>422</v>
       </c>
       <c r="C2">
         <v>4138</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>367</v>
+        <v>424</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>368</v>
+        <v>425</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" s="9">
+        <v>93</v>
+      </c>
+      <c r="G2" s="7">
         <v>36779</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>370</v>
+        <v>426</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>371</v>
+        <v>427</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>372</v>
+        <v>428</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="AI2" s="1"/>
     </row>
-    <row r="3" spans="1:35" ht="15.75">
+    <row r="3" ht="15.75" spans="4:35">
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -4498,50 +5210,52 @@
       <c r="AE3" s="1"/>
       <c r="AI3" s="1"/>
     </row>
-    <row r="6" spans="1:35">
-      <c r="H6" s="10"/>
+    <row r="6" spans="8:8">
+      <c r="H6" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1"/>
-    <hyperlink ref="AF2" r:id="rId2" location="$"/>
+    <hyperlink ref="S2" r:id="rId1" display="abc098@gmail.com"/>
+    <hyperlink ref="AF2" r:id="rId2" location="$" display="!@#$"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:3">
       <c r="A2" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
       <c r="C2">
         <v>4690</v>
@@ -4549,41 +5263,43 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="A1" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:3">
       <c r="A2" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="C2">
         <v>4690</v>
@@ -4591,40 +5307,42 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="25.875" customWidth="1"/>
     <col min="2" max="2" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" ht="15" spans="1:3">
       <c r="A2" t="s">
-        <v>396</v>
+        <v>433</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>397</v>
+        <v>434</v>
       </c>
       <c r="C2">
         <v>4690</v>
@@ -4632,18 +5350,20 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="20.875" customWidth="1"/>
     <col min="2" max="2" width="24.375" customWidth="1"/>
@@ -4654,96 +5374,96 @@
     <col min="11" max="11" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75">
+    <row r="1" ht="15.75" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>375</v>
+        <v>211</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15.75">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>398</v>
+        <v>435</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="C2">
         <v>3722</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>376</v>
+        <v>233</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="M2" s="1">
         <v>1000000</v>
@@ -4755,108 +5475,110 @@
         <v>60000</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>379</v>
+        <v>256</v>
       </c>
       <c r="Q2" s="1">
         <v>2</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="4:4">
       <c r="D3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <cols>
     <col min="2" max="2" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75">
+    <row r="1" ht="15.75" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>375</v>
+        <v>211</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>406</v>
+        <v>442</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>407</v>
+        <v>443</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>408</v>
+        <v>444</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="15.75">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>398</v>
+        <v>435</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="C2">
         <v>3722</v>
@@ -4865,28 +5587,28 @@
         <v>4689</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>403</v>
+        <v>439</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>376</v>
+        <v>233</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="M2" s="1">
         <v>1000000</v>
@@ -4898,7 +5620,7 @@
         <v>60000</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>379</v>
+        <v>256</v>
       </c>
       <c r="Q2" s="1">
         <v>2</v>
@@ -4907,10 +5629,10 @@
         <v>-2000</v>
       </c>
       <c r="S2" t="s">
-        <v>409</v>
+        <v>446</v>
       </c>
       <c r="T2" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="U2">
         <v>3</v>
@@ -4918,21 +5640,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1"/>
+    <hyperlink ref="T2" r:id="rId1" display="!@#$"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="2" max="2" width="20.75" customWidth="1"/>
@@ -4943,137 +5667,137 @@
     <col min="25" max="25" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75">
+    <row r="1" ht="15.75" spans="1:30">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="15.75">
+    </row>
+    <row r="2" ht="15.75" spans="1:30">
       <c r="A2" s="1" t="s">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="C2" s="1">
         <v>3588</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="N2" s="1">
         <v>987456</v>
@@ -5081,7 +5805,7 @@
       <c r="O2" s="1">
         <v>974121</v>
       </c>
-      <c r="P2" s="12">
+      <c r="P2" s="5">
         <v>9874563210</v>
       </c>
       <c r="Q2" s="1">
@@ -5094,22 +5818,22 @@
         <v>101010</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="W2" s="12">
+        <v>41</v>
+      </c>
+      <c r="W2" s="5">
         <v>9874563210</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>426</v>
+        <v>395</v>
       </c>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
@@ -5117,12 +5841,12 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:30" ht="15.75">
+    <row r="3" ht="15.75" spans="1:30">
       <c r="A3" s="1" t="s">
-        <v>414</v>
+        <v>451</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="C3" s="1">
         <v>3588</v>
@@ -5150,21 +5874,21 @@
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
     </row>
-    <row r="4" spans="1:30" ht="15.75">
+    <row r="4" ht="15.75" spans="1:30">
       <c r="A4" s="1" t="s">
-        <v>415</v>
+        <v>453</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="C4" s="1">
         <v>3588</v>
@@ -5174,7 +5898,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -5199,12 +5923,12 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:30" ht="15.75">
+    <row r="5" ht="15.75" spans="1:30">
       <c r="A5" s="1" t="s">
-        <v>416</v>
+        <v>455</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="C5" s="1">
         <v>3588</v>
@@ -5232,21 +5956,21 @@
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
     </row>
-    <row r="6" spans="1:30" ht="15.75">
+    <row r="6" ht="15.75" spans="1:30">
       <c r="A6" s="1" t="s">
-        <v>417</v>
+        <v>457</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>423</v>
+        <v>458</v>
       </c>
       <c r="C6" s="1">
         <v>3588</v>
@@ -5274,21 +5998,21 @@
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
     </row>
-    <row r="7" spans="1:30" ht="15.75">
+    <row r="7" ht="15.75" spans="1:30">
       <c r="A7" s="1" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="C7" s="1">
         <v>3588</v>
@@ -5316,30 +6040,31 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="AB7" s="1">
         <v>-123</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Z3" r:id="rId1" location="$"/>
-    <hyperlink ref="Z5" r:id="rId2" location="$"/>
-    <hyperlink ref="Z6" r:id="rId3" location="$"/>
-    <hyperlink ref="Z7" r:id="rId4" location="$"/>
+    <hyperlink ref="Z3" r:id="rId1" location="$" display="!@#$"/>
+    <hyperlink ref="Z5" r:id="rId1" location="$" display="!@#$"/>
+    <hyperlink ref="Z6" r:id="rId1" location="$" display="!@#$"/>
+    <hyperlink ref="Z7" r:id="rId1" location="$" display="!@#$"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="X2" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -5347,37 +6072,38 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="A1" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="2" width="28.25" customWidth="1"/>
     <col min="3" max="3" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="C2" s="1">
         <v>4994</v>
@@ -5385,40 +6111,42 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="A1" sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="2" max="2" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C2" s="1">
         <v>4006</v>
@@ -5426,324 +6154,328 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1024" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="X2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AC2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
-      <c r="A2" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG3" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
-      <c r="A4" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="AF3" r:id="rId1" location="$"/>
+    <hyperlink ref="AF3" r:id="rId1" location="$" display="!@#$"/>
   </hyperlinks>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.2216535433071" bottom="11.2216535433071" header="10.8279527559055" footer="10.8279527559055"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="W2 AD2 AE3 C2:C4 G2:G3 K2:M4" numberStoredAsText="1"/>
+    <ignoredError sqref="K2:M4 G2:G3 C2:C4 AE3 AD2 W2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="8" max="8" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
+    <row r="1" ht="15.75" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D1" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H1" t="s">
         <v>468</v>
       </c>
-      <c r="F1" s="8" t="s">
+    </row>
+    <row r="2" ht="15.75" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="G1" t="s">
-        <v>278</v>
-      </c>
-      <c r="H1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="1" t="s">
-        <v>461</v>
-      </c>
       <c r="B2" s="1" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C2" s="1">
         <v>5122</v>
@@ -5754,72 +6486,174 @@
       <c r="E2">
         <v>3000</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="G2">
+    </row>
+    <row r="3" ht="15.75" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5122</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5122</v>
+      </c>
+      <c r="G4">
         <v>1000</v>
       </c>
-      <c r="H2" t="s">
-        <v>431</v>
+    </row>
+    <row r="5" ht="15.75" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5122</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5122</v>
+      </c>
+      <c r="G6">
+        <v>1000</v>
+      </c>
+      <c r="H6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5122</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" ht="15.75" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75">
+        <v>175</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="C2" s="1">
         <v>5299</v>
       </c>
     </row>
+    <row r="3" ht="15.75" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5299</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5299</v>
+      </c>
+      <c r="D4">
+        <v>-123</v>
+      </c>
+      <c r="E4" t="s">
+        <v>491</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.375" style="1" customWidth="1"/>
@@ -5828,149 +6662,149 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>443</v>
+        <v>176</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>445</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="C2" s="1">
         <v>4984</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>444</v>
+        <v>180</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="C3" s="1">
         <v>4984</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="C4" s="1">
         <v>4984</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="C5" s="1">
         <v>4984</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="C6" s="1">
         <v>4984</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="C7" s="1">
         <v>4984</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="C8" s="1">
         <v>4984</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="C9" s="1">
         <v>4984</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>451</v>
+        <v>201</v>
       </c>
       <c r="C10" s="1">
         <v>4984</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>448</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.2216535433071" bottom="11.2216535433071" header="10.8279527559055" footer="10.8279527559055"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
@@ -5980,178 +6814,179 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMJ10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1024" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>443</v>
+        <v>176</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="C2" s="1">
         <v>4984</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="C3" s="1">
         <v>4984</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>444</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="C4" s="1">
         <v>4984</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>446</v>
+        <v>186</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="C5" s="1">
         <v>4984</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>447</v>
+        <v>189</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="C6" s="1">
         <v>4984</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="C7" s="1">
         <v>4984</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>449</v>
+        <v>194</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="C8" s="1">
         <v>4984</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>449</v>
+        <v>194</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="C9" s="1">
         <v>4984</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>453</v>
+        <v>203</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>450</v>
+        <v>200</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>451</v>
+        <v>201</v>
       </c>
       <c r="C10" s="1">
         <v>4984</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>453</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.2216535433071" bottom="11.2216535433071" header="10.8279527559055" footer="10.8279527559055"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
@@ -6161,127 +6996,128 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AML5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1026" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>377</v>
       </c>
       <c r="M3" s="1">
         <v>1000000</v>
@@ -6293,65 +7129,66 @@
         <v>60000</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="Q3" s="1">
         <v>2</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.2216535433071" bottom="11.2216535433071" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="36.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.625" style="1" customWidth="1"/>
@@ -6360,135 +7197,136 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>380</v>
+        <v>204</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C2" s="1">
         <v>3588</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>394</v>
+        <v>253</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>392</v>
+        <v>254</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="I2" s="1">
         <v>123456</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>379</v>
+        <v>256</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>393</v>
+        <v>258</v>
       </c>
       <c r="M2" s="1">
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C3" s="1">
         <v>3572</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C4" s="1">
         <v>3183</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="2:7">
       <c r="B7" s="1" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="C7" s="1">
         <v>3571</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>391</v>
+        <v>263</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="11.221653543307101" bottom="11.221653543307101" header="10.8279527559055" footer="10.8279527559055"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="11.2216535433071" bottom="11.2216535433071" header="10.8279527559055" footer="10.8279527559055"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="39.5" customWidth="1"/>
     <col min="2" max="2" width="36.375" customWidth="1"/>
@@ -6497,91 +7335,91 @@
     <col min="5" max="1024" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
+    <row r="1" ht="15.75" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="D1" t="s">
-        <v>201</v>
+        <v>264</v>
       </c>
       <c r="E1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="F1" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="G1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C2" s="1">
         <v>3208</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C3" s="1">
         <v>3208</v>
       </c>
       <c r="E3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C4" s="1">
         <v>3208</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" spans="3:4">
       <c r="C7" s="1">
         <v>3595</v>
       </c>
       <c r="D7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0.15275590551181101" bottom="0.15275590551181101" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0.152755905511811" bottom="0.152755905511811" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>
@@ -6591,12 +7429,15 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="38.625" customWidth="1"/>
     <col min="2" max="2" width="33.125" customWidth="1"/>
@@ -6604,30 +7445,30 @@
     <col min="4" max="1024" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" ht="15.75" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" ht="15.75" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C2" s="1">
         <v>3546</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="273.21929133858299" bottom="273.21929133858299" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="273.219291338583" bottom="273.219291338583" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" pageOrder="overThenDown" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;K000000&amp;A</oddHeader>

--- a/Uls_Ramya/TestData/ijaraTestData.xlsx
+++ b/Uls_Ramya/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" firstSheet="24" activeTab="26"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" firstSheet="28" activeTab="32"/>
   </bookViews>
   <sheets>
     <sheet name="ijarah_AddressDetailsTestData" sheetId="2" r:id="rId1"/>
@@ -38,13 +38,15 @@
     <sheet name="AppDataEn_AL_AssetD" sheetId="26" r:id="rId29"/>
     <sheet name="AL_OF_CustomerDetail" sheetId="34" r:id="rId30"/>
     <sheet name="AutoLoanExecution" sheetId="37" r:id="rId31"/>
+    <sheet name="Retail_AutoLoan_FacilityDetails" sheetId="41" r:id="rId32"/>
+    <sheet name="Retail_AutoLoanExecution" sheetId="40" r:id="rId33"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="554">
   <si>
     <t>UserType</t>
   </si>
@@ -1701,6 +1703,12 @@
   </si>
   <si>
     <t>9632587412</t>
+  </si>
+  <si>
+    <t>AT_ADE_FD_01_01</t>
+  </si>
+  <si>
+    <t>AT_ADE_FD_01_01_D1</t>
   </si>
 </sst>
 </file>
@@ -2015,7 +2023,7 @@
     <cellStyle name="Result2 7" xfId="35"/>
     <cellStyle name="Result2 8" xfId="36"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
     <dxf>
       <font>
         <condense val="0"/>
@@ -2025,6 +2033,30 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5065,8 +5097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5287,7 +5319,7 @@
   <dimension ref="A1:AF6"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6234,7 +6266,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6587,21 +6619,120 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C31">
-    <cfRule type="containsText" dxfId="3" priority="8" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="9" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C31">
-    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C31">
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="14"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C31">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="C2">
+        <v>5231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="23.25" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>486</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Uls_Ramya/TestData/ijaraTestData.xlsx
+++ b/Uls_Ramya/TestData/ijaraTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" firstSheet="28" activeTab="32"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21240" windowHeight="6960" firstSheet="30" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="ijarah_AddressDetailsTestData" sheetId="2" r:id="rId1"/>
@@ -40,13 +40,15 @@
     <sheet name="AutoLoanExecution" sheetId="37" r:id="rId31"/>
     <sheet name="Retail_AutoLoan_FacilityDetails" sheetId="41" r:id="rId32"/>
     <sheet name="Retail_AutoLoanExecution" sheetId="40" r:id="rId33"/>
+    <sheet name="ConDurable_ADE_FacilityDetail" sheetId="42" r:id="rId34"/>
+    <sheet name="ConsumerDurableExecution" sheetId="43" r:id="rId35"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="563">
   <si>
     <t>UserType</t>
   </si>
@@ -1405,9 +1407,6 @@
     <t>CustomerDetails</t>
   </si>
   <si>
-    <t>AT_AL_OFF_CD_001</t>
-  </si>
-  <si>
     <t>AT_AL_DSB_MM_04</t>
   </si>
   <si>
@@ -1709,6 +1708,36 @@
   </si>
   <si>
     <t>AT_ADE_FD_01_01_D1</t>
+  </si>
+  <si>
+    <t>AT_ADE_FD_01_02</t>
+  </si>
+  <si>
+    <t>AT_ADE_FD_01_02_D1</t>
+  </si>
+  <si>
+    <t>userType16</t>
+  </si>
+  <si>
+    <t>Consumer Durable</t>
+  </si>
+  <si>
+    <t>Facility Details</t>
+  </si>
+  <si>
+    <t>0353</t>
+  </si>
+  <si>
+    <t>AT_CD_ADE_FC_01</t>
+  </si>
+  <si>
+    <t>AT_CD_ADE_FC_02</t>
+  </si>
+  <si>
+    <t>AT_CD_ADE_FC_01_D1</t>
+  </si>
+  <si>
+    <t>AT_CD_ADE_FC_02_D1</t>
   </si>
 </sst>
 </file>
@@ -1953,7 +1982,7 @@
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
@@ -1982,6 +2011,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="38">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="1"/>
@@ -2023,7 +2053,91 @@
     <cellStyle name="Result2 7" xfId="35"/>
     <cellStyle name="Result2 8" xfId="36"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -3385,10 +3499,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3539,7 +3653,7 @@
         <v>338</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G7" s="1">
         <v>5231</v>
@@ -3721,10 +3835,10 @@
     </row>
     <row r="16" spans="1:10" ht="15.75">
       <c r="A16" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
@@ -3733,13 +3847,36 @@
         <v>449</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G16" s="2">
         <v>5122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75">
+      <c r="A17" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G17" s="2">
+        <v>5511</v>
       </c>
     </row>
   </sheetData>
@@ -3754,10 +3891,11 @@
     <hyperlink ref="C14" r:id="rId8"/>
     <hyperlink ref="C15" r:id="rId9"/>
     <hyperlink ref="C16" r:id="rId10"/>
+    <hyperlink ref="C17" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B4:B16" numberStoredAsText="1"/>
+    <ignoredError sqref="B4:B17" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4133,8 +4271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4909,27 +5047,27 @@
         <v>207</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>460</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>461</v>
       </c>
       <c r="G1" t="s">
         <v>277</v>
       </c>
       <c r="H1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75">
       <c r="A2" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>453</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>454</v>
       </c>
       <c r="C2" s="1">
         <v>5122</v>
@@ -4943,24 +5081,24 @@
     </row>
     <row r="3" spans="1:8" ht="15.75">
       <c r="A3" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C3" s="1">
         <v>5122</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75">
       <c r="A4" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C4" s="1">
         <v>5122</v>
@@ -4971,10 +5109,10 @@
     </row>
     <row r="5" spans="1:8" ht="15.75">
       <c r="A5" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C5" s="1">
         <v>5122</v>
@@ -4982,10 +5120,10 @@
     </row>
     <row r="6" spans="1:8" ht="15.75">
       <c r="A6" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C6" s="1">
         <v>5122</v>
@@ -4999,10 +5137,10 @@
     </row>
     <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C7" s="1">
         <v>5122</v>
@@ -5037,21 +5175,21 @@
         <v>207</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>465</v>
       </c>
       <c r="C2" s="1">
         <v>5299</v>
@@ -5059,10 +5197,10 @@
     </row>
     <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="C3" s="1">
         <v>5299</v>
@@ -5070,10 +5208,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75">
       <c r="A4" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>479</v>
       </c>
       <c r="C4" s="1">
         <v>5299</v>
@@ -5082,10 +5220,10 @@
         <v>-123</v>
       </c>
       <c r="E4" t="s">
+        <v>482</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -5122,56 +5260,56 @@
         <v>207</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>538</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>539</v>
-      </c>
       <c r="F1" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>543</v>
-      </c>
       <c r="I1" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75">
       <c r="A2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>522</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>523</v>
       </c>
       <c r="C2">
         <v>5231</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F2">
         <v>-96325</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C3">
         <v>5231</v>
@@ -5180,10 +5318,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C4">
         <v>5231</v>
@@ -5192,28 +5330,28 @@
     </row>
     <row r="5" spans="1:10" ht="15.75">
       <c r="A5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C5">
         <v>5231</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C6">
         <v>5231</v>
@@ -5223,18 +5361,18 @@
         <v>-96325</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C7">
         <v>5231</v>
@@ -5243,33 +5381,33 @@
     </row>
     <row r="8" spans="1:10" ht="15.75">
       <c r="A8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B8" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C8">
         <v>5231</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F8">
         <v>-96325</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C9">
         <v>5231</v>
@@ -5278,22 +5416,22 @@
     </row>
     <row r="10" spans="1:10" ht="15.75">
       <c r="A10" t="s">
+        <v>544</v>
+      </c>
+      <c r="B10" t="s">
         <v>545</v>
-      </c>
-      <c r="B10" t="s">
-        <v>546</v>
       </c>
       <c r="C10">
         <v>5231</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>285</v>
@@ -5318,8 +5456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5439,7 +5577,7 @@
         <v>346</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C2">
         <v>5231</v>
@@ -5484,7 +5622,7 @@
         <v>974121</v>
       </c>
       <c r="Q2" s="15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="R2" s="14">
         <v>20</v>
@@ -5527,7 +5665,7 @@
         <v>426</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C3">
         <v>5231</v>
@@ -5651,7 +5789,7 @@
         <v>4138</v>
       </c>
       <c r="D6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="S6" s="8"/>
       <c r="T6" s="8"/>
@@ -5681,7 +5819,7 @@
   <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AK2" sqref="AK2"/>
+      <selection sqref="A1:AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5805,7 +5943,7 @@
         <v>362</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C2">
         <v>4138</v>
@@ -6225,7 +6363,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6247,10 +6385,10 @@
     </row>
     <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="1" t="s">
-        <v>452</v>
+        <v>513</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C2" s="1">
         <v>4006</v>
@@ -6266,7 +6404,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6278,13 +6416,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>488</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
@@ -6292,87 +6430,87 @@
         <v>346</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="17" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
       <c r="A4" s="17" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15">
       <c r="A5" s="17" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15">
       <c r="A6" s="17" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15">
       <c r="A7" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
       <c r="A8" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15">
       <c r="A9" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15">
@@ -6380,54 +6518,54 @@
         <v>426</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15">
       <c r="A11" s="17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15">
       <c r="A12" s="17" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15">
       <c r="A13" s="17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15">
       <c r="A14" s="17" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15">
@@ -6435,202 +6573,210 @@
         <v>362</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15">
       <c r="A16" s="17" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15">
       <c r="A17" s="17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15">
       <c r="A18" s="17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15">
       <c r="A19" s="17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15">
       <c r="A20" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15">
       <c r="A21" s="17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15">
       <c r="A22" s="17" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15">
       <c r="A23" s="17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15">
       <c r="A24" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15">
       <c r="A25" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="B25" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="B25" s="17" t="s">
-        <v>513</v>
-      </c>
       <c r="C25" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15">
       <c r="A26" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15">
       <c r="A27" s="17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15">
       <c r="A28" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15">
       <c r="A29" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15">
       <c r="A30" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15">
       <c r="A31" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="B31" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>520</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>486</v>
+      <c r="C31" s="24" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C31">
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="16" priority="10" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C31">
-    <cfRule type="duplicateValues" dxfId="7" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C31">
-    <cfRule type="duplicateValues" dxfId="6" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C31">
@@ -6643,19 +6789,25 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="23.375" customWidth="1"/>
+    <col min="8" max="8" width="18.25" customWidth="1"/>
+    <col min="12" max="12" width="14.375" customWidth="1"/>
+    <col min="14" max="14" width="20.625" customWidth="1"/>
+    <col min="15" max="15" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:17" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -6665,16 +6817,107 @@
       <c r="C1" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15">
+      <c r="D1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75">
       <c r="A2" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>552</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>553</v>
       </c>
       <c r="C2">
         <v>5231</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75">
+      <c r="A3" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="C3">
+        <v>5231</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="M3" s="1">
+        <v>100000</v>
+      </c>
+      <c r="N3" s="1">
+        <v>200000</v>
+      </c>
+      <c r="O3" s="1">
+        <v>60000</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -6684,10 +6927,10 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6699,40 +6942,254 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>488</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="A2" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="19" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="17" t="s">
         <v>553</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>486</v>
+      <c r="B3" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="No">
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15.75">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75">
+      <c r="A2" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="C2">
+        <v>5511</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.75">
+      <c r="A3" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="C3">
+        <v>5511</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="M3" s="1">
+        <v>100000</v>
+      </c>
+      <c r="N3" s="1">
+        <v>200000</v>
+      </c>
+      <c r="O3" s="1">
+        <v>60000</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="24.875" customWidth="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>561</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>562</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>485</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C3">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C3">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
